--- a/SVD_Files/RST_VE8x.xlsx
+++ b/SVD_Files/RST_VE8x.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="541">
   <si>
     <t>0x0000</t>
   </si>
@@ -967,9 +967,6 @@
     <t>PWR</t>
   </si>
   <si>
-    <t>FT_MODE</t>
-  </si>
-  <si>
     <t>WDT</t>
   </si>
   <si>
@@ -1154,9 +1151,6 @@
   </si>
   <si>
     <t>HSI_ERR</t>
-  </si>
-  <si>
-    <t>Зарезервировано - ?</t>
   </si>
   <si>
     <t>0x28</t>
@@ -1748,12 +1742,21 @@
   <si>
     <t>CRDC_CLK</t>
   </si>
+  <si>
+    <t>FT_CNTR</t>
+  </si>
+  <si>
+    <t>in BKP</t>
+  </si>
+  <si>
+    <t>flags in BKP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,6 +1818,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2025,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2077,7 +2089,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2122,13 +2133,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2140,13 +2160,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2158,6 +2187,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2165,24 +2203,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2266,8 +2286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2275,19 +2298,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2572,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,453 +2628,453 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="77" t="s">
+      <c r="B17" s="114" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="82"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="80"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3068,8 +3083,8 @@
       <c r="B48" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="62"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3078,8 +3093,8 @@
       <c r="B49" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="61"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -3088,8 +3103,8 @@
       <c r="B50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="61"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="65"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3098,8 +3113,8 @@
       <c r="B51" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="61"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="65"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -3108,18 +3123,18 @@
       <c r="B52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="61"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="65"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
+        <v>518</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="65"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -3128,8 +3143,8 @@
       <c r="B54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="61"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3138,8 +3153,8 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="65"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3148,8 +3163,8 @@
       <c r="B56" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="61"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="65"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3158,18 +3173,18 @@
       <c r="B57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="61"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="61"/>
+        <v>519</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="65"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3178,18 +3193,18 @@
       <c r="B59" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="65"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="61"/>
+        <v>520</v>
+      </c>
+      <c r="C60" s="63"/>
+      <c r="D60" s="65"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3198,8 +3213,8 @@
       <c r="B61" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="65"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -3208,8 +3223,8 @@
       <c r="B62" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="61"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="65"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3218,18 +3233,18 @@
       <c r="B63" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="61"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="61"/>
+        <v>521</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="65"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3238,8 +3253,8 @@
       <c r="B65" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="61"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="65"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3248,8 +3263,8 @@
       <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="61"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="65"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3258,38 +3273,38 @@
       <c r="B67" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="61"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="65"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="61"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="65"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="110" t="s">
-        <v>537</v>
-      </c>
-      <c r="B69" s="109" t="s">
+      <c r="A69" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="B69" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="61"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="65"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="61"/>
+        <v>522</v>
+      </c>
+      <c r="C70" s="63"/>
+      <c r="D70" s="65"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3298,8 +3313,8 @@
       <c r="B71" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="61"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="65"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -3308,8 +3323,8 @@
       <c r="B72" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="76"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="68"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -3330,13 +3345,13 @@
         <v>67</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,22 +3359,22 @@
         <v>68</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="C75" s="71" t="s">
+        <v>524</v>
+      </c>
+      <c r="C75" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="73"/>
+      <c r="D75" s="62"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="61"/>
+        <v>525</v>
+      </c>
+      <c r="C76" s="63"/>
+      <c r="D76" s="65"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3368,8 +3383,8 @@
       <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="61"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="65"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -3378,8 +3393,8 @@
       <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="76"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="68"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -3388,10 +3403,10 @@
       <c r="B79" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="67"/>
+      <c r="D79" s="74"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3400,10 +3415,10 @@
       <c r="B80" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C80" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="58"/>
+      <c r="D80" s="71"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -3412,10 +3427,10 @@
       <c r="B81" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="58"/>
+      <c r="D81" s="71"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
@@ -3424,10 +3439,10 @@
       <c r="B82" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="68" t="s">
-        <v>524</v>
-      </c>
-      <c r="D82" s="70"/>
+      <c r="C82" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="D82" s="80"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -3450,7 +3465,7 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6" t="s">
@@ -3462,7 +3477,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="6" t="s">
@@ -3486,11 +3501,11 @@
         <v>96</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,20 +3559,20 @@
       <c r="A97" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="64"/>
+      <c r="D97" s="77"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="113" t="s">
+      <c r="C98" s="59" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,19 +3589,19 @@
       <c r="A101" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="71" t="s">
+      <c r="C101" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="73"/>
+      <c r="D101" s="62"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="74" t="s">
-        <v>533</v>
-      </c>
-      <c r="D102" s="76"/>
+      <c r="C102" s="66" t="s">
+        <v>531</v>
+      </c>
+      <c r="D102" s="68"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -3612,10 +3627,10 @@
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="64"/>
+      <c r="D107" s="77"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -3659,7 +3674,7 @@
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,7 +3698,7 @@
         <v>123</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D115" s="11"/>
     </row>
@@ -3701,7 +3716,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3709,33 +3724,33 @@
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="62" t="s">
+      <c r="C118" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="64"/>
+      <c r="D118" s="77"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="111" t="s">
-        <v>535</v>
+      <c r="B119" s="57" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="111" t="s">
-        <v>538</v>
+      <c r="B120" s="57" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="112" t="s">
-        <v>539</v>
+      <c r="B121" s="58" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,13 +3815,15 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -3817,10 +3834,8 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3831,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K312"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,37 +3859,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>220</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>217</v>
       </c>
       <c r="C2" s="35"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>218</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="35" t="s">
@@ -3893,7 +3908,7 @@
       <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3902,134 +3917,134 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
         <v>11</v>
@@ -4041,7 +4056,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
         <v>12</v>
@@ -4053,7 +4068,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
         <v>13</v>
@@ -4065,7 +4080,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
         <v>14</v>
@@ -4077,7 +4092,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
         <v>15</v>
@@ -4089,200 +4104,200 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>243</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>244</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="97"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
         <v>245</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>246</v>
       </c>
       <c r="C25" s="26"/>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="43">
         <v>16</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="44">
         <v>17</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>249</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="44">
         <v>18</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>250</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
+      <c r="A29" s="44">
         <v>19</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>251</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+      <c r="A30" s="45">
         <v>20</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>252</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="43">
         <v>21</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>258</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+      <c r="A32" s="45">
         <v>22</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>259</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+      <c r="A33" s="43">
         <v>23</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>260</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="105" t="s">
+      <c r="D33" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="44">
         <v>24</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>261</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="106" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="44">
         <v>25</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>262</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="46">
+      <c r="A36" s="45">
         <v>26</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>263</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="47" t="s">
         <v>269</v>
       </c>
       <c r="B40" s="35" t="s">
@@ -4300,7 +4315,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="A41" s="37">
         <v>0</v>
       </c>
       <c r="B41" s="6"/>
@@ -4312,7 +4327,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="37">
         <v>1</v>
       </c>
       <c r="B42" s="6"/>
@@ -4324,7 +4339,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="37">
         <v>2</v>
       </c>
       <c r="B43" s="6"/>
@@ -4336,7 +4351,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="A44" s="37">
         <v>3</v>
       </c>
       <c r="B44" s="6"/>
@@ -4344,11 +4359,11 @@
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31" t="s">
-        <v>315</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
+      <c r="A45" s="37">
         <v>4</v>
       </c>
       <c r="B45" s="6"/>
@@ -4356,11 +4371,11 @@
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
+      <c r="A46" s="37">
         <v>5</v>
       </c>
       <c r="B46" s="6"/>
@@ -4370,7 +4385,7 @@
       <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+      <c r="A47" s="37">
         <v>6</v>
       </c>
       <c r="B47" s="6"/>
@@ -4380,7 +4395,7 @@
       <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="37">
         <v>7</v>
       </c>
       <c r="B48" s="6"/>
@@ -4390,7 +4405,7 @@
       <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
+      <c r="A49" s="37">
         <v>8</v>
       </c>
       <c r="B49" s="6"/>
@@ -4400,7 +4415,7 @@
       <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="38">
+      <c r="A50" s="37">
         <v>9</v>
       </c>
       <c r="B50" s="6"/>
@@ -4410,7 +4425,7 @@
       <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="37">
         <v>10</v>
       </c>
       <c r="B51" s="6"/>
@@ -4420,7 +4435,7 @@
       <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="38">
+      <c r="A52" s="37">
         <v>11</v>
       </c>
       <c r="B52" s="6"/>
@@ -4428,11 +4443,11 @@
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="37">
         <v>12</v>
       </c>
       <c r="B53" s="6"/>
@@ -4442,67 +4457,67 @@
       <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="38">
+      <c r="A54" s="37">
         <v>13</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="38">
+      <c r="A55" s="37">
         <v>14</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="100" t="s">
+      <c r="D55" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="38">
+      <c r="A56" s="37">
         <v>15</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="100" t="s">
+      <c r="D56" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="38">
+      <c r="A57" s="37">
         <v>16</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="100" t="s">
+      <c r="D57" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="38">
+      <c r="A58" s="37">
         <v>17</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="31"/>
-      <c r="E58" s="100" t="s">
+      <c r="E58" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="F58" s="100"/>
+      <c r="F58" s="104"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="38">
+      <c r="A59" s="37">
         <v>18</v>
       </c>
       <c r="B59" s="6"/>
@@ -4512,7 +4527,7 @@
       <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="38">
+      <c r="A60" s="37">
         <v>19</v>
       </c>
       <c r="B60" s="6"/>
@@ -4522,7 +4537,7 @@
       <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="38">
+      <c r="A61" s="37">
         <v>20</v>
       </c>
       <c r="B61" s="6"/>
@@ -4532,7 +4547,7 @@
       <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="38">
+      <c r="A62" s="37">
         <v>21</v>
       </c>
       <c r="B62" s="6"/>
@@ -4540,13 +4555,13 @@
       <c r="D62" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="E62" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62" s="100"/>
+      <c r="E62" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" s="104"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="38">
+      <c r="A63" s="37">
         <v>22</v>
       </c>
       <c r="B63" s="6"/>
@@ -4556,25 +4571,25 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="38">
+      <c r="A64" s="37">
         <v>23</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="E64" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="F64" s="100"/>
+      <c r="F64" s="104"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="38">
+      <c r="A65" s="37">
         <v>24</v>
       </c>
       <c r="B65" s="6"/>
@@ -4582,27 +4597,27 @@
       <c r="D65" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="E65" s="100" t="s">
+      <c r="E65" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="F65" s="100"/>
+      <c r="F65" s="104"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="38">
+      <c r="A66" s="37">
         <v>25</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E66" s="100" t="s">
+        <v>515</v>
+      </c>
+      <c r="E66" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="100"/>
+      <c r="F66" s="104"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="38">
+      <c r="A67" s="37">
         <v>26</v>
       </c>
       <c r="B67" s="6"/>
@@ -4610,13 +4625,13 @@
       <c r="D67" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="E67" s="100" t="s">
-        <v>509</v>
-      </c>
-      <c r="F67" s="100"/>
+      <c r="E67" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="F67" s="104"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="38">
+      <c r="A68" s="37">
         <v>27</v>
       </c>
       <c r="B68" s="6"/>
@@ -4624,11 +4639,11 @@
       <c r="D68" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="38">
+      <c r="A69" s="37">
         <v>28</v>
       </c>
       <c r="B69" s="6"/>
@@ -4636,25 +4651,25 @@
       <c r="D69" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="38">
+      <c r="A70" s="37">
         <v>29</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="E70" s="100" t="s">
+        <v>516</v>
+      </c>
+      <c r="E70" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="F70" s="100"/>
+      <c r="F70" s="104"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="38">
+      <c r="A71" s="37">
         <v>30</v>
       </c>
       <c r="B71" s="6"/>
@@ -4664,11 +4679,11 @@
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="38">
+      <c r="A72" s="37">
         <v>31</v>
       </c>
       <c r="B72" s="6"/>
@@ -4676,11 +4691,11 @@
       <c r="D72" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="E72" s="100"/>
-      <c r="F72" s="100"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
     </row>
     <row r="75" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="47" t="s">
         <v>284</v>
       </c>
       <c r="B75" s="35" t="s">
@@ -4698,7 +4713,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>0</v>
       </c>
       <c r="B76" s="6"/>
@@ -4706,11 +4721,11 @@
       <c r="D76" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="38">
+      <c r="A77" s="37">
         <v>1</v>
       </c>
       <c r="B77" s="6"/>
@@ -4718,11 +4733,11 @@
       <c r="D77" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="38">
+      <c r="A78" s="37">
         <v>2</v>
       </c>
       <c r="B78" s="6"/>
@@ -4730,27 +4745,27 @@
       <c r="D78" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E78" s="100" t="s">
+      <c r="E78" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="F78" s="100"/>
+      <c r="F78" s="104"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="38">
+      <c r="A79" s="37">
         <v>3</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E79" s="31"/>
       <c r="F79" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="38">
+      <c r="A80" s="37">
         <v>4</v>
       </c>
       <c r="B80" s="6"/>
@@ -4760,11 +4775,11 @@
       </c>
       <c r="E80" s="31"/>
       <c r="F80" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="38">
+      <c r="A81" s="37">
         <v>5</v>
       </c>
       <c r="B81" s="6"/>
@@ -4774,11 +4789,11 @@
       </c>
       <c r="E81" s="31"/>
       <c r="F81" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="38">
+      <c r="A82" s="37">
         <v>6</v>
       </c>
       <c r="B82" s="6"/>
@@ -4786,27 +4801,27 @@
       <c r="D82" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="100" t="s">
+      <c r="E82" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="F82" s="100"/>
+      <c r="F82" s="104"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="38">
+      <c r="A83" s="37">
         <v>7</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="E83" s="100" t="s">
+        <v>508</v>
+      </c>
+      <c r="E83" s="104" t="s">
         <v>279</v>
       </c>
-      <c r="F83" s="100"/>
+      <c r="F83" s="104"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="38">
+      <c r="A84" s="37">
         <v>8</v>
       </c>
       <c r="B84" s="6"/>
@@ -4814,23 +4829,23 @@
       <c r="D84" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="E84" s="100"/>
-      <c r="F84" s="100"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="38">
+      <c r="A85" s="37">
         <v>9</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100"/>
+        <v>509</v>
+      </c>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="38">
+      <c r="A86" s="37">
         <v>10</v>
       </c>
       <c r="B86" s="6"/>
@@ -4838,11 +4853,11 @@
       <c r="D86" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="E86" s="100"/>
-      <c r="F86" s="100"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="38">
+      <c r="A87" s="37">
         <v>11</v>
       </c>
       <c r="B87" s="6"/>
@@ -4851,12 +4866,12 @@
         <v>293</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F87" s="31"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="38">
+      <c r="A88" s="37">
         <v>12</v>
       </c>
       <c r="B88" s="6"/>
@@ -4868,7 +4883,7 @@
       <c r="F88" s="31"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="38">
+      <c r="A89" s="37">
         <v>13</v>
       </c>
       <c r="B89" s="6"/>
@@ -4877,12 +4892,12 @@
         <v>295</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="38">
+      <c r="A90" s="37">
         <v>14</v>
       </c>
       <c r="B90" s="6"/>
@@ -4894,7 +4909,7 @@
       <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="38">
+      <c r="A91" s="37">
         <v>15</v>
       </c>
       <c r="B91" s="6"/>
@@ -4906,7 +4921,7 @@
       <c r="F91" s="31"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="38">
+      <c r="A92" s="37">
         <v>16</v>
       </c>
       <c r="B92" s="6"/>
@@ -4918,7 +4933,7 @@
       <c r="F92" s="31"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="38">
+      <c r="A93" s="37">
         <v>17</v>
       </c>
       <c r="B93" s="6"/>
@@ -4930,19 +4945,19 @@
       <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="38">
+      <c r="A94" s="37">
         <v>18</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="38">
+      <c r="A95" s="37">
         <v>19</v>
       </c>
       <c r="B95" s="6"/>
@@ -4950,13 +4965,13 @@
       <c r="D95" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="E95" s="100" t="s">
+      <c r="E95" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="F95" s="100"/>
+      <c r="F95" s="104"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="38">
+      <c r="A96" s="37">
         <v>20</v>
       </c>
       <c r="B96" s="6"/>
@@ -4968,21 +4983,21 @@
       <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="38">
+      <c r="A97" s="37">
         <v>21</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="E97" s="100" t="s">
-        <v>506</v>
-      </c>
-      <c r="F97" s="100"/>
+        <v>511</v>
+      </c>
+      <c r="E97" s="104" t="s">
+        <v>504</v>
+      </c>
+      <c r="F97" s="104"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="38">
+      <c r="A98" s="37">
         <v>22</v>
       </c>
       <c r="B98" s="6"/>
@@ -4994,7 +5009,7 @@
       <c r="F98" s="31"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="38">
+      <c r="A99" s="37">
         <v>23</v>
       </c>
       <c r="B99" s="6"/>
@@ -5008,7 +5023,7 @@
       <c r="F99" s="31"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="38">
+      <c r="A100" s="37">
         <v>24</v>
       </c>
       <c r="B100" s="6"/>
@@ -5022,23 +5037,23 @@
       <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="38">
+      <c r="A101" s="37">
         <v>25</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="31" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E101" s="31" t="s">
         <v>302</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="38">
+      <c r="A102" s="37">
         <v>26</v>
       </c>
       <c r="B102" s="6"/>
@@ -5052,7 +5067,7 @@
       <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="38">
+      <c r="A103" s="37">
         <v>27</v>
       </c>
       <c r="B103" s="6"/>
@@ -5060,11 +5075,11 @@
       <c r="D103" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="104"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="38">
+      <c r="A104" s="37">
         <v>28</v>
       </c>
       <c r="B104" s="6"/>
@@ -5074,25 +5089,25 @@
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="38">
+      <c r="A105" s="37">
         <v>29</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="38">
+      <c r="A106" s="37">
         <v>30</v>
       </c>
       <c r="B106" s="6"/>
@@ -5102,11 +5117,11 @@
       </c>
       <c r="E106" s="31"/>
       <c r="F106" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="38">
+      <c r="A107" s="37">
         <v>31</v>
       </c>
       <c r="B107" s="6"/>
@@ -5116,17 +5131,17 @@
       </c>
       <c r="E107" s="31"/>
       <c r="F107" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B111" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="C111" s="43"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="33" t="s">
         <v>7</v>
       </c>
@@ -5139,43 +5154,43 @@
       <c r="G111" s="35"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="37" t="s">
         <v>245</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" s="104"/>
+      <c r="E112" s="104"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="104"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C112" s="100" t="s">
+      <c r="C113" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="100"/>
-      <c r="G112" s="100"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C113" s="100" t="s">
+      <c r="D113" s="104"/>
+      <c r="E113" s="104"/>
+      <c r="F113" s="104"/>
+      <c r="G113" s="104"/>
+    </row>
+    <row r="114" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="100"/>
-    </row>
-    <row r="114" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="B114" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" s="43"/>
+      <c r="C114" s="42"/>
       <c r="D114" s="33" t="s">
         <v>7</v>
       </c>
@@ -5188,43 +5203,43 @@
       <c r="G114" s="35"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="37" t="s">
         <v>245</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="104" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" s="104"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="104"/>
+      <c r="G115" s="104"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C115" s="100" t="s">
+      <c r="C116" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="100"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C116" s="100" t="s">
+      <c r="D116" s="104"/>
+      <c r="E116" s="104"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="104"/>
+    </row>
+    <row r="120" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="D116" s="100"/>
-      <c r="E116" s="100"/>
-      <c r="F116" s="100"/>
-      <c r="G116" s="100"/>
-    </row>
-    <row r="120" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="48" t="s">
+      <c r="B120" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="C120" s="43"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="33" t="s">
         <v>7</v>
       </c>
@@ -5237,91 +5252,91 @@
       <c r="G120" s="35"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C121" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="96"/>
+      <c r="G121" s="96"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C121" s="92" t="s">
+      <c r="B122" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C122" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="D121" s="92"/>
-      <c r="E121" s="92"/>
-      <c r="F121" s="92"/>
-      <c r="G121" s="92"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="38" t="s">
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="96"/>
+      <c r="G122" s="96"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B123" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C122" s="92" t="s">
+      <c r="C123" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="D122" s="92"/>
-      <c r="E122" s="92"/>
-      <c r="F122" s="92"/>
-      <c r="G122" s="92"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="38" t="s">
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C123" s="92" t="s">
+      <c r="C124" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
-      <c r="F123" s="92"/>
-      <c r="G123" s="92"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="D124" s="96"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="96"/>
+      <c r="G124" s="96"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="C124" s="92" t="s">
+      <c r="D125" s="105"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="105"/>
+      <c r="G125" s="105"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+    </row>
+    <row r="130" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="D124" s="92"/>
-      <c r="E124" s="92"/>
-      <c r="F124" s="92"/>
-      <c r="G124" s="92"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="D125" s="101"/>
-      <c r="E125" s="101"/>
-      <c r="F125" s="101"/>
-      <c r="G125" s="101"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D126" s="101"/>
-      <c r="E126" s="101"/>
-      <c r="F126" s="101"/>
-      <c r="G126" s="101"/>
-    </row>
-    <row r="130" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="B130" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="B130" s="85" t="s">
-        <v>356</v>
-      </c>
-      <c r="C130" s="85"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="33" t="s">
         <v>7</v>
       </c>
@@ -5334,294 +5349,294 @@
       <c r="G130" s="35"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="38" t="s">
-        <v>342</v>
+      <c r="A131" s="37" t="s">
+        <v>341</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E131" s="96"/>
+      <c r="F131" s="96"/>
+      <c r="G131" s="96"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="92" t="s">
+      <c r="C132" s="41"/>
+      <c r="D132" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="E131" s="92"/>
-      <c r="F131" s="92"/>
-      <c r="G131" s="92"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C132" s="42"/>
-      <c r="D132" s="92" t="s">
+      <c r="E132" s="96"/>
+      <c r="F132" s="96"/>
+      <c r="G132" s="96"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="37">
+        <v>16</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" s="41"/>
+      <c r="D133" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="37">
+        <v>17</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E132" s="92"/>
-      <c r="F132" s="92"/>
-      <c r="G132" s="92"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="38">
-        <v>16</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="C134" s="41"/>
+      <c r="D134" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E134" s="96"/>
+      <c r="F134" s="96"/>
+      <c r="G134" s="96"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="37">
+        <v>18</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C133" s="42"/>
-      <c r="D133" s="92" t="s">
+      <c r="C135" s="41"/>
+      <c r="D135" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E135" s="96"/>
+      <c r="F135" s="96"/>
+      <c r="G135" s="96"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="37">
+        <v>19</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="41"/>
+      <c r="D136" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E136" s="96"/>
+      <c r="F136" s="96"/>
+      <c r="G136" s="96"/>
+    </row>
+    <row r="140" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="47" t="s">
         <v>366</v>
-      </c>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="38">
-        <v>17</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C134" s="42"/>
-      <c r="D134" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E134" s="92"/>
-      <c r="F134" s="92"/>
-      <c r="G134" s="92"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="38">
-        <v>18</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C135" s="42"/>
-      <c r="D135" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E135" s="92"/>
-      <c r="F135" s="92"/>
-      <c r="G135" s="92"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="38">
-        <v>19</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C136" s="42"/>
-      <c r="D136" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E136" s="92"/>
-      <c r="F136" s="92"/>
-      <c r="G136" s="92"/>
-    </row>
-    <row r="140" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
-        <v>367</v>
       </c>
       <c r="B140" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="35"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="85"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="89"/>
+      <c r="G140" s="89"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="38" t="s">
+      <c r="A141" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="39" t="s">
         <v>94</v>
       </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="G141" s="92"/>
+      <c r="D141" s="96"/>
+      <c r="E141" s="96"/>
+      <c r="F141" s="96"/>
+      <c r="G141" s="96"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="38">
+      <c r="A142" s="37">
         <v>16</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="92" t="s">
+      <c r="D142" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="E142" s="92"/>
-      <c r="F142" s="92"/>
-      <c r="G142" s="92"/>
+      <c r="E142" s="96"/>
+      <c r="F142" s="96"/>
+      <c r="G142" s="96"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="38">
+      <c r="A143" s="37">
         <v>17</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="92" t="s">
+      <c r="D143" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E143" s="92"/>
-      <c r="F143" s="92"/>
-      <c r="G143" s="92"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="96"/>
+      <c r="G143" s="96"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="38">
+      <c r="A144" s="37">
         <v>18</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C144" s="6"/>
-      <c r="D144" s="92" t="s">
+      <c r="D144" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="E144" s="92"/>
-      <c r="F144" s="92"/>
-      <c r="G144" s="92"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="96"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="38">
+      <c r="A145" s="37">
         <v>19</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="92" t="s">
+      <c r="D145" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E145" s="92"/>
-      <c r="F145" s="92"/>
-      <c r="G145" s="92"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="38">
+      <c r="A146" s="37">
         <v>20</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>252</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="92" t="s">
+      <c r="D146" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="E146" s="92"/>
-      <c r="F146" s="92"/>
-      <c r="G146" s="92"/>
+      <c r="E146" s="96"/>
+      <c r="F146" s="96"/>
+      <c r="G146" s="96"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="38">
+      <c r="A147" s="37">
         <v>21</v>
       </c>
-      <c r="B147" s="41" t="s">
+      <c r="B147" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="92" t="s">
+      <c r="D147" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E147" s="92"/>
-      <c r="F147" s="92"/>
-      <c r="G147" s="92"/>
+      <c r="E147" s="96"/>
+      <c r="F147" s="96"/>
+      <c r="G147" s="96"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="38">
+      <c r="A148" s="37">
         <v>22</v>
       </c>
-      <c r="B148" s="41" t="s">
+      <c r="B148" s="40" t="s">
         <v>259</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="92" t="s">
+      <c r="D148" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E148" s="92"/>
-      <c r="F148" s="92"/>
-      <c r="G148" s="92"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="96"/>
+      <c r="G148" s="96"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="38">
+      <c r="A149" s="37">
         <v>23</v>
       </c>
-      <c r="B149" s="41" t="s">
+      <c r="B149" s="40" t="s">
         <v>260</v>
       </c>
       <c r="C149" s="6"/>
-      <c r="D149" s="92" t="s">
+      <c r="D149" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="E149" s="92"/>
-      <c r="F149" s="92"/>
-      <c r="G149" s="92"/>
+      <c r="E149" s="96"/>
+      <c r="F149" s="96"/>
+      <c r="G149" s="96"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="38">
+      <c r="A150" s="37">
         <v>24</v>
       </c>
-      <c r="B150" s="41" t="s">
+      <c r="B150" s="40" t="s">
         <v>261</v>
       </c>
       <c r="C150" s="6"/>
-      <c r="D150" s="92" t="s">
+      <c r="D150" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="E150" s="92"/>
-      <c r="F150" s="92"/>
-      <c r="G150" s="92"/>
+      <c r="E150" s="96"/>
+      <c r="F150" s="96"/>
+      <c r="G150" s="96"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="38">
+      <c r="A151" s="37">
         <v>25</v>
       </c>
-      <c r="B151" s="41" t="s">
+      <c r="B151" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C151" s="6"/>
-      <c r="D151" s="92" t="s">
+      <c r="D151" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="E151" s="92"/>
-      <c r="F151" s="92"/>
-      <c r="G151" s="92"/>
+      <c r="E151" s="96"/>
+      <c r="F151" s="96"/>
+      <c r="G151" s="96"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="38">
+      <c r="A152" s="37">
         <v>26</v>
       </c>
-      <c r="B152" s="41" t="s">
+      <c r="B152" s="40" t="s">
         <v>263</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="92" t="s">
+      <c r="D152" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="E152" s="92"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="92"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="96"/>
+      <c r="G152" s="96"/>
     </row>
     <row r="156" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B156" s="96" t="s">
-        <v>368</v>
-      </c>
-      <c r="C156" s="97"/>
+      <c r="A156" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="B156" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="C156" s="101"/>
       <c r="D156" s="33" t="s">
         <v>7</v>
       </c>
@@ -5633,13 +5648,13 @@
       </c>
     </row>
     <row r="157" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="B157" s="96" t="s">
-        <v>369</v>
-      </c>
-      <c r="C157" s="97"/>
+      <c r="A157" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="B157" s="100" t="s">
+        <v>368</v>
+      </c>
+      <c r="C157" s="101"/>
       <c r="D157" s="33" t="s">
         <v>7</v>
       </c>
@@ -5651,13 +5666,13 @@
       </c>
     </row>
     <row r="158" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="B158" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="C158" s="97"/>
+      <c r="A158" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="B158" s="100" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" s="101"/>
       <c r="D158" s="33" t="s">
         <v>7</v>
       </c>
@@ -5669,23 +5684,23 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="99" t="s">
-        <v>371</v>
-      </c>
-      <c r="B159" s="99"/>
-      <c r="C159" s="99"/>
-      <c r="D159" s="99"/>
-      <c r="E159" s="99"/>
-      <c r="F159" s="99"/>
+      <c r="A159" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="B159" s="103"/>
+      <c r="C159" s="103"/>
+      <c r="D159" s="103"/>
+      <c r="E159" s="103"/>
+      <c r="F159" s="103"/>
     </row>
     <row r="161" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="48" t="s">
+      <c r="A161" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="B161" s="89" t="s">
         <v>382</v>
       </c>
-      <c r="B161" s="85" t="s">
-        <v>384</v>
-      </c>
-      <c r="C161" s="85"/>
+      <c r="C161" s="89"/>
       <c r="D161" s="33" t="s">
         <v>7</v>
       </c>
@@ -5697,136 +5712,136 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="38" t="s">
-        <v>342</v>
+      <c r="A162" s="37" t="s">
+        <v>341</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E162" s="96"/>
+      <c r="F162" s="96"/>
+      <c r="G162" s="36"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="92" t="s">
+      <c r="C163" s="41"/>
+      <c r="D163" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="E162" s="92"/>
-      <c r="F162" s="92"/>
-      <c r="G162" s="36"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C163" s="42"/>
-      <c r="D163" s="92" t="s">
+      <c r="E163" s="96"/>
+      <c r="F163" s="96"/>
+      <c r="G163" s="36"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="37">
+        <v>16</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="41"/>
+      <c r="D164" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E164" s="96"/>
+      <c r="F164" s="96"/>
+      <c r="G164" s="36"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="37">
+        <v>17</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E163" s="92"/>
-      <c r="F163" s="92"/>
-      <c r="G163" s="36"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="38">
-        <v>16</v>
-      </c>
-      <c r="B164" s="6" t="s">
+      <c r="C165" s="41"/>
+      <c r="D165" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" s="96"/>
+      <c r="F165" s="96"/>
+      <c r="G165" s="36"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="37">
+        <v>18</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C164" s="42"/>
-      <c r="D164" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E164" s="92"/>
-      <c r="F164" s="92"/>
-      <c r="G164" s="36"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="38">
-        <v>17</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C165" s="42"/>
-      <c r="D165" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E165" s="92"/>
-      <c r="F165" s="92"/>
-      <c r="G165" s="36"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="38">
-        <v>18</v>
-      </c>
-      <c r="B166" s="6" t="s">
+      <c r="C166" s="41"/>
+      <c r="D166" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E166" s="96"/>
+      <c r="F166" s="96"/>
+      <c r="G166" s="36"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="37">
+        <v>19</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C166" s="42"/>
-      <c r="D166" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E166" s="92"/>
-      <c r="F166" s="92"/>
-      <c r="G166" s="36"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="38">
-        <v>19</v>
-      </c>
-      <c r="B167" s="6" t="s">
+      <c r="C167" s="41"/>
+      <c r="D167" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C167" s="42"/>
-      <c r="D167" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="E167" s="92"/>
-      <c r="F167" s="92"/>
+      <c r="E167" s="96"/>
+      <c r="F167" s="96"/>
       <c r="G167" s="36"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="38">
+      <c r="A168" s="37">
         <v>20</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" s="41"/>
+      <c r="D168" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="C168" s="42"/>
-      <c r="D168" s="92" t="s">
+      <c r="E168" s="96"/>
+      <c r="F168" s="96"/>
+      <c r="G168" s="36"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="37">
+        <v>21</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E168" s="92"/>
-      <c r="F168" s="92"/>
-      <c r="G168" s="36"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="38">
-        <v>21</v>
-      </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="6"/>
+      <c r="D169" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F169" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E169" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F169" s="31" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="173" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="B173" s="85" t="s">
+      <c r="A173" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C173" s="85"/>
+      <c r="C173" s="89"/>
       <c r="D173" s="33" t="s">
         <v>7</v>
       </c>
@@ -5838,46 +5853,48 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="38">
+      <c r="A174" s="37">
         <v>20</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="113" t="s">
+        <v>539</v>
+      </c>
+      <c r="E174" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="F174" s="77"/>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="37">
+        <v>21</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="92" t="s">
-        <v>373</v>
-      </c>
-      <c r="E174" s="92"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="38">
-        <v>21</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="C175" s="6"/>
-      <c r="D175" s="39" t="s">
+      <c r="D175" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E175" s="39" t="s">
+      <c r="E175" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F175" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="B179" s="96" t="s">
+      <c r="A179" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C179" s="97"/>
+      <c r="C179" s="101"/>
       <c r="D179" s="33" t="s">
         <v>7</v>
       </c>
@@ -5889,13 +5906,13 @@
       </c>
     </row>
     <row r="180" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="B180" s="85" t="s">
-        <v>386</v>
-      </c>
-      <c r="C180" s="85"/>
+      <c r="A180" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B180" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" s="89"/>
       <c r="D180" s="33" t="s">
         <v>7</v>
       </c>
@@ -5907,13 +5924,13 @@
       </c>
     </row>
     <row r="181" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="B181" s="85" t="s">
-        <v>387</v>
-      </c>
-      <c r="C181" s="85"/>
+      <c r="A181" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="B181" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181" s="89"/>
       <c r="D181" s="33" t="s">
         <v>7</v>
       </c>
@@ -5925,13 +5942,13 @@
       </c>
     </row>
     <row r="182" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="B182" s="85" t="s">
-        <v>370</v>
-      </c>
-      <c r="C182" s="85"/>
+      <c r="A182" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="B182" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="89"/>
       <c r="D182" s="33" t="s">
         <v>7</v>
       </c>
@@ -5943,13 +5960,13 @@
       </c>
     </row>
     <row r="183" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="B183" s="96" t="s">
-        <v>388</v>
-      </c>
-      <c r="C183" s="97"/>
+      <c r="A183" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" s="100" t="s">
+        <v>386</v>
+      </c>
+      <c r="C183" s="101"/>
       <c r="D183" s="33" t="s">
         <v>7</v>
       </c>
@@ -5961,259 +5978,259 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="99" t="s">
-        <v>519</v>
-      </c>
-      <c r="B184" s="99"/>
-      <c r="C184" s="99"/>
-      <c r="D184" s="99"/>
-      <c r="E184" s="99"/>
-      <c r="F184" s="99"/>
+      <c r="A184" s="103" t="s">
+        <v>517</v>
+      </c>
+      <c r="B184" s="103"/>
+      <c r="C184" s="103"/>
+      <c r="D184" s="103"/>
+      <c r="E184" s="103"/>
+      <c r="F184" s="103"/>
     </row>
     <row r="188" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="48" t="s">
-        <v>393</v>
+      <c r="A188" s="47" t="s">
+        <v>391</v>
       </c>
       <c r="B188" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C188" s="35"/>
-      <c r="D188" s="85"/>
-      <c r="E188" s="85"/>
-      <c r="F188" s="85"/>
-      <c r="G188" s="85"/>
+      <c r="D188" s="89"/>
+      <c r="E188" s="89"/>
+      <c r="F188" s="89"/>
+      <c r="G188" s="89"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="38" t="s">
+      <c r="A189" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B189" s="40" t="s">
+      <c r="B189" s="39" t="s">
         <v>94</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="92"/>
-      <c r="E189" s="92"/>
-      <c r="F189" s="92"/>
-      <c r="G189" s="92"/>
+      <c r="D189" s="96"/>
+      <c r="E189" s="96"/>
+      <c r="F189" s="96"/>
+      <c r="G189" s="96"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="38">
+      <c r="A190" s="37">
         <v>16</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C190" s="6"/>
-      <c r="D190" s="92" t="s">
+      <c r="D190" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="E190" s="92"/>
-      <c r="F190" s="92"/>
-      <c r="G190" s="92"/>
+      <c r="E190" s="96"/>
+      <c r="F190" s="96"/>
+      <c r="G190" s="96"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="38">
+      <c r="A191" s="37">
         <v>17</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C191" s="6"/>
-      <c r="D191" s="92" t="s">
+      <c r="D191" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E191" s="92"/>
-      <c r="F191" s="92"/>
-      <c r="G191" s="92"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="96"/>
+      <c r="G191" s="96"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="38">
+      <c r="A192" s="37">
         <v>18</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C192" s="6"/>
-      <c r="D192" s="92" t="s">
+      <c r="D192" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="E192" s="92"/>
-      <c r="F192" s="92"/>
-      <c r="G192" s="92"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="96"/>
+      <c r="G192" s="96"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="38">
+      <c r="A193" s="37">
         <v>19</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="92" t="s">
+      <c r="D193" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E193" s="92"/>
-      <c r="F193" s="92"/>
-      <c r="G193" s="92"/>
+      <c r="E193" s="96"/>
+      <c r="F193" s="96"/>
+      <c r="G193" s="96"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="38">
+      <c r="A194" s="37">
         <v>20</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>252</v>
       </c>
       <c r="C194" s="6"/>
-      <c r="D194" s="92" t="s">
+      <c r="D194" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="E194" s="92"/>
-      <c r="F194" s="92"/>
-      <c r="G194" s="92"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="96"/>
+      <c r="G194" s="96"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="38">
+      <c r="A195" s="37">
         <v>21</v>
       </c>
-      <c r="B195" s="41" t="s">
+      <c r="B195" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C195" s="6"/>
-      <c r="D195" s="92" t="s">
+      <c r="D195" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E195" s="92"/>
-      <c r="F195" s="92"/>
-      <c r="G195" s="92"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="96"/>
+      <c r="G195" s="96"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="38">
+      <c r="A196" s="37">
         <v>22</v>
       </c>
-      <c r="B196" s="41" t="s">
+      <c r="B196" s="40" t="s">
         <v>259</v>
       </c>
       <c r="C196" s="6"/>
-      <c r="D196" s="92" t="s">
-        <v>504</v>
-      </c>
-      <c r="E196" s="92"/>
-      <c r="F196" s="92"/>
-      <c r="G196" s="92"/>
+      <c r="D196" s="96" t="s">
+        <v>502</v>
+      </c>
+      <c r="E196" s="96"/>
+      <c r="F196" s="96"/>
+      <c r="G196" s="96"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="38">
+      <c r="A197" s="37">
         <v>23</v>
       </c>
-      <c r="B197" s="41" t="s">
+      <c r="B197" s="40" t="s">
         <v>260</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="92" t="s">
+      <c r="D197" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="E197" s="92"/>
-      <c r="F197" s="92"/>
-      <c r="G197" s="92"/>
+      <c r="E197" s="96"/>
+      <c r="F197" s="96"/>
+      <c r="G197" s="96"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="38">
+      <c r="A198" s="37">
         <v>24</v>
       </c>
-      <c r="B198" s="41" t="s">
+      <c r="B198" s="40" t="s">
         <v>261</v>
       </c>
       <c r="C198" s="6"/>
-      <c r="D198" s="92" t="s">
+      <c r="D198" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="E198" s="92"/>
-      <c r="F198" s="92"/>
-      <c r="G198" s="92"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="96"/>
+      <c r="G198" s="96"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="38">
+      <c r="A199" s="37">
         <v>25</v>
       </c>
-      <c r="B199" s="41" t="s">
+      <c r="B199" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C199" s="6"/>
-      <c r="D199" s="92" t="s">
+      <c r="D199" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="E199" s="92"/>
-      <c r="F199" s="92"/>
-      <c r="G199" s="92"/>
+      <c r="E199" s="96"/>
+      <c r="F199" s="96"/>
+      <c r="G199" s="96"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="38">
+      <c r="A200" s="37">
         <v>26</v>
       </c>
-      <c r="B200" s="41" t="s">
+      <c r="B200" s="40" t="s">
         <v>263</v>
       </c>
       <c r="C200" s="6"/>
-      <c r="D200" s="92" t="s">
+      <c r="D200" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="E200" s="92"/>
-      <c r="F200" s="92"/>
-      <c r="G200" s="92"/>
+      <c r="E200" s="96"/>
+      <c r="F200" s="96"/>
+      <c r="G200" s="96"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="38">
+      <c r="A201" s="37">
         <v>27</v>
       </c>
-      <c r="B201" s="41" t="s">
+      <c r="B201" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E201" s="96"/>
+      <c r="F201" s="96"/>
+      <c r="G201" s="96"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="37">
+        <v>28</v>
+      </c>
+      <c r="B202" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E202" s="96"/>
+      <c r="F202" s="96"/>
+      <c r="G202" s="96"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="37">
+        <v>29</v>
+      </c>
+      <c r="B203" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="92" t="s">
+      <c r="C203" s="6"/>
+      <c r="D203" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E203" s="96"/>
+      <c r="F203" s="96"/>
+      <c r="G203" s="96"/>
+    </row>
+    <row r="206" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="E201" s="92"/>
-      <c r="F201" s="92"/>
-      <c r="G201" s="92"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="38">
-        <v>28</v>
-      </c>
-      <c r="B202" s="41" t="s">
-        <v>396</v>
-      </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="E202" s="92"/>
-      <c r="F202" s="92"/>
-      <c r="G202" s="92"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="38">
-        <v>29</v>
-      </c>
-      <c r="B203" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="E203" s="92"/>
-      <c r="F203" s="92"/>
-      <c r="G203" s="92"/>
-    </row>
-    <row r="206" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="B206" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="C206" s="85"/>
+      <c r="B206" s="89" t="s">
+        <v>403</v>
+      </c>
+      <c r="C206" s="89"/>
       <c r="D206" s="33" t="s">
         <v>7</v>
       </c>
@@ -6225,13 +6242,13 @@
       </c>
     </row>
     <row r="207" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="B207" s="85" t="s">
-        <v>406</v>
-      </c>
-      <c r="C207" s="85"/>
+      <c r="A207" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="B207" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="C207" s="89"/>
       <c r="D207" s="33" t="s">
         <v>7</v>
       </c>
@@ -6243,13 +6260,13 @@
       </c>
     </row>
     <row r="208" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="B208" s="85" t="s">
-        <v>407</v>
-      </c>
-      <c r="C208" s="85"/>
+      <c r="A208" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B208" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="C208" s="89"/>
       <c r="D208" s="33" t="s">
         <v>7</v>
       </c>
@@ -6261,13 +6278,13 @@
       </c>
     </row>
     <row r="209" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="B209" s="96" t="s">
-        <v>408</v>
-      </c>
-      <c r="C209" s="97"/>
+      <c r="A209" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" s="100" t="s">
+        <v>406</v>
+      </c>
+      <c r="C209" s="101"/>
       <c r="D209" s="33" t="s">
         <v>7</v>
       </c>
@@ -6279,23 +6296,23 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="99" t="s">
-        <v>399</v>
-      </c>
-      <c r="B210" s="99"/>
-      <c r="C210" s="99"/>
-      <c r="D210" s="99"/>
-      <c r="E210" s="99"/>
-      <c r="F210" s="99"/>
+      <c r="A210" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" s="103"/>
+      <c r="C210" s="103"/>
+      <c r="D210" s="103"/>
+      <c r="E210" s="103"/>
+      <c r="F210" s="103"/>
     </row>
     <row r="212" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="B212" s="96" t="s">
+      <c r="A212" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="B212" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C212" s="97"/>
+      <c r="C212" s="101"/>
       <c r="D212" s="33" t="s">
         <v>7</v>
       </c>
@@ -6307,13 +6324,13 @@
       </c>
     </row>
     <row r="213" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="B213" s="85" t="s">
-        <v>409</v>
-      </c>
-      <c r="C213" s="85"/>
+      <c r="A213" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B213" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="C213" s="89"/>
       <c r="D213" s="33" t="s">
         <v>7</v>
       </c>
@@ -6325,13 +6342,13 @@
       </c>
     </row>
     <row r="214" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="48" t="s">
-        <v>414</v>
-      </c>
-      <c r="B214" s="85" t="s">
-        <v>410</v>
-      </c>
-      <c r="C214" s="85"/>
+      <c r="A214" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="B214" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="C214" s="89"/>
       <c r="D214" s="33" t="s">
         <v>7</v>
       </c>
@@ -6343,13 +6360,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="B215" s="85" t="s">
-        <v>411</v>
-      </c>
-      <c r="C215" s="85"/>
+      <c r="A215" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="C215" s="89"/>
       <c r="D215" s="33" t="s">
         <v>7</v>
       </c>
@@ -6361,13 +6378,13 @@
       </c>
     </row>
     <row r="216" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="B216" s="96" t="s">
-        <v>412</v>
-      </c>
-      <c r="C216" s="97"/>
+      <c r="A216" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="B216" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="C216" s="101"/>
       <c r="D216" s="33" t="s">
         <v>7</v>
       </c>
@@ -6379,576 +6396,576 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="B217" s="99"/>
-      <c r="C217" s="99"/>
-      <c r="D217" s="99"/>
-      <c r="E217" s="99"/>
-      <c r="F217" s="99"/>
+      <c r="A217" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217" s="103"/>
+      <c r="C217" s="103"/>
+      <c r="D217" s="103"/>
+      <c r="E217" s="103"/>
+      <c r="F217" s="103"/>
     </row>
     <row r="220" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="51" t="s">
+      <c r="A220" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B220" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C220" s="35"/>
+      <c r="D220" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E220" s="102"/>
+      <c r="F220" s="102"/>
+      <c r="G220" s="102"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="B220" s="47" t="s">
+      <c r="C221" s="6"/>
+      <c r="D221" s="75" t="s">
         <v>418</v>
       </c>
-      <c r="C220" s="35"/>
-      <c r="D220" s="98" t="s">
-        <v>429</v>
-      </c>
-      <c r="E220" s="98"/>
-      <c r="F220" s="98"/>
-      <c r="G220" s="98"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="B221" s="40" t="s">
+      <c r="E221" s="76"/>
+      <c r="F221" s="76"/>
+      <c r="G221" s="77"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="37">
+        <v>4</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="104" t="s">
         <v>419</v>
       </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="62" t="s">
+      <c r="E222" s="104"/>
+      <c r="F222" s="104"/>
+      <c r="G222" s="104"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="E221" s="63"/>
-      <c r="F221" s="63"/>
-      <c r="G221" s="64"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="38">
-        <v>4</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="100" t="s">
+      <c r="B223" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="104"/>
+      <c r="E223" s="104"/>
+      <c r="F223" s="104"/>
+      <c r="G223" s="104"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="E222" s="100"/>
-      <c r="F222" s="100"/>
-      <c r="G222" s="100"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="38" t="s">
+      <c r="B224" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B223" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="100"/>
-      <c r="E223" s="100"/>
-      <c r="F223" s="100"/>
-      <c r="G223" s="100"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="C224" s="6"/>
-      <c r="D224" s="100" t="s">
-        <v>430</v>
-      </c>
-      <c r="E224" s="100"/>
-      <c r="F224" s="100"/>
-      <c r="G224" s="100"/>
+      <c r="D224" s="104" t="s">
+        <v>428</v>
+      </c>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="38">
+      <c r="A225" s="37">
         <v>16</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C225" s="6"/>
-      <c r="D225" s="92" t="s">
+      <c r="D225" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="E225" s="92"/>
-      <c r="F225" s="92"/>
-      <c r="G225" s="92"/>
+      <c r="E225" s="96"/>
+      <c r="F225" s="96"/>
+      <c r="G225" s="96"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="38">
+      <c r="A226" s="37">
         <v>17</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C226" s="6"/>
-      <c r="D226" s="92" t="s">
+      <c r="D226" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E226" s="92"/>
-      <c r="F226" s="92"/>
-      <c r="G226" s="92"/>
+      <c r="E226" s="96"/>
+      <c r="F226" s="96"/>
+      <c r="G226" s="96"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="38">
+      <c r="A227" s="37">
         <v>18</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C227" s="6"/>
-      <c r="D227" s="92" t="s">
+      <c r="D227" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="E227" s="92"/>
-      <c r="F227" s="92"/>
-      <c r="G227" s="92"/>
+      <c r="E227" s="96"/>
+      <c r="F227" s="96"/>
+      <c r="G227" s="96"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="38">
+      <c r="A228" s="37">
         <v>19</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C228" s="6"/>
-      <c r="D228" s="92" t="s">
+      <c r="D228" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E228" s="92"/>
-      <c r="F228" s="92"/>
-      <c r="G228" s="92"/>
+      <c r="E228" s="96"/>
+      <c r="F228" s="96"/>
+      <c r="G228" s="96"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="38">
+      <c r="A229" s="37">
         <v>20</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>252</v>
       </c>
       <c r="C229" s="6"/>
-      <c r="D229" s="92" t="s">
+      <c r="D229" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="E229" s="92"/>
-      <c r="F229" s="92"/>
-      <c r="G229" s="92"/>
+      <c r="E229" s="96"/>
+      <c r="F229" s="96"/>
+      <c r="G229" s="96"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="38">
+      <c r="A230" s="37">
         <v>21</v>
       </c>
-      <c r="B230" s="41" t="s">
+      <c r="B230" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C230" s="6"/>
-      <c r="D230" s="92" t="s">
+      <c r="D230" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E230" s="92"/>
-      <c r="F230" s="92"/>
-      <c r="G230" s="92"/>
+      <c r="E230" s="96"/>
+      <c r="F230" s="96"/>
+      <c r="G230" s="96"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="38">
+      <c r="A231" s="37">
         <v>22</v>
       </c>
-      <c r="B231" s="41" t="s">
+      <c r="B231" s="40" t="s">
         <v>259</v>
       </c>
       <c r="C231" s="6"/>
-      <c r="D231" s="92" t="s">
+      <c r="D231" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E231" s="92"/>
-      <c r="F231" s="92"/>
-      <c r="G231" s="92"/>
+      <c r="E231" s="96"/>
+      <c r="F231" s="96"/>
+      <c r="G231" s="96"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="38">
+      <c r="A232" s="37">
         <v>23</v>
       </c>
-      <c r="B232" s="41" t="s">
+      <c r="B232" s="40" t="s">
         <v>260</v>
       </c>
       <c r="C232" s="6"/>
-      <c r="D232" s="92" t="s">
+      <c r="D232" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="E232" s="92"/>
-      <c r="F232" s="92"/>
-      <c r="G232" s="92"/>
+      <c r="E232" s="96"/>
+      <c r="F232" s="96"/>
+      <c r="G232" s="96"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="38">
+      <c r="A233" s="37">
         <v>24</v>
       </c>
-      <c r="B233" s="41" t="s">
+      <c r="B233" s="40" t="s">
         <v>261</v>
       </c>
       <c r="C233" s="6"/>
-      <c r="D233" s="92" t="s">
+      <c r="D233" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="E233" s="92"/>
-      <c r="F233" s="92"/>
-      <c r="G233" s="92"/>
+      <c r="E233" s="96"/>
+      <c r="F233" s="96"/>
+      <c r="G233" s="96"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="38">
+      <c r="A234" s="37">
         <v>25</v>
       </c>
-      <c r="B234" s="41" t="s">
+      <c r="B234" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C234" s="6"/>
-      <c r="D234" s="92" t="s">
+      <c r="D234" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="E234" s="92"/>
-      <c r="F234" s="92"/>
-      <c r="G234" s="92"/>
+      <c r="E234" s="96"/>
+      <c r="F234" s="96"/>
+      <c r="G234" s="96"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="38">
+      <c r="A235" s="37">
         <v>26</v>
       </c>
-      <c r="B235" s="41" t="s">
+      <c r="B235" s="40" t="s">
         <v>263</v>
       </c>
       <c r="C235" s="6"/>
-      <c r="D235" s="92" t="s">
+      <c r="D235" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="E235" s="92"/>
-      <c r="F235" s="92"/>
-      <c r="G235" s="92"/>
+      <c r="E235" s="96"/>
+      <c r="F235" s="96"/>
+      <c r="G235" s="96"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="38">
+      <c r="A236" s="37">
         <v>27</v>
       </c>
-      <c r="B236" s="41" t="s">
+      <c r="B236" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C236" s="6"/>
+      <c r="D236" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E236" s="96"/>
+      <c r="F236" s="96"/>
+      <c r="G236" s="96"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="37">
+        <v>28</v>
+      </c>
+      <c r="B237" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="C237" s="6"/>
+      <c r="D237" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E237" s="96"/>
+      <c r="F237" s="96"/>
+      <c r="G237" s="96"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B238" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="C236" s="6"/>
-      <c r="D236" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="E236" s="92"/>
-      <c r="F236" s="92"/>
-      <c r="G236" s="92"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="38">
-        <v>28</v>
-      </c>
-      <c r="B237" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="C237" s="6"/>
-      <c r="D237" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="E237" s="92"/>
-      <c r="F237" s="92"/>
-      <c r="G237" s="92"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B238" s="41" t="s">
-        <v>427</v>
-      </c>
       <c r="C238" s="6"/>
-      <c r="D238" s="92" t="s">
-        <v>440</v>
-      </c>
-      <c r="E238" s="92"/>
-      <c r="F238" s="92"/>
-      <c r="G238" s="92"/>
+      <c r="D238" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="E238" s="96"/>
+      <c r="F238" s="96"/>
+      <c r="G238" s="96"/>
     </row>
     <row r="242" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="51" t="s">
+      <c r="A242" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B242" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C242" s="35"/>
+      <c r="D242" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="102"/>
+      <c r="F242" s="102"/>
+      <c r="G242" s="102"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="B243" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="B242" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="C242" s="35"/>
-      <c r="D242" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" s="98"/>
-      <c r="F242" s="98"/>
-      <c r="G242" s="98"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="38" t="s">
+      <c r="C243" s="6"/>
+      <c r="D243" s="104" t="s">
         <v>431</v>
       </c>
-      <c r="B243" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="C243" s="6"/>
-      <c r="D243" s="100" t="s">
+      <c r="E243" s="104"/>
+      <c r="F243" s="104"/>
+      <c r="G243" s="104"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="E244" s="104"/>
+      <c r="F244" s="104"/>
+      <c r="G244" s="104"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="E243" s="100"/>
-      <c r="F243" s="100"/>
-      <c r="G243" s="100"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C244" s="6"/>
-      <c r="D244" s="100" t="s">
+      <c r="B245" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="E244" s="100"/>
-      <c r="F244" s="100"/>
-      <c r="G244" s="100"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="38" t="s">
+      <c r="C245" s="6"/>
+      <c r="D245" s="104" t="s">
         <v>435</v>
       </c>
-      <c r="B245" s="40" t="s">
+      <c r="E245" s="104"/>
+      <c r="F245" s="104"/>
+      <c r="G245" s="104"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="37">
+        <v>16</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C245" s="6"/>
-      <c r="D245" s="100" t="s">
+      <c r="C246" s="6"/>
+      <c r="D246" s="104" t="s">
         <v>437</v>
       </c>
-      <c r="E245" s="100"/>
-      <c r="F245" s="100"/>
-      <c r="G245" s="100"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="38">
-        <v>16</v>
-      </c>
-      <c r="B246" s="6" t="s">
+      <c r="E246" s="104"/>
+      <c r="F246" s="104"/>
+      <c r="G246" s="104"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="37">
+        <v>17</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C247" s="6"/>
+      <c r="D247" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E247" s="96"/>
+      <c r="F247" s="96"/>
+      <c r="G247" s="96"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B248" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C248" s="6"/>
+      <c r="D248" s="96" t="s">
         <v>438</v>
       </c>
-      <c r="C246" s="6"/>
-      <c r="D246" s="100" t="s">
-        <v>439</v>
-      </c>
-      <c r="E246" s="100"/>
-      <c r="F246" s="100"/>
-      <c r="G246" s="100"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="38">
-        <v>17</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C247" s="6"/>
-      <c r="D247" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="E247" s="92"/>
-      <c r="F247" s="92"/>
-      <c r="G247" s="92"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B248" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="C248" s="6"/>
-      <c r="D248" s="92" t="s">
-        <v>440</v>
-      </c>
-      <c r="E248" s="92"/>
-      <c r="F248" s="92"/>
-      <c r="G248" s="92"/>
+      <c r="E248" s="96"/>
+      <c r="F248" s="96"/>
+      <c r="G248" s="96"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="38">
+      <c r="A249" s="37">
         <v>21</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C249" s="6"/>
-      <c r="D249" s="92" t="s">
+      <c r="D249" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="E249" s="92"/>
-      <c r="F249" s="92"/>
-      <c r="G249" s="92"/>
+      <c r="E249" s="96"/>
+      <c r="F249" s="96"/>
+      <c r="G249" s="96"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="38">
+      <c r="A250" s="37">
         <v>22</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C250" s="6"/>
-      <c r="D250" s="92" t="s">
+      <c r="D250" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E250" s="92"/>
-      <c r="F250" s="92"/>
-      <c r="G250" s="92"/>
+      <c r="E250" s="96"/>
+      <c r="F250" s="96"/>
+      <c r="G250" s="96"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="38">
+      <c r="A251" s="37">
         <v>23</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C251" s="6"/>
-      <c r="D251" s="92" t="s">
+      <c r="D251" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="E251" s="92"/>
-      <c r="F251" s="92"/>
-      <c r="G251" s="92"/>
+      <c r="E251" s="96"/>
+      <c r="F251" s="96"/>
+      <c r="G251" s="96"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="38">
+      <c r="A252" s="37">
         <v>24</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C252" s="6"/>
-      <c r="D252" s="92" t="s">
+      <c r="D252" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E252" s="92"/>
-      <c r="F252" s="92"/>
-      <c r="G252" s="92"/>
+      <c r="E252" s="96"/>
+      <c r="F252" s="96"/>
+      <c r="G252" s="96"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="38">
+      <c r="A253" s="37">
         <v>25</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>252</v>
       </c>
       <c r="C253" s="6"/>
-      <c r="D253" s="92" t="s">
+      <c r="D253" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="E253" s="92"/>
-      <c r="F253" s="92"/>
-      <c r="G253" s="92"/>
+      <c r="E253" s="96"/>
+      <c r="F253" s="96"/>
+      <c r="G253" s="96"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="38">
+      <c r="A254" s="37">
         <v>26</v>
       </c>
-      <c r="B254" s="41" t="s">
+      <c r="B254" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C254" s="6"/>
-      <c r="D254" s="92" t="s">
+      <c r="D254" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E254" s="92"/>
-      <c r="F254" s="92"/>
-      <c r="G254" s="92"/>
+      <c r="E254" s="96"/>
+      <c r="F254" s="96"/>
+      <c r="G254" s="96"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="38">
+      <c r="A255" s="37">
         <v>27</v>
       </c>
-      <c r="B255" s="41" t="s">
+      <c r="B255" s="40" t="s">
         <v>259</v>
       </c>
       <c r="C255" s="6"/>
-      <c r="D255" s="92" t="s">
+      <c r="D255" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="E255" s="92"/>
-      <c r="F255" s="92"/>
-      <c r="G255" s="92"/>
+      <c r="E255" s="96"/>
+      <c r="F255" s="96"/>
+      <c r="G255" s="96"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="38">
+      <c r="A256" s="37">
         <v>28</v>
       </c>
-      <c r="B256" s="41" t="s">
+      <c r="B256" s="40" t="s">
         <v>260</v>
       </c>
       <c r="C256" s="6"/>
-      <c r="D256" s="92" t="s">
+      <c r="D256" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="E256" s="92"/>
-      <c r="F256" s="92"/>
-      <c r="G256" s="92"/>
+      <c r="E256" s="96"/>
+      <c r="F256" s="96"/>
+      <c r="G256" s="96"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="38">
+      <c r="A257" s="37">
         <v>29</v>
       </c>
-      <c r="B257" s="41" t="s">
+      <c r="B257" s="40" t="s">
         <v>261</v>
       </c>
       <c r="C257" s="6"/>
-      <c r="D257" s="92" t="s">
+      <c r="D257" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="E257" s="92"/>
-      <c r="F257" s="92"/>
-      <c r="G257" s="92"/>
+      <c r="E257" s="96"/>
+      <c r="F257" s="96"/>
+      <c r="G257" s="96"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="38">
+      <c r="A258" s="37">
         <v>30</v>
       </c>
-      <c r="B258" s="41" t="s">
+      <c r="B258" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C258" s="6"/>
-      <c r="D258" s="92" t="s">
+      <c r="D258" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="E258" s="92"/>
-      <c r="F258" s="92"/>
-      <c r="G258" s="92"/>
+      <c r="E258" s="96"/>
+      <c r="F258" s="96"/>
+      <c r="G258" s="96"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="38">
+      <c r="A259" s="37">
         <v>31</v>
       </c>
-      <c r="B259" s="41" t="s">
+      <c r="B259" s="40" t="s">
         <v>263</v>
       </c>
       <c r="C259" s="6"/>
-      <c r="D259" s="92" t="s">
+      <c r="D259" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="E259" s="92"/>
-      <c r="F259" s="92"/>
-      <c r="G259" s="92"/>
+      <c r="E259" s="96"/>
+      <c r="F259" s="96"/>
+      <c r="G259" s="96"/>
     </row>
     <row r="263" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="B263" s="85" t="s">
-        <v>443</v>
-      </c>
-      <c r="C263" s="85"/>
+      <c r="A263" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B263" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="C263" s="89"/>
       <c r="D263" s="33" t="s">
         <v>7</v>
       </c>
@@ -6960,13 +6977,13 @@
       </c>
     </row>
     <row r="264" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="B264" s="85" t="s">
-        <v>444</v>
-      </c>
-      <c r="C264" s="85"/>
+      <c r="A264" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="B264" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="C264" s="89"/>
       <c r="D264" s="33" t="s">
         <v>7</v>
       </c>
@@ -6978,13 +6995,13 @@
       </c>
     </row>
     <row r="265" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="B265" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="C265" s="85"/>
+      <c r="A265" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="B265" s="89" t="s">
+        <v>443</v>
+      </c>
+      <c r="C265" s="89"/>
       <c r="D265" s="33" t="s">
         <v>7</v>
       </c>
@@ -6996,13 +7013,13 @@
       </c>
     </row>
     <row r="266" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="B266" s="96" t="s">
-        <v>446</v>
-      </c>
-      <c r="C266" s="97"/>
+      <c r="A266" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="B266" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C266" s="101"/>
       <c r="D266" s="33" t="s">
         <v>7</v>
       </c>
@@ -7014,57 +7031,57 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="99" t="s">
+      <c r="A267" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="B267" s="103"/>
+      <c r="C267" s="103"/>
+      <c r="D267" s="103"/>
+      <c r="E267" s="103"/>
+      <c r="F267" s="103"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="51"/>
+      <c r="B268" s="51"/>
+      <c r="C268" s="51"/>
+      <c r="D268" s="51"/>
+      <c r="E268" s="51"/>
+      <c r="F268" s="51"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="51"/>
+      <c r="B269" s="51"/>
+      <c r="C269" s="51"/>
+      <c r="D269" s="51"/>
+      <c r="E269" s="51"/>
+      <c r="F269" s="51"/>
+    </row>
+    <row r="270" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="B270" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="C270" s="102"/>
+      <c r="D270" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F270" s="52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="B271" s="89" t="s">
         <v>451</v>
       </c>
-      <c r="B267" s="99"/>
-      <c r="C267" s="99"/>
-      <c r="D267" s="99"/>
-      <c r="E267" s="99"/>
-      <c r="F267" s="99"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="52"/>
-      <c r="B268" s="52"/>
-      <c r="C268" s="52"/>
-      <c r="D268" s="52"/>
-      <c r="E268" s="52"/>
-      <c r="F268" s="52"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="52"/>
-      <c r="B269" s="52"/>
-      <c r="C269" s="52"/>
-      <c r="D269" s="52"/>
-      <c r="E269" s="52"/>
-      <c r="F269" s="52"/>
-    </row>
-    <row r="270" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="B270" s="98" t="s">
-        <v>452</v>
-      </c>
-      <c r="C270" s="98"/>
-      <c r="D270" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F270" s="53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="B271" s="85" t="s">
-        <v>453</v>
-      </c>
-      <c r="C271" s="85"/>
+      <c r="C271" s="89"/>
       <c r="D271" s="33" t="s">
         <v>7</v>
       </c>
@@ -7076,13 +7093,13 @@
       </c>
     </row>
     <row r="272" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="B272" s="85" t="s">
-        <v>454</v>
-      </c>
-      <c r="C272" s="85"/>
+      <c r="A272" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="C272" s="89"/>
       <c r="D272" s="33" t="s">
         <v>7</v>
       </c>
@@ -7094,13 +7111,13 @@
       </c>
     </row>
     <row r="273" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="B273" s="85" t="s">
-        <v>455</v>
-      </c>
-      <c r="C273" s="85"/>
+      <c r="A273" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="B273" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="C273" s="89"/>
       <c r="D273" s="33" t="s">
         <v>7</v>
       </c>
@@ -7112,13 +7129,13 @@
       </c>
     </row>
     <row r="274" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="B274" s="96" t="s">
-        <v>456</v>
-      </c>
-      <c r="C274" s="97"/>
+      <c r="A274" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B274" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C274" s="101"/>
       <c r="D274" s="33" t="s">
         <v>7</v>
       </c>
@@ -7130,31 +7147,31 @@
       </c>
     </row>
     <row r="275" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="51" t="s">
-        <v>467</v>
-      </c>
-      <c r="B275" s="98" t="s">
-        <v>462</v>
-      </c>
-      <c r="C275" s="98"/>
-      <c r="D275" s="53" t="s">
+      <c r="A275" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="B275" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="C275" s="102"/>
+      <c r="D275" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E275" s="53" t="s">
+      <c r="E275" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F275" s="53" t="s">
+      <c r="F275" s="52" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="B276" s="85" t="s">
-        <v>463</v>
-      </c>
-      <c r="C276" s="85"/>
+      <c r="A276" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="B276" s="89" t="s">
+        <v>461</v>
+      </c>
+      <c r="C276" s="89"/>
       <c r="D276" s="33" t="s">
         <v>7</v>
       </c>
@@ -7166,13 +7183,13 @@
       </c>
     </row>
     <row r="277" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="B277" s="85" t="s">
-        <v>464</v>
-      </c>
-      <c r="C277" s="85"/>
+      <c r="A277" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B277" s="89" t="s">
+        <v>462</v>
+      </c>
+      <c r="C277" s="89"/>
       <c r="D277" s="33" t="s">
         <v>7</v>
       </c>
@@ -7184,13 +7201,13 @@
       </c>
     </row>
     <row r="278" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="B278" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="C278" s="85"/>
+      <c r="A278" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="B278" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="C278" s="89"/>
       <c r="D278" s="33" t="s">
         <v>7</v>
       </c>
@@ -7202,13 +7219,13 @@
       </c>
     </row>
     <row r="279" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="B279" s="96" t="s">
-        <v>466</v>
-      </c>
-      <c r="C279" s="97"/>
+      <c r="A279" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="B279" s="100" t="s">
+        <v>464</v>
+      </c>
+      <c r="C279" s="101"/>
       <c r="D279" s="33" t="s">
         <v>7</v>
       </c>
@@ -7220,111 +7237,111 @@
       </c>
     </row>
     <row r="280" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B280" s="98" t="s">
-        <v>472</v>
-      </c>
-      <c r="C280" s="98"/>
-      <c r="D280" s="53" t="s">
+      <c r="A280" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B280" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="C280" s="102"/>
+      <c r="D280" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E280" s="54" t="s">
+      <c r="E280" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F280" s="54" t="s">
+      <c r="F280" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="48" t="s">
-        <v>479</v>
-      </c>
-      <c r="B281" s="85" t="s">
-        <v>473</v>
-      </c>
-      <c r="C281" s="85"/>
+      <c r="A281" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B281" s="89" t="s">
+        <v>471</v>
+      </c>
+      <c r="C281" s="89"/>
       <c r="D281" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E281" s="55" t="s">
+      <c r="E281" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F281" s="55" t="s">
+      <c r="F281" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="B282" s="85" t="s">
-        <v>474</v>
-      </c>
-      <c r="C282" s="85"/>
+      <c r="A282" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B282" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="C282" s="89"/>
       <c r="D282" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E282" s="55" t="s">
+      <c r="E282" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F282" s="55" t="s">
+      <c r="F282" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="B283" s="85" t="s">
-        <v>475</v>
-      </c>
-      <c r="C283" s="85"/>
+      <c r="A283" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B283" s="89" t="s">
+        <v>473</v>
+      </c>
+      <c r="C283" s="89"/>
       <c r="D283" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E283" s="55" t="s">
+      <c r="E283" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F283" s="55" t="s">
+      <c r="F283" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="B284" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="C284" s="97"/>
+      <c r="A284" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="B284" s="100" t="s">
+        <v>474</v>
+      </c>
+      <c r="C284" s="101"/>
       <c r="D284" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E284" s="55" t="s">
+      <c r="E284" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F284" s="55" t="s">
+      <c r="F284" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="93" t="s">
-        <v>477</v>
-      </c>
-      <c r="B285" s="94"/>
-      <c r="C285" s="94"/>
-      <c r="D285" s="94"/>
-      <c r="E285" s="94"/>
-      <c r="F285" s="95"/>
+      <c r="A285" s="97" t="s">
+        <v>475</v>
+      </c>
+      <c r="B285" s="98"/>
+      <c r="C285" s="98"/>
+      <c r="D285" s="98"/>
+      <c r="E285" s="98"/>
+      <c r="F285" s="99"/>
     </row>
     <row r="289" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="48"/>
-      <c r="B289" s="85" t="s">
-        <v>483</v>
-      </c>
-      <c r="C289" s="85"/>
+      <c r="A289" s="47"/>
+      <c r="B289" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="C289" s="89"/>
       <c r="D289" s="33" t="s">
         <v>7</v>
       </c>
@@ -7336,11 +7353,11 @@
       </c>
     </row>
     <row r="290" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="48"/>
-      <c r="B290" s="85" t="s">
-        <v>486</v>
-      </c>
-      <c r="C290" s="85"/>
+      <c r="A290" s="47"/>
+      <c r="B290" s="89" t="s">
+        <v>484</v>
+      </c>
+      <c r="C290" s="89"/>
       <c r="D290" s="33" t="s">
         <v>7</v>
       </c>
@@ -7352,11 +7369,11 @@
       </c>
     </row>
     <row r="291" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="48"/>
-      <c r="B291" s="85" t="s">
-        <v>488</v>
-      </c>
-      <c r="C291" s="85"/>
+      <c r="A291" s="47"/>
+      <c r="B291" s="89" t="s">
+        <v>486</v>
+      </c>
+      <c r="C291" s="89"/>
       <c r="D291" s="33" t="s">
         <v>7</v>
       </c>
@@ -7368,15 +7385,15 @@
       </c>
     </row>
     <row r="292" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="48"/>
-      <c r="B292" s="85" t="s">
-        <v>496</v>
-      </c>
-      <c r="C292" s="85"/>
+      <c r="A292" s="47"/>
+      <c r="B292" s="89" t="s">
+        <v>494</v>
+      </c>
+      <c r="C292" s="89"/>
       <c r="D292" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E292" s="55" t="s">
+      <c r="E292" s="54" t="s">
         <v>94</v>
       </c>
       <c r="F292" s="33" t="s">
@@ -7384,103 +7401,103 @@
       </c>
     </row>
     <row r="293" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="48"/>
-      <c r="B293" s="85" t="s">
-        <v>500</v>
-      </c>
-      <c r="C293" s="85"/>
+      <c r="A293" s="47"/>
+      <c r="B293" s="89" t="s">
+        <v>498</v>
+      </c>
+      <c r="C293" s="89"/>
       <c r="D293" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E293" s="55" t="s">
+      <c r="E293" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F293" s="55" t="s">
+      <c r="F293" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="48"/>
-      <c r="B294" s="85" t="s">
-        <v>501</v>
-      </c>
-      <c r="C294" s="85"/>
+      <c r="A294" s="47"/>
+      <c r="B294" s="89" t="s">
+        <v>499</v>
+      </c>
+      <c r="C294" s="89"/>
       <c r="D294" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E294" s="55" t="s">
+      <c r="E294" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F294" s="55" t="s">
+      <c r="F294" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="48"/>
-      <c r="B295" s="85" t="s">
-        <v>502</v>
-      </c>
-      <c r="C295" s="85"/>
+      <c r="A295" s="47"/>
+      <c r="B295" s="89" t="s">
+        <v>500</v>
+      </c>
+      <c r="C295" s="89"/>
       <c r="D295" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E295" s="55" t="s">
+      <c r="E295" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F295" s="55" t="s">
+      <c r="F295" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="38" t="s">
+      <c r="A296" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B296" s="40" t="s">
+      <c r="B296" s="39" t="s">
         <v>246</v>
       </c>
       <c r="C296" s="6"/>
-      <c r="D296" s="89" t="s">
-        <v>487</v>
-      </c>
-      <c r="E296" s="90"/>
-      <c r="F296" s="91"/>
+      <c r="D296" s="93" t="s">
+        <v>485</v>
+      </c>
+      <c r="E296" s="94"/>
+      <c r="F296" s="95"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="38">
+      <c r="A297" s="37">
         <v>16</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C297" s="6"/>
-      <c r="D297" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="E297" s="92"/>
-      <c r="F297" s="92"/>
+      <c r="D297" s="96" t="s">
+        <v>483</v>
+      </c>
+      <c r="E297" s="96"/>
+      <c r="F297" s="96"/>
     </row>
     <row r="301" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="48"/>
-      <c r="B301" s="85" t="s">
-        <v>490</v>
-      </c>
-      <c r="C301" s="85"/>
+      <c r="A301" s="47"/>
+      <c r="B301" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="C301" s="89"/>
       <c r="D301" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E301" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F301" s="55" t="s">
+      <c r="F301" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="48"/>
-      <c r="B302" s="85" t="s">
-        <v>491</v>
-      </c>
-      <c r="C302" s="85"/>
+      <c r="A302" s="47"/>
+      <c r="B302" s="89" t="s">
+        <v>489</v>
+      </c>
+      <c r="C302" s="89"/>
       <c r="D302" s="33" t="s">
         <v>7</v>
       </c>
@@ -7492,11 +7509,11 @@
       </c>
     </row>
     <row r="303" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="48"/>
-      <c r="B303" s="85" t="s">
-        <v>492</v>
-      </c>
-      <c r="C303" s="85"/>
+      <c r="A303" s="47"/>
+      <c r="B303" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="C303" s="89"/>
       <c r="D303" s="33" t="s">
         <v>7</v>
       </c>
@@ -7508,43 +7525,43 @@
       </c>
     </row>
     <row r="304" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="48"/>
-      <c r="B304" s="85" t="s">
-        <v>494</v>
-      </c>
-      <c r="C304" s="85"/>
+      <c r="A304" s="47"/>
+      <c r="B304" s="89" t="s">
+        <v>492</v>
+      </c>
+      <c r="C304" s="89"/>
       <c r="D304" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E304" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F304" s="55" t="s">
+      <c r="F304" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="48"/>
-      <c r="B305" s="85" t="s">
-        <v>495</v>
-      </c>
-      <c r="C305" s="85"/>
-      <c r="D305" s="55" t="s">
+      <c r="A305" s="47"/>
+      <c r="B305" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="C305" s="89"/>
+      <c r="D305" s="54" t="s">
         <v>94</v>
       </c>
       <c r="E305" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F305" s="55" t="s">
+      <c r="F305" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="306" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="48"/>
-      <c r="B306" s="85" t="s">
+      <c r="A306" s="47"/>
+      <c r="B306" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C306" s="85"/>
+      <c r="C306" s="89"/>
       <c r="D306" s="33" t="s">
         <v>7</v>
       </c>
@@ -7556,98 +7573,99 @@
       </c>
     </row>
     <row r="307" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="48"/>
-      <c r="B307" s="85" t="s">
-        <v>499</v>
-      </c>
-      <c r="C307" s="85"/>
+      <c r="A307" s="47"/>
+      <c r="B307" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="C307" s="89"/>
       <c r="D307" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E307" s="55" t="s">
+      <c r="E307" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F307" s="55" t="s">
+      <c r="F307" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="308" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="48"/>
-      <c r="B308" s="85" t="s">
-        <v>503</v>
-      </c>
-      <c r="C308" s="85"/>
+      <c r="A308" s="47"/>
+      <c r="B308" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="C308" s="89"/>
       <c r="D308" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E308" s="55" t="s">
+      <c r="E308" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F308" s="55" t="s">
+      <c r="F308" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="38" t="s">
+      <c r="A309" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B309" s="40" t="s">
+      <c r="B309" s="39" t="s">
         <v>246</v>
       </c>
       <c r="C309" s="6"/>
-      <c r="D309" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="E309" s="90"/>
-      <c r="F309" s="91"/>
+      <c r="D309" s="93" t="s">
+        <v>491</v>
+      </c>
+      <c r="E309" s="94"/>
+      <c r="F309" s="95"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="38">
+      <c r="A310" s="37">
         <v>16</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C310" s="6"/>
-      <c r="D310" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="E310" s="92"/>
-      <c r="F310" s="92"/>
+      <c r="D310" s="96" t="s">
+        <v>483</v>
+      </c>
+      <c r="E310" s="96"/>
+      <c r="F310" s="96"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="38" t="s">
-        <v>489</v>
+      <c r="A311" s="37" t="s">
+        <v>487</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C311" s="6"/>
-      <c r="D311" s="87" t="s">
-        <v>497</v>
-      </c>
-      <c r="E311" s="88"/>
-      <c r="F311" s="88"/>
-      <c r="G311" s="88"/>
-      <c r="H311" s="88"/>
-      <c r="I311" s="88"/>
-      <c r="J311" s="88"/>
-      <c r="K311" s="88"/>
+      <c r="D311" s="91" t="s">
+        <v>495</v>
+      </c>
+      <c r="E311" s="92"/>
+      <c r="F311" s="92"/>
+      <c r="G311" s="92"/>
+      <c r="H311" s="92"/>
+      <c r="I311" s="92"/>
+      <c r="J311" s="92"/>
+      <c r="K311" s="92"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D312" s="86" t="s">
-        <v>498</v>
-      </c>
-      <c r="E312" s="86"/>
-      <c r="F312" s="86"/>
-      <c r="G312" s="86"/>
-      <c r="H312" s="86"/>
-      <c r="I312" s="86"/>
-      <c r="J312" s="86"/>
-      <c r="K312" s="86"/>
+      <c r="D312" s="90" t="s">
+        <v>496</v>
+      </c>
+      <c r="E312" s="90"/>
+      <c r="F312" s="90"/>
+      <c r="G312" s="90"/>
+      <c r="H312" s="90"/>
+      <c r="I312" s="90"/>
+      <c r="J312" s="90"/>
+      <c r="K312" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="E174:F174"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D25:G25"/>
@@ -7742,7 +7760,6 @@
     <mergeCell ref="B181:C181"/>
     <mergeCell ref="B182:C182"/>
     <mergeCell ref="B179:C179"/>
-    <mergeCell ref="D174:F174"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="B173:C173"/>
     <mergeCell ref="B156:C156"/>

--- a/SVD_Files/RST_VE8x.xlsx
+++ b/SVD_Files/RST_VE8x.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="535">
   <si>
     <t>0x0000</t>
   </si>
@@ -733,21 +733,6 @@
     <t>PLL2</t>
   </si>
   <si>
-    <t>PLL3</t>
-  </si>
-  <si>
-    <t>PLL4</t>
-  </si>
-  <si>
-    <t>PLL5</t>
-  </si>
-  <si>
-    <t>PLL6</t>
-  </si>
-  <si>
-    <t>PLL7</t>
-  </si>
-  <si>
     <t>1023VK014</t>
   </si>
   <si>
@@ -1505,6 +1490,138 @@
   </si>
   <si>
     <t>MIL_CLK</t>
+  </si>
+  <si>
+    <t>USB_CLK</t>
+  </si>
+  <si>
+    <t>CAP_CLK</t>
+  </si>
+  <si>
+    <t>QEP_CLK</t>
+  </si>
+  <si>
+    <t>PWM_CLK</t>
+  </si>
+  <si>
+    <t>CORDIC_CLK</t>
+  </si>
+  <si>
+    <t>1: clear hidden SHIFT_REG1</t>
+  </si>
+  <si>
+    <t>SSP6</t>
+  </si>
+  <si>
+    <t>MIL2</t>
+  </si>
+  <si>
+    <t>ARC_RX</t>
+  </si>
+  <si>
+    <t>ARC_TX</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>CAP4</t>
+  </si>
+  <si>
+    <t>QEP2</t>
+  </si>
+  <si>
+    <t>PWM9</t>
+  </si>
+  <si>
+    <t>ADC3</t>
+  </si>
+  <si>
+    <t>DAC4</t>
+  </si>
+  <si>
+    <t>CPM4</t>
+  </si>
+  <si>
+    <t>SPW2</t>
+  </si>
+  <si>
+    <t>CAN2</t>
+  </si>
+  <si>
+    <t>UART4</t>
+  </si>
+  <si>
+    <t>Same like for LSI, but without LSE_Err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_CLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP2_CLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN2_CLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART4_CLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_CLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP4_CLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QEP1_CLK </t>
+  </si>
+  <si>
+    <t>QEP2_CLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM9_CLK     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC1_CLK </t>
+  </si>
+  <si>
+    <t>ADC3_CLK  - ?</t>
+  </si>
+  <si>
+    <t>MIL4_CLK</t>
+  </si>
+  <si>
+    <t>SPW2_CLK</t>
+  </si>
+  <si>
+    <t>UART2_CLK</t>
+  </si>
+  <si>
+    <t>SSP6_CLK</t>
+  </si>
+  <si>
+    <t>ADC2_CLK</t>
+  </si>
+  <si>
+    <t>DAC2_CLK</t>
+  </si>
+  <si>
+    <t>0x0108</t>
+  </si>
+  <si>
+    <t>ADC3_CLK</t>
+  </si>
+  <si>
+    <t>CRDC_CLK</t>
+  </si>
+  <si>
+    <t>FT_CNTR</t>
+  </si>
+  <si>
+    <t>in BKP</t>
+  </si>
+  <si>
+    <t>flags in BKP</t>
   </si>
   <si>
     <r>
@@ -1517,7 +1634,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>VE8      0</t>
+      <t xml:space="preserve"> 0</t>
     </r>
     <r>
       <rPr>
@@ -1552,205 +1669,6 @@
       <t>: MAX_CLK</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VK014 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: HSI, HSE0, HSE1, LSI, LSE, PLL0, PLL1, PLL2, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PLL3, PLL4, PLL6, PLL7 -?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: MAX_CLK</t>
-    </r>
-  </si>
-  <si>
-    <t>USB_CLK</t>
-  </si>
-  <si>
-    <t>CAP_CLK</t>
-  </si>
-  <si>
-    <t>QEP_CLK</t>
-  </si>
-  <si>
-    <t>PWM_CLK</t>
-  </si>
-  <si>
-    <t>CORDIC_CLK</t>
-  </si>
-  <si>
-    <t>1: clear hidden SHIFT_REG1</t>
-  </si>
-  <si>
-    <t>SSP6</t>
-  </si>
-  <si>
-    <t>MIL2</t>
-  </si>
-  <si>
-    <t>ARC_RX</t>
-  </si>
-  <si>
-    <t>ARC_TX</t>
-  </si>
-  <si>
-    <t>TIM4</t>
-  </si>
-  <si>
-    <t>CAP4</t>
-  </si>
-  <si>
-    <t>QEP2</t>
-  </si>
-  <si>
-    <t>PWM9</t>
-  </si>
-  <si>
-    <t>ADC3</t>
-  </si>
-  <si>
-    <t>DAC4</t>
-  </si>
-  <si>
-    <t>CPM4</t>
-  </si>
-  <si>
-    <t>SPW2</t>
-  </si>
-  <si>
-    <t>CAN2</t>
-  </si>
-  <si>
-    <t>UART4</t>
-  </si>
-  <si>
-    <t>Same like for LSI, but without LSE_Err</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH_CLK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSP2_CLK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN2_CLK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART4_CLK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4_CLK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP4_CLK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QEP1_CLK </t>
-  </si>
-  <si>
-    <t>QEP2_CLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM9_CLK     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC1_CLK </t>
-  </si>
-  <si>
-    <t>ADC3_CLK  - ?</t>
-  </si>
-  <si>
-    <t>MIL4_CLK</t>
-  </si>
-  <si>
-    <t>SPW2_CLK</t>
-  </si>
-  <si>
-    <t>UART2_CLK</t>
-  </si>
-  <si>
-    <t>SSP6_CLK</t>
-  </si>
-  <si>
-    <t>ADC2_CLK</t>
-  </si>
-  <si>
-    <t>DAC2_CLK</t>
-  </si>
-  <si>
-    <t>0x0108</t>
-  </si>
-  <si>
-    <t>ADC3_CLK</t>
-  </si>
-  <si>
-    <t>CRDC_CLK</t>
-  </si>
-  <si>
-    <t>FT_CNTR</t>
-  </si>
-  <si>
-    <t>in BKP</t>
-  </si>
-  <si>
-    <t>flags in BKP</t>
-  </si>
 </sst>
 </file>
 
@@ -1762,6 +1680,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1786,14 +1712,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2037,10 +1955,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2066,9 +1984,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2080,14 +1998,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2098,7 +2016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2109,10 +2027,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2130,7 +2048,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -2142,6 +2060,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2205,10 +2127,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,80 +2151,85 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2587,9 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2628,453 +2553,453 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="114" t="s">
-        <v>540</v>
-      </c>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="61" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="82"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3083,8 +3008,8 @@
       <c r="B48" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3093,8 +3018,8 @@
       <c r="B49" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="67"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -3103,8 +3028,8 @@
       <c r="B50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="67"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3113,8 +3038,8 @@
       <c r="B51" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -3123,18 +3048,18 @@
       <c r="B52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="67"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="65"/>
+        <v>511</v>
+      </c>
+      <c r="C53" s="65"/>
+      <c r="D53" s="67"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -3143,8 +3068,8 @@
       <c r="B54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="67"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3153,8 +3078,8 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3163,8 +3088,8 @@
       <c r="B56" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="67"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3173,18 +3098,18 @@
       <c r="B57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="65"/>
+        <v>512</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="67"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3193,18 +3118,18 @@
       <c r="B59" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="67"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="65"/>
+        <v>513</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="67"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3213,8 +3138,8 @@
       <c r="B61" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="67"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -3223,8 +3148,8 @@
       <c r="B62" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="67"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3233,18 +3158,18 @@
       <c r="B63" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="67"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="65"/>
+        <v>514</v>
+      </c>
+      <c r="C64" s="65"/>
+      <c r="D64" s="67"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3253,8 +3178,8 @@
       <c r="B65" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="67"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3263,8 +3188,8 @@
       <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="67"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3273,8 +3198,8 @@
       <c r="B67" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
@@ -3283,28 +3208,28 @@
       <c r="B68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="67"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B69" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="67"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="65"/>
+        <v>515</v>
+      </c>
+      <c r="C70" s="65"/>
+      <c r="D70" s="67"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3313,8 +3238,8 @@
       <c r="B71" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -3323,8 +3248,8 @@
       <c r="B72" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="70"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -3345,13 +3270,13 @@
         <v>67</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,22 +3284,22 @@
         <v>68</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="C75" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="C75" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="62"/>
+      <c r="D75" s="64"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="65"/>
+        <v>518</v>
+      </c>
+      <c r="C76" s="65"/>
+      <c r="D76" s="67"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3383,8 +3308,8 @@
       <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="67"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -3393,8 +3318,8 @@
       <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="70"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -3403,10 +3328,10 @@
       <c r="B79" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="74"/>
+      <c r="D79" s="76"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3415,10 +3340,10 @@
       <c r="B80" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="71"/>
+      <c r="D80" s="73"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -3427,10 +3352,10 @@
       <c r="B81" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="69" t="s">
+      <c r="C81" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="71"/>
+      <c r="D81" s="73"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
@@ -3439,10 +3364,10 @@
       <c r="B82" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="78" t="s">
-        <v>522</v>
-      </c>
-      <c r="D82" s="80"/>
+      <c r="C82" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D82" s="82"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -3465,7 +3390,7 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6" t="s">
@@ -3477,7 +3402,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="6" t="s">
@@ -3501,11 +3426,11 @@
         <v>96</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="6" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,10 +3484,10 @@
       <c r="A97" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="75" t="s">
+      <c r="C97" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="77"/>
+      <c r="D97" s="79"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -3572,7 +3497,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3589,19 +3514,19 @@
       <c r="A101" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="62"/>
+      <c r="D101" s="64"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="66" t="s">
-        <v>531</v>
-      </c>
-      <c r="D102" s="68"/>
+      <c r="C102" s="68" t="s">
+        <v>524</v>
+      </c>
+      <c r="D102" s="70"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -3627,10 +3552,10 @@
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="75" t="s">
+      <c r="C107" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="77"/>
+      <c r="D107" s="79"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -3674,7 +3599,7 @@
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="12" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,7 +3623,7 @@
         <v>123</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D115" s="11"/>
     </row>
@@ -3716,7 +3641,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3724,17 +3649,17 @@
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="75" t="s">
+      <c r="C118" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="77"/>
+      <c r="D118" s="79"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,7 +3667,7 @@
         <v>128</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,7 +3675,7 @@
         <v>129</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3844,10 +3769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K312"/>
+  <dimension ref="A2:K307"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="J308" sqref="J308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,12 +3791,12 @@
         <v>217</v>
       </c>
       <c r="C2" s="35"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -3903,7 +3828,7 @@
         <v>91</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G5" s="32"/>
     </row>
@@ -4043,340 +3968,330 @@
       <c r="E16" s="104"/>
       <c r="F16" s="104"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
-        <v>11</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <v>12</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+    <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>13</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="34" t="s">
         <v>239</v>
       </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="101"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
-        <v>14</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
+      <c r="A20" s="49" t="s">
         <v>240</v>
       </c>
+      <c r="B20" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>15</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A21" s="43">
+        <v>16</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <v>17</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="101"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <v>19</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="94" t="s">
+      <c r="A25" s="45">
+        <v>20</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
-        <v>16</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>248</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
-        <v>17</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="8"/>
+      <c r="A27" s="45">
+        <v>22</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="106" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E27" s="106"/>
       <c r="F27" s="106"/>
       <c r="G27" s="107"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
-        <v>18</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="106" t="s">
+      <c r="A28" s="43">
+        <v>23</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
-        <v>19</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>251</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="106" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
+      <c r="D29" s="110" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
-        <v>20</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="108" t="s">
+      <c r="A30" s="44">
+        <v>25</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="110" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="111"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>21</v>
-      </c>
-      <c r="B31" s="29" t="s">
+      <c r="A31" s="45">
+        <v>26</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="110" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+    </row>
+    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="111"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
-        <v>22</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
-        <v>23</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="110" t="s">
+      <c r="B35" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
-        <v>24</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="106" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
-        <v>25</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="106" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
-        <v>26</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="108" t="s">
-        <v>268</v>
-      </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109"/>
-    </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="33" t="s">
+      <c r="C35" s="35"/>
+      <c r="D35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>0</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <v>4</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="31" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
-      <c r="F45" s="31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4384,19 +4299,21 @@
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4406,473 +4323,483 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
+      <c r="D49" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="D50" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="D51" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31" t="s">
-        <v>316</v>
-      </c>
+      <c r="D52" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="E53" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="104"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="104" t="s">
-        <v>271</v>
-      </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="104" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="104" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="104" t="s">
-        <v>274</v>
-      </c>
-      <c r="E57" s="104"/>
+      <c r="D57" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="104" t="s">
+        <v>312</v>
+      </c>
       <c r="F57" s="104"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="104" t="s">
-        <v>310</v>
-      </c>
-      <c r="F58" s="104"/>
+      <c r="D58" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
+      <c r="D59" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" s="104" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="104"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
+      <c r="D60" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" s="104"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
+      <c r="D61" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="E61" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" s="104"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E62" s="104" t="s">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="F62" s="104"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31" t="s">
-        <v>514</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>285</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E64" s="104"/>
       <c r="F64" s="104"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="31" t="s">
-        <v>277</v>
+        <v>509</v>
       </c>
       <c r="E65" s="104" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F65" s="104"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="E66" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="F66" s="104"/>
+        <v>276</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+    </row>
+    <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="E67" s="104" t="s">
-        <v>507</v>
-      </c>
-      <c r="F67" s="104"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="37">
-        <v>27</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="37">
-        <v>28</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="37">
-        <v>29</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="E70" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="F70" s="104"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31" t="s">
-        <v>515</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E72" s="104"/>
       <c r="F72" s="104"/>
     </row>
-    <row r="75" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="B75" s="35" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="37">
+        <v>2</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" s="104"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="37">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="37">
+        <v>4</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>242</v>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
+        <v>284</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E77" s="104"/>
+        <v>285</v>
+      </c>
+      <c r="E77" s="104" t="s">
+        <v>273</v>
+      </c>
       <c r="F77" s="104"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="31" t="s">
-        <v>287</v>
+        <v>501</v>
       </c>
       <c r="E78" s="104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F78" s="104"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31" t="s">
-        <v>318</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31" t="s">
-        <v>319</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31" t="s">
-        <v>323</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="E82" s="104" t="s">
-        <v>278</v>
-      </c>
-      <c r="F82" s="104"/>
+        <v>288</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="F82" s="31"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="E83" s="104" t="s">
-        <v>279</v>
-      </c>
-      <c r="F83" s="104"/>
+        <v>289</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104"/>
+        <v>290</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="F84" s="31"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
+        <v>291</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="E87" s="31" t="s">
-        <v>505</v>
-      </c>
+      <c r="E87" s="31"/>
       <c r="F87" s="31"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4884,596 +4811,609 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>506</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="E89" s="31"/>
       <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
+        <v>295</v>
+      </c>
+      <c r="E90" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="104"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="31"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
+        <v>504</v>
+      </c>
+      <c r="E92" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="F92" s="104"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="E94" s="31"/>
+        <v>298</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="F94" s="31"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="37">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="E95" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="F95" s="104"/>
+        <v>299</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
+        <v>505</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="37">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="E97" s="104" t="s">
-        <v>504</v>
-      </c>
-      <c r="F97" s="104"/>
+        <v>300</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
+        <v>301</v>
+      </c>
+      <c r="E98" s="104"/>
+      <c r="F98" s="104"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="F99" s="31"/>
+        <v>302</v>
+      </c>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="F100" s="31"/>
+        <v>506</v>
+      </c>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="37">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>302</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E101" s="31"/>
       <c r="F101" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F102" s="31"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="37">
-        <v>27</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E103" s="104"/>
-      <c r="F103" s="104"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="37">
-        <v>28</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="B106" s="42" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="37">
-        <v>29</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31" t="s">
+      <c r="C106" s="42"/>
+      <c r="D106" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G106" s="35"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" s="104"/>
+      <c r="E107" s="104"/>
+      <c r="F107" s="104"/>
+      <c r="G107" s="104"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="37" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="37">
-        <v>30</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31" t="s">
+      <c r="B108" s="6" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="37">
-        <v>31</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B111" s="42" t="s">
+      <c r="C108" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="C111" s="42"/>
-      <c r="D111" s="33" t="s">
+      <c r="D108" s="104"/>
+      <c r="E108" s="104"/>
+      <c r="F108" s="104"/>
+      <c r="G108" s="104"/>
+    </row>
+    <row r="109" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" s="42"/>
+      <c r="D109" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="E109" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F111" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G111" s="35"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C112" s="104" t="s">
+      <c r="F109" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G109" s="35"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="D110" s="104"/>
+      <c r="E110" s="104"/>
+      <c r="F110" s="104"/>
+      <c r="G110" s="104"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-      <c r="G112" s="104"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C113" s="104" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
-      <c r="F113" s="104"/>
-      <c r="G113" s="104"/>
-    </row>
-    <row r="114" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47" t="s">
+      <c r="C111" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="104"/>
+      <c r="E111" s="104"/>
+      <c r="F111" s="104"/>
+      <c r="G111" s="104"/>
+    </row>
+    <row r="115" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="C114" s="42"/>
-      <c r="D114" s="33" t="s">
+      <c r="B115" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="42"/>
+      <c r="D115" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E114" s="33" t="s">
+      <c r="E115" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F114" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G114" s="35"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="104" t="s">
-        <v>336</v>
-      </c>
-      <c r="D115" s="104"/>
-      <c r="E115" s="104"/>
-      <c r="F115" s="104"/>
-      <c r="G115" s="104"/>
+      <c r="F115" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G115" s="35"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C116" s="104" t="s">
+      <c r="C116" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" s="96"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="96"/>
+      <c r="G116" s="96"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D116" s="104"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="104"/>
-      <c r="G116" s="104"/>
-    </row>
-    <row r="120" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="47" t="s">
+      <c r="B117" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="96" t="s">
+        <v>346</v>
+      </c>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B118" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="D118" s="96"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="96"/>
+      <c r="G118" s="96"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="33" t="s">
+      <c r="B119" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="96" t="s">
+        <v>348</v>
+      </c>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="96"/>
+      <c r="G119" s="96"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="105" t="s">
+        <v>344</v>
+      </c>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+    </row>
+    <row r="125" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B125" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" s="91"/>
+      <c r="D125" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E125" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F120" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G120" s="35"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C121" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="D121" s="96"/>
-      <c r="E121" s="96"/>
-      <c r="F121" s="96"/>
-      <c r="G121" s="96"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C122" s="96" t="s">
+      <c r="F125" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G125" s="35"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D122" s="96"/>
-      <c r="E122" s="96"/>
-      <c r="F122" s="96"/>
-      <c r="G122" s="96"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C123" s="96" t="s">
+      <c r="C126" s="6"/>
+      <c r="D126" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D123" s="96"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" s="96"/>
-      <c r="E124" s="96"/>
-      <c r="F124" s="96"/>
-      <c r="G124" s="96"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="105" t="s">
-        <v>348</v>
-      </c>
-      <c r="D125" s="105"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-    </row>
-    <row r="130" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="B130" s="89" t="s">
+      <c r="C127" s="41"/>
+      <c r="D127" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C130" s="89"/>
-      <c r="D130" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G130" s="35"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="96"/>
+      <c r="G127" s="96"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="37">
+        <v>16</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C128" s="41"/>
+      <c r="D128" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E128" s="96"/>
+      <c r="F128" s="96"/>
+      <c r="G128" s="96"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="37">
+        <v>17</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C129" s="41"/>
+      <c r="D129" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E129" s="96"/>
+      <c r="F129" s="96"/>
+      <c r="G129" s="96"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="37">
+        <v>18</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="41"/>
+      <c r="D130" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E130" s="96"/>
+      <c r="F130" s="96"/>
+      <c r="G130" s="96"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
-        <v>341</v>
+      <c r="A131" s="37">
+        <v>19</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C131" s="6"/>
+        <v>359</v>
+      </c>
+      <c r="C131" s="41"/>
       <c r="D131" s="96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E131" s="96"/>
       <c r="F131" s="96"/>
       <c r="G131" s="96"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C132" s="41"/>
-      <c r="D132" s="96" t="s">
-        <v>360</v>
-      </c>
-      <c r="E132" s="96"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="96"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="37">
-        <v>16</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C133" s="41"/>
-      <c r="D133" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E133" s="96"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="37">
-        <v>17</v>
-      </c>
-      <c r="B134" s="6" t="s">
+    <row r="135" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="C134" s="41"/>
-      <c r="D134" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E134" s="96"/>
-      <c r="F134" s="96"/>
-      <c r="G134" s="96"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="37">
-        <v>18</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C135" s="41"/>
-      <c r="D135" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E135" s="96"/>
-      <c r="F135" s="96"/>
-      <c r="G135" s="96"/>
+      <c r="B135" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="35"/>
+      <c r="D135" s="91"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="91"/>
+      <c r="G135" s="91"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="37">
-        <v>19</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C136" s="41"/>
-      <c r="D136" s="96" t="s">
-        <v>365</v>
-      </c>
+      <c r="A136" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B136" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="96"/>
       <c r="E136" s="96"/>
       <c r="F136" s="96"/>
       <c r="G136" s="96"/>
     </row>
-    <row r="140" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="B140" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="35"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="89"/>
-      <c r="G140" s="89"/>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="37">
+        <v>16</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="E137" s="96"/>
+      <c r="F137" s="96"/>
+      <c r="G137" s="96"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="37">
+        <v>17</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E138" s="96"/>
+      <c r="F138" s="96"/>
+      <c r="G138" s="96"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="37">
+        <v>18</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E139" s="96"/>
+      <c r="F139" s="96"/>
+      <c r="G139" s="96"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="37">
+        <v>19</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="E140" s="96"/>
+      <c r="F140" s="96"/>
+      <c r="G140" s="96"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141" s="39" t="s">
-        <v>94</v>
+      <c r="A141" s="37">
+        <v>20</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="96"/>
+      <c r="D141" s="96" t="s">
+        <v>252</v>
+      </c>
       <c r="E141" s="96"/>
       <c r="F141" s="96"/>
       <c r="G141" s="96"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
-        <v>16</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>248</v>
+        <v>21</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>253</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="96" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E142" s="96"/>
       <c r="F142" s="96"/>
@@ -5481,14 +5421,14 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
-        <v>17</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>249</v>
+        <v>22</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>254</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="96" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E143" s="96"/>
       <c r="F143" s="96"/>
@@ -5496,14 +5436,14 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
-        <v>18</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>250</v>
+        <v>23</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="96" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E144" s="96"/>
       <c r="F144" s="96"/>
@@ -5511,14 +5451,14 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
-        <v>19</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>251</v>
+        <v>24</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>256</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="96" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E145" s="96"/>
       <c r="F145" s="96"/>
@@ -5526,14 +5466,14 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
-        <v>20</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>252</v>
+        <v>25</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="96" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E146" s="96"/>
       <c r="F146" s="96"/>
@@ -5541,102 +5481,91 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B147" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E147" s="96"/>
       <c r="F147" s="96"/>
       <c r="G147" s="96"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="37">
-        <v>22</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="E148" s="96"/>
-      <c r="F148" s="96"/>
-      <c r="G148" s="96"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="37">
-        <v>23</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="E149" s="96"/>
-      <c r="F149" s="96"/>
-      <c r="G149" s="96"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="37">
-        <v>24</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="E150" s="96"/>
-      <c r="F150" s="96"/>
-      <c r="G150" s="96"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="37">
-        <v>25</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="E151" s="96"/>
-      <c r="F151" s="96"/>
-      <c r="G151" s="96"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="37">
-        <v>26</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="E152" s="96"/>
-      <c r="F152" s="96"/>
-      <c r="G152" s="96"/>
+    <row r="151" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="B151" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="C151" s="101"/>
+      <c r="D151" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F151" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="B152" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" s="101"/>
+      <c r="D152" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="B153" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="C153" s="101"/>
+      <c r="D153" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="103" t="s">
+        <v>365</v>
+      </c>
+      <c r="B154" s="103"/>
+      <c r="C154" s="103"/>
+      <c r="D154" s="103"/>
+      <c r="E154" s="103"/>
+      <c r="F154" s="103"/>
     </row>
     <row r="156" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="B156" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="B156" s="100" t="s">
-        <v>367</v>
-      </c>
-      <c r="C156" s="101"/>
+      <c r="C156" s="91"/>
       <c r="D156" s="33" t="s">
         <v>7</v>
       </c>
@@ -5644,98 +5573,109 @@
         <v>91</v>
       </c>
       <c r="F156" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="B157" s="100" t="s">
-        <v>368</v>
-      </c>
-      <c r="C157" s="101"/>
-      <c r="D157" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="B158" s="100" t="s">
-        <v>383</v>
-      </c>
-      <c r="C158" s="101"/>
-      <c r="D158" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F158" s="33" t="s">
-        <v>242</v>
-      </c>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="E157" s="96"/>
+      <c r="F157" s="96"/>
+      <c r="G157" s="36"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C158" s="41"/>
+      <c r="D158" s="96" t="s">
+        <v>355</v>
+      </c>
+      <c r="E158" s="96"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="36"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="B159" s="103"/>
-      <c r="C159" s="103"/>
-      <c r="D159" s="103"/>
-      <c r="E159" s="103"/>
-      <c r="F159" s="103"/>
-    </row>
-    <row r="161" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="B161" s="89" t="s">
-        <v>382</v>
-      </c>
-      <c r="C161" s="89"/>
-      <c r="D161" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161" s="33" t="s">
-        <v>242</v>
-      </c>
+      <c r="A159" s="37">
+        <v>16</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="41"/>
+      <c r="D159" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E159" s="96"/>
+      <c r="F159" s="96"/>
+      <c r="G159" s="36"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="37">
+        <v>17</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" s="41"/>
+      <c r="D160" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E160" s="96"/>
+      <c r="F160" s="96"/>
+      <c r="G160" s="36"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="37">
+        <v>18</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C161" s="41"/>
+      <c r="D161" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E161" s="96"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="36"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="37" t="s">
-        <v>341</v>
+      <c r="A162" s="37">
+        <v>19</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C162" s="6"/>
+        <v>359</v>
+      </c>
+      <c r="C162" s="41"/>
       <c r="D162" s="96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E162" s="96"/>
       <c r="F162" s="96"/>
       <c r="G162" s="36"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="37" t="s">
-        <v>358</v>
+      <c r="A163" s="37">
+        <v>20</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C163" s="41"/>
       <c r="D163" s="96" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E163" s="96"/>
       <c r="F163" s="96"/>
@@ -5743,286 +5683,286 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="37">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C164" s="41"/>
-      <c r="D164" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E164" s="96"/>
-      <c r="F164" s="96"/>
-      <c r="G164" s="36"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="37">
-        <v>17</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C165" s="41"/>
-      <c r="D165" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E165" s="96"/>
-      <c r="F165" s="96"/>
-      <c r="G165" s="36"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="37">
-        <v>18</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C166" s="41"/>
-      <c r="D166" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E166" s="96"/>
-      <c r="F166" s="96"/>
-      <c r="G166" s="36"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="37">
-        <v>19</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C167" s="41"/>
-      <c r="D167" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="E167" s="96"/>
-      <c r="F167" s="96"/>
-      <c r="G167" s="36"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="37">
-        <v>20</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C168" s="41"/>
-      <c r="D168" s="96" t="s">
-        <v>372</v>
-      </c>
-      <c r="E168" s="96"/>
-      <c r="F168" s="96"/>
-      <c r="G168" s="36"/>
+        <v>368</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B168" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" s="91"/>
+      <c r="D168" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="37">
+        <v>20</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="E169" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="F169" s="79"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="37">
         <v>21</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="38" t="s">
+      <c r="B170" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="38" t="s">
+      <c r="E170" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F169" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="47" t="s">
+      <c r="F170" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="101"/>
+      <c r="D174" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="B175" s="91" t="s">
+        <v>379</v>
+      </c>
+      <c r="C175" s="91"/>
+      <c r="D175" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="B176" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="91"/>
+      <c r="D176" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B177" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="C177" s="91"/>
+      <c r="D177" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="B178" s="100" t="s">
         <v>381</v>
       </c>
-      <c r="B173" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C173" s="89"/>
-      <c r="D173" s="33" t="s">
+      <c r="C178" s="101"/>
+      <c r="D178" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="33" t="s">
+      <c r="E178" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F173" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="37">
-        <v>20</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="113" t="s">
-        <v>539</v>
-      </c>
-      <c r="E174" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="F174" s="77"/>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="37">
-        <v>21</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E175" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F175" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="B179" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="101"/>
-      <c r="D179" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F179" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="B180" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="C180" s="89"/>
-      <c r="D180" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F180" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="B181" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="C181" s="89"/>
-      <c r="D181" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F181" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="B182" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="C182" s="89"/>
-      <c r="D182" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>242</v>
-      </c>
+      <c r="F178" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="103" t="s">
+        <v>510</v>
+      </c>
+      <c r="B179" s="103"/>
+      <c r="C179" s="103"/>
+      <c r="D179" s="103"/>
+      <c r="E179" s="103"/>
+      <c r="F179" s="103"/>
     </row>
     <row r="183" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="B183" s="100" t="s">
         <v>386</v>
       </c>
-      <c r="C183" s="101"/>
-      <c r="D183" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>242</v>
-      </c>
+      <c r="B183" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="35"/>
+      <c r="D183" s="91"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="91"/>
+      <c r="G183" s="91"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="103" t="s">
-        <v>517</v>
-      </c>
-      <c r="B184" s="103"/>
-      <c r="C184" s="103"/>
-      <c r="D184" s="103"/>
-      <c r="E184" s="103"/>
-      <c r="F184" s="103"/>
-    </row>
-    <row r="188" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="B188" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" s="35"/>
-      <c r="D188" s="89"/>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="89"/>
+      <c r="A184" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B184" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="96"/>
+      <c r="G184" s="96"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="37">
+        <v>16</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="E185" s="96"/>
+      <c r="F185" s="96"/>
+      <c r="G185" s="96"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="37">
+        <v>17</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E186" s="96"/>
+      <c r="F186" s="96"/>
+      <c r="G186" s="96"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="37">
+        <v>18</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E187" s="96"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="96"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="37">
+        <v>19</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="E188" s="96"/>
+      <c r="F188" s="96"/>
+      <c r="G188" s="96"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B189" s="39" t="s">
-        <v>94</v>
+      <c r="A189" s="37">
+        <v>20</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="96"/>
+      <c r="D189" s="96" t="s">
+        <v>252</v>
+      </c>
       <c r="E189" s="96"/>
       <c r="F189" s="96"/>
       <c r="G189" s="96"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="37">
-        <v>16</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>248</v>
+        <v>21</v>
+      </c>
+      <c r="B190" s="40" t="s">
+        <v>253</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="96" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E190" s="96"/>
       <c r="F190" s="96"/>
@@ -6030,14 +5970,14 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="37">
-        <v>17</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>249</v>
+        <v>22</v>
+      </c>
+      <c r="B191" s="40" t="s">
+        <v>254</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="96" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
       <c r="E191" s="96"/>
       <c r="F191" s="96"/>
@@ -6045,14 +5985,14 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
-        <v>18</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>250</v>
+        <v>23</v>
+      </c>
+      <c r="B192" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="96" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E192" s="96"/>
       <c r="F192" s="96"/>
@@ -6060,14 +6000,14 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="37">
-        <v>19</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>251</v>
+        <v>24</v>
+      </c>
+      <c r="B193" s="40" t="s">
+        <v>256</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="96" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E193" s="96"/>
       <c r="F193" s="96"/>
@@ -6075,14 +6015,14 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="37">
-        <v>20</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>252</v>
+        <v>25</v>
+      </c>
+      <c r="B194" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="96" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E194" s="96"/>
       <c r="F194" s="96"/>
@@ -6090,14 +6030,14 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="37">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B195" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E195" s="96"/>
       <c r="F195" s="96"/>
@@ -6105,14 +6045,14 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="37">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B196" s="40" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="96" t="s">
-        <v>502</v>
+        <v>391</v>
       </c>
       <c r="E196" s="96"/>
       <c r="F196" s="96"/>
@@ -6120,14 +6060,14 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="37">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B197" s="40" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="96" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="E197" s="96"/>
       <c r="F197" s="96"/>
@@ -6135,120 +6075,109 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="37">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B198" s="40" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="96" t="s">
-        <v>266</v>
+        <v>391</v>
       </c>
       <c r="E198" s="96"/>
       <c r="F198" s="96"/>
       <c r="G198" s="96"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="37">
-        <v>25</v>
-      </c>
-      <c r="B199" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C199" s="6"/>
-      <c r="D199" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="E199" s="96"/>
-      <c r="F199" s="96"/>
-      <c r="G199" s="96"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="37">
-        <v>26</v>
-      </c>
-      <c r="B200" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="E200" s="96"/>
-      <c r="F200" s="96"/>
-      <c r="G200" s="96"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="37">
-        <v>27</v>
-      </c>
-      <c r="B201" s="40" t="s">
+    <row r="201" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="96" t="s">
+      <c r="B201" s="91" t="s">
+        <v>398</v>
+      </c>
+      <c r="C201" s="91"/>
+      <c r="D201" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F201" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="B202" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="C202" s="91"/>
+      <c r="D202" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="C203" s="91"/>
+      <c r="D203" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F203" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="E201" s="96"/>
-      <c r="F201" s="96"/>
-      <c r="G201" s="96"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="37">
-        <v>28</v>
-      </c>
-      <c r="B202" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="E202" s="96"/>
-      <c r="F202" s="96"/>
-      <c r="G202" s="96"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="37">
-        <v>29</v>
-      </c>
-      <c r="B203" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="E203" s="96"/>
-      <c r="F203" s="96"/>
-      <c r="G203" s="96"/>
-    </row>
-    <row r="206" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="B206" s="89" t="s">
-        <v>403</v>
-      </c>
-      <c r="C206" s="89"/>
-      <c r="D206" s="33" t="s">
+      <c r="B204" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="C204" s="101"/>
+      <c r="D204" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E206" s="33" t="s">
+      <c r="E204" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F206" s="33" t="s">
-        <v>242</v>
-      </c>
+      <c r="F204" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="B205" s="103"/>
+      <c r="C205" s="103"/>
+      <c r="D205" s="103"/>
+      <c r="E205" s="103"/>
+      <c r="F205" s="103"/>
     </row>
     <row r="207" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="B207" s="89" t="s">
-        <v>404</v>
-      </c>
-      <c r="C207" s="89"/>
+        <v>397</v>
+      </c>
+      <c r="B207" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C207" s="101"/>
       <c r="D207" s="33" t="s">
         <v>7</v>
       </c>
@@ -6256,17 +6185,17 @@
         <v>91</v>
       </c>
       <c r="F207" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="B208" s="89" t="s">
-        <v>405</v>
-      </c>
-      <c r="C208" s="89"/>
+        <v>406</v>
+      </c>
+      <c r="B208" s="91" t="s">
+        <v>402</v>
+      </c>
+      <c r="C208" s="91"/>
       <c r="D208" s="33" t="s">
         <v>7</v>
       </c>
@@ -6274,17 +6203,17 @@
         <v>91</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="B209" s="100" t="s">
-        <v>406</v>
-      </c>
-      <c r="C209" s="101"/>
+        <v>407</v>
+      </c>
+      <c r="B209" s="91" t="s">
+        <v>403</v>
+      </c>
+      <c r="C209" s="91"/>
       <c r="D209" s="33" t="s">
         <v>7</v>
       </c>
@@ -6292,202 +6221,213 @@
         <v>91</v>
       </c>
       <c r="F209" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="103" t="s">
-        <v>397</v>
-      </c>
-      <c r="B210" s="103"/>
-      <c r="C210" s="103"/>
-      <c r="D210" s="103"/>
-      <c r="E210" s="103"/>
-      <c r="F210" s="103"/>
-    </row>
-    <row r="212" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="B212" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="C212" s="101"/>
-      <c r="D212" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="B210" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" s="91"/>
+      <c r="D210" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E212" s="33" t="s">
+      <c r="E210" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F212" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="47" t="s">
+      <c r="F210" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="C211" s="101"/>
+      <c r="D211" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F211" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="103" t="s">
+        <v>435</v>
+      </c>
+      <c r="B212" s="103"/>
+      <c r="C212" s="103"/>
+      <c r="D212" s="103"/>
+      <c r="E212" s="103"/>
+      <c r="F212" s="103"/>
+    </row>
+    <row r="215" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B215" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="B213" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="C213" s="89"/>
-      <c r="D213" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F213" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="47" t="s">
+      <c r="C215" s="35"/>
+      <c r="D215" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="E215" s="102"/>
+      <c r="F215" s="102"/>
+      <c r="G215" s="102"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="B214" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="C214" s="89"/>
-      <c r="D214" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F214" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="47" t="s">
+      <c r="C216" s="6"/>
+      <c r="D216" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="B215" s="89" t="s">
-        <v>409</v>
-      </c>
-      <c r="C215" s="89"/>
-      <c r="D215" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F215" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="47" t="s">
+      <c r="E216" s="78"/>
+      <c r="F216" s="78"/>
+      <c r="G216" s="79"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="37">
+        <v>4</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="B216" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="C216" s="101"/>
-      <c r="D216" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F216" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="103" t="s">
-        <v>440</v>
-      </c>
-      <c r="B217" s="103"/>
-      <c r="C217" s="103"/>
-      <c r="D217" s="103"/>
-      <c r="E217" s="103"/>
-      <c r="F217" s="103"/>
-    </row>
-    <row r="220" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="50" t="s">
+      <c r="E217" s="104"/>
+      <c r="F217" s="104"/>
+      <c r="G217" s="104"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="46" t="s">
+      <c r="B218" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C218" s="6"/>
+      <c r="D218" s="104"/>
+      <c r="E218" s="104"/>
+      <c r="F218" s="104"/>
+      <c r="G218" s="104"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="C220" s="35"/>
-      <c r="D220" s="102" t="s">
-        <v>427</v>
-      </c>
-      <c r="E220" s="102"/>
-      <c r="F220" s="102"/>
-      <c r="G220" s="102"/>
+      <c r="B219" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C219" s="6"/>
+      <c r="D219" s="104" t="s">
+        <v>423</v>
+      </c>
+      <c r="E219" s="104"/>
+      <c r="F219" s="104"/>
+      <c r="G219" s="104"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="37">
+        <v>16</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="E220" s="96"/>
+      <c r="F220" s="96"/>
+      <c r="G220" s="96"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B221" s="39" t="s">
-        <v>417</v>
+      <c r="A221" s="37">
+        <v>17</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="E221" s="76"/>
-      <c r="F221" s="76"/>
-      <c r="G221" s="77"/>
+      <c r="D221" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E221" s="96"/>
+      <c r="F221" s="96"/>
+      <c r="G221" s="96"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="37">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>434</v>
+        <v>245</v>
       </c>
       <c r="C222" s="6"/>
-      <c r="D222" s="104" t="s">
-        <v>419</v>
-      </c>
-      <c r="E222" s="104"/>
-      <c r="F222" s="104"/>
-      <c r="G222" s="104"/>
+      <c r="D222" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E222" s="96"/>
+      <c r="F222" s="96"/>
+      <c r="G222" s="96"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="B223" s="39" t="s">
-        <v>94</v>
+      <c r="A223" s="37">
+        <v>19</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C223" s="6"/>
-      <c r="D223" s="104"/>
-      <c r="E223" s="104"/>
-      <c r="F223" s="104"/>
-      <c r="G223" s="104"/>
+      <c r="D223" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="E223" s="96"/>
+      <c r="F223" s="96"/>
+      <c r="G223" s="96"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="37" t="s">
-        <v>421</v>
+      <c r="A224" s="37">
+        <v>20</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>422</v>
+        <v>247</v>
       </c>
       <c r="C224" s="6"/>
-      <c r="D224" s="104" t="s">
-        <v>428</v>
-      </c>
-      <c r="E224" s="104"/>
-      <c r="F224" s="104"/>
-      <c r="G224" s="104"/>
+      <c r="D224" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="E224" s="96"/>
+      <c r="F224" s="96"/>
+      <c r="G224" s="96"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="37">
-        <v>16</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>248</v>
+        <v>21</v>
+      </c>
+      <c r="B225" s="40" t="s">
+        <v>253</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="96" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E225" s="96"/>
       <c r="F225" s="96"/>
@@ -6495,14 +6435,14 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="37">
-        <v>17</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>249</v>
+        <v>22</v>
+      </c>
+      <c r="B226" s="40" t="s">
+        <v>254</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="96" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E226" s="96"/>
       <c r="F226" s="96"/>
@@ -6510,14 +6450,14 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="37">
-        <v>18</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>250</v>
+        <v>23</v>
+      </c>
+      <c r="B227" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="96" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E227" s="96"/>
       <c r="F227" s="96"/>
@@ -6525,14 +6465,14 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="37">
-        <v>19</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>251</v>
+        <v>24</v>
+      </c>
+      <c r="B228" s="40" t="s">
+        <v>256</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="96" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E228" s="96"/>
       <c r="F228" s="96"/>
@@ -6540,14 +6480,14 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="37">
-        <v>20</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>252</v>
+        <v>25</v>
+      </c>
+      <c r="B229" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="96" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E229" s="96"/>
       <c r="F229" s="96"/>
@@ -6555,14 +6495,14 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="37">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B230" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E230" s="96"/>
       <c r="F230" s="96"/>
@@ -6570,14 +6510,14 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="37">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B231" s="40" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="96" t="s">
-        <v>264</v>
+        <v>391</v>
       </c>
       <c r="E231" s="96"/>
       <c r="F231" s="96"/>
@@ -6585,209 +6525,209 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="37">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="96" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="E232" s="96"/>
       <c r="F232" s="96"/>
       <c r="G232" s="96"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="37">
-        <v>24</v>
+      <c r="A233" s="37" t="s">
+        <v>421</v>
       </c>
       <c r="B233" s="40" t="s">
-        <v>261</v>
+        <v>420</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="96" t="s">
-        <v>266</v>
+        <v>433</v>
       </c>
       <c r="E233" s="96"/>
       <c r="F233" s="96"/>
       <c r="G233" s="96"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="37">
-        <v>25</v>
-      </c>
-      <c r="B234" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C234" s="6"/>
-      <c r="D234" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="E234" s="96"/>
-      <c r="F234" s="96"/>
-      <c r="G234" s="96"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="37">
-        <v>26</v>
-      </c>
-      <c r="B235" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="C235" s="6"/>
-      <c r="D235" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="E235" s="96"/>
-      <c r="F235" s="96"/>
-      <c r="G235" s="96"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="37">
-        <v>27</v>
-      </c>
-      <c r="B236" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="C236" s="6"/>
-      <c r="D236" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="E236" s="96"/>
-      <c r="F236" s="96"/>
-      <c r="G236" s="96"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="37">
-        <v>28</v>
-      </c>
-      <c r="B237" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="C237" s="6"/>
-      <c r="D237" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="E237" s="96"/>
-      <c r="F237" s="96"/>
-      <c r="G237" s="96"/>
+    <row r="237" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B237" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C237" s="35"/>
+      <c r="D237" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="102"/>
+      <c r="F237" s="102"/>
+      <c r="G237" s="102"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="B238" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="C238" s="6"/>
+      <c r="D238" s="104" t="s">
         <v>426</v>
       </c>
-      <c r="B238" s="40" t="s">
+      <c r="E238" s="104"/>
+      <c r="F238" s="104"/>
+      <c r="G238" s="104"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="C238" s="6"/>
-      <c r="D238" s="96" t="s">
-        <v>438</v>
-      </c>
-      <c r="E238" s="96"/>
-      <c r="F238" s="96"/>
-      <c r="G238" s="96"/>
-    </row>
-    <row r="242" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="B242" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="C242" s="35"/>
-      <c r="D242" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" s="102"/>
-      <c r="F242" s="102"/>
-      <c r="G242" s="102"/>
+      <c r="B239" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C239" s="6"/>
+      <c r="D239" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="E239" s="104"/>
+      <c r="F239" s="104"/>
+      <c r="G239" s="104"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="B240" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="104" t="s">
+        <v>430</v>
+      </c>
+      <c r="E240" s="104"/>
+      <c r="F240" s="104"/>
+      <c r="G240" s="104"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="37">
+        <v>16</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C241" s="6"/>
+      <c r="D241" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="E241" s="104"/>
+      <c r="F241" s="104"/>
+      <c r="G241" s="104"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="37">
+        <v>17</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="E242" s="96"/>
+      <c r="F242" s="96"/>
+      <c r="G242" s="96"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="B243" s="39" t="s">
-        <v>417</v>
+        <v>434</v>
+      </c>
+      <c r="B243" s="40" t="s">
+        <v>420</v>
       </c>
       <c r="C243" s="6"/>
-      <c r="D243" s="104" t="s">
-        <v>431</v>
-      </c>
-      <c r="E243" s="104"/>
-      <c r="F243" s="104"/>
-      <c r="G243" s="104"/>
+      <c r="D243" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="E243" s="96"/>
+      <c r="F243" s="96"/>
+      <c r="G243" s="96"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="37" t="s">
-        <v>430</v>
+      <c r="A244" s="37">
+        <v>21</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>422</v>
+        <v>243</v>
       </c>
       <c r="C244" s="6"/>
-      <c r="D244" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="E244" s="104"/>
-      <c r="F244" s="104"/>
-      <c r="G244" s="104"/>
+      <c r="D244" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="E244" s="96"/>
+      <c r="F244" s="96"/>
+      <c r="G244" s="96"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="B245" s="39" t="s">
-        <v>434</v>
+      <c r="A245" s="37">
+        <v>22</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C245" s="6"/>
-      <c r="D245" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="E245" s="104"/>
-      <c r="F245" s="104"/>
-      <c r="G245" s="104"/>
+      <c r="D245" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E245" s="96"/>
+      <c r="F245" s="96"/>
+      <c r="G245" s="96"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="37">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>436</v>
+        <v>245</v>
       </c>
       <c r="C246" s="6"/>
-      <c r="D246" s="104" t="s">
-        <v>437</v>
-      </c>
-      <c r="E246" s="104"/>
-      <c r="F246" s="104"/>
-      <c r="G246" s="104"/>
+      <c r="D246" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E246" s="96"/>
+      <c r="F246" s="96"/>
+      <c r="G246" s="96"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="37">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="96" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="E247" s="96"/>
       <c r="F247" s="96"/>
       <c r="G247" s="96"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B248" s="40" t="s">
-        <v>425</v>
+      <c r="A248" s="37">
+        <v>25</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="96" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="E248" s="96"/>
       <c r="F248" s="96"/>
@@ -6795,14 +6735,14 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="37">
-        <v>21</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>248</v>
+        <v>26</v>
+      </c>
+      <c r="B249" s="40" t="s">
+        <v>253</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="96" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E249" s="96"/>
       <c r="F249" s="96"/>
@@ -6810,14 +6750,14 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="37">
-        <v>22</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>249</v>
+        <v>27</v>
+      </c>
+      <c r="B250" s="40" t="s">
+        <v>254</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="96" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E250" s="96"/>
       <c r="F250" s="96"/>
@@ -6825,14 +6765,14 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="37">
-        <v>23</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>250</v>
+        <v>28</v>
+      </c>
+      <c r="B251" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="96" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E251" s="96"/>
       <c r="F251" s="96"/>
@@ -6840,14 +6780,14 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="37">
-        <v>24</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>251</v>
+        <v>29</v>
+      </c>
+      <c r="B252" s="40" t="s">
+        <v>256</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="96" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E252" s="96"/>
       <c r="F252" s="96"/>
@@ -6855,14 +6795,14 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="37">
-        <v>25</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>252</v>
+        <v>30</v>
+      </c>
+      <c r="B253" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="96" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E253" s="96"/>
       <c r="F253" s="96"/>
@@ -6870,156 +6810,143 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="37">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B254" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E254" s="96"/>
       <c r="F254" s="96"/>
       <c r="G254" s="96"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="37">
-        <v>27</v>
-      </c>
-      <c r="B255" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="C255" s="6"/>
-      <c r="D255" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="E255" s="96"/>
-      <c r="F255" s="96"/>
-      <c r="G255" s="96"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="37">
-        <v>28</v>
-      </c>
-      <c r="B256" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="C256" s="6"/>
-      <c r="D256" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="E256" s="96"/>
-      <c r="F256" s="96"/>
-      <c r="G256" s="96"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="37">
-        <v>29</v>
-      </c>
-      <c r="B257" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="C257" s="6"/>
-      <c r="D257" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="E257" s="96"/>
-      <c r="F257" s="96"/>
-      <c r="G257" s="96"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="37">
-        <v>30</v>
-      </c>
-      <c r="B258" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C258" s="6"/>
-      <c r="D258" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="E258" s="96"/>
-      <c r="F258" s="96"/>
-      <c r="G258" s="96"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="37">
-        <v>31</v>
-      </c>
-      <c r="B259" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="C259" s="6"/>
-      <c r="D259" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="E259" s="96"/>
-      <c r="F259" s="96"/>
-      <c r="G259" s="96"/>
-    </row>
-    <row r="263" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="47" t="s">
+    <row r="258" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="B258" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="C258" s="91"/>
+      <c r="D258" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F258" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B259" s="91" t="s">
+        <v>437</v>
+      </c>
+      <c r="C259" s="91"/>
+      <c r="D259" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F259" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="B260" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="C260" s="91"/>
+      <c r="D260" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F260" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="B261" s="100" t="s">
+        <v>439</v>
+      </c>
+      <c r="C261" s="101"/>
+      <c r="D261" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F261" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="103" t="s">
+        <v>444</v>
+      </c>
+      <c r="B262" s="103"/>
+      <c r="C262" s="103"/>
+      <c r="D262" s="103"/>
+      <c r="E262" s="103"/>
+      <c r="F262" s="103"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="51"/>
+      <c r="B263" s="51"/>
+      <c r="C263" s="51"/>
+      <c r="D263" s="51"/>
+      <c r="E263" s="51"/>
+      <c r="F263" s="51"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="51"/>
+      <c r="B264" s="51"/>
+      <c r="C264" s="51"/>
+      <c r="D264" s="51"/>
+      <c r="E264" s="51"/>
+      <c r="F264" s="51"/>
+    </row>
+    <row r="265" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B265" s="102" t="s">
         <v>445</v>
       </c>
-      <c r="B263" s="89" t="s">
-        <v>441</v>
-      </c>
-      <c r="C263" s="89"/>
-      <c r="D263" s="33" t="s">
+      <c r="C265" s="102"/>
+      <c r="D265" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E263" s="33" t="s">
+      <c r="E265" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F263" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="47" t="s">
+      <c r="F265" s="52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="B266" s="91" t="s">
         <v>446</v>
       </c>
-      <c r="B264" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="C264" s="89"/>
-      <c r="D264" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E264" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F264" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="B265" s="89" t="s">
-        <v>443</v>
-      </c>
-      <c r="C265" s="89"/>
-      <c r="D265" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F265" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="B266" s="100" t="s">
-        <v>444</v>
-      </c>
-      <c r="C266" s="101"/>
+      <c r="C266" s="91"/>
       <c r="D266" s="33" t="s">
         <v>7</v>
       </c>
@@ -7027,41 +6954,69 @@
         <v>91</v>
       </c>
       <c r="F266" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B267" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C267" s="91"/>
+      <c r="D267" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F267" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="B268" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C268" s="91"/>
+      <c r="D268" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F268" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="B269" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="B267" s="103"/>
-      <c r="C267" s="103"/>
-      <c r="D267" s="103"/>
-      <c r="E267" s="103"/>
-      <c r="F267" s="103"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="51"/>
-      <c r="B268" s="51"/>
-      <c r="C268" s="51"/>
-      <c r="D268" s="51"/>
-      <c r="E268" s="51"/>
-      <c r="F268" s="51"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="51"/>
-      <c r="B269" s="51"/>
-      <c r="C269" s="51"/>
-      <c r="D269" s="51"/>
-      <c r="E269" s="51"/>
-      <c r="F269" s="51"/>
-    </row>
-    <row r="270" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C269" s="101"/>
+      <c r="D269" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F269" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="B270" s="102" t="s">
         <v>455</v>
-      </c>
-      <c r="B270" s="102" t="s">
-        <v>450</v>
       </c>
       <c r="C270" s="102"/>
       <c r="D270" s="52" t="s">
@@ -7071,17 +7026,17 @@
         <v>91</v>
       </c>
       <c r="F270" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="B271" s="91" t="s">
         <v>456</v>
       </c>
-      <c r="B271" s="89" t="s">
-        <v>451</v>
-      </c>
-      <c r="C271" s="89"/>
+      <c r="C271" s="91"/>
       <c r="D271" s="33" t="s">
         <v>7</v>
       </c>
@@ -7089,17 +7044,17 @@
         <v>91</v>
       </c>
       <c r="F271" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="B272" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B272" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="C272" s="89"/>
+      <c r="C272" s="91"/>
       <c r="D272" s="33" t="s">
         <v>7</v>
       </c>
@@ -7107,17 +7062,17 @@
         <v>91</v>
       </c>
       <c r="F272" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="B273" s="91" t="s">
         <v>458</v>
       </c>
-      <c r="B273" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="C273" s="89"/>
+      <c r="C273" s="91"/>
       <c r="D273" s="33" t="s">
         <v>7</v>
       </c>
@@ -7125,15 +7080,15 @@
         <v>91</v>
       </c>
       <c r="F273" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="B274" s="100" t="s">
         <v>459</v>
-      </c>
-      <c r="B274" s="100" t="s">
-        <v>454</v>
       </c>
       <c r="C274" s="101"/>
       <c r="D274" s="33" t="s">
@@ -7143,534 +7098,439 @@
         <v>91</v>
       </c>
       <c r="F274" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="B275" s="102" t="s">
         <v>465</v>
-      </c>
-      <c r="B275" s="102" t="s">
-        <v>460</v>
       </c>
       <c r="C275" s="102"/>
       <c r="D275" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E275" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F275" s="52" t="s">
-        <v>242</v>
+      <c r="E275" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F275" s="53" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B276" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="B276" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="C276" s="89"/>
+      <c r="C276" s="91"/>
       <c r="D276" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E276" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F276" s="33" t="s">
-        <v>242</v>
+      <c r="E276" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F276" s="54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B277" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="B277" s="89" t="s">
-        <v>462</v>
-      </c>
-      <c r="C277" s="89"/>
+      <c r="C277" s="91"/>
       <c r="D277" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E277" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F277" s="33" t="s">
-        <v>242</v>
+      <c r="E277" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F277" s="54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="B278" s="91" t="s">
         <v>468</v>
       </c>
-      <c r="B278" s="89" t="s">
-        <v>463</v>
-      </c>
-      <c r="C278" s="89"/>
+      <c r="C278" s="91"/>
       <c r="D278" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F278" s="33" t="s">
-        <v>242</v>
+      <c r="E278" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F278" s="54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="B279" s="100" t="s">
         <v>469</v>
-      </c>
-      <c r="B279" s="100" t="s">
-        <v>464</v>
       </c>
       <c r="C279" s="101"/>
       <c r="D279" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E279" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F279" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="50" t="s">
+      <c r="E279" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F279" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="B280" s="98"/>
+      <c r="C280" s="98"/>
+      <c r="D280" s="98"/>
+      <c r="E280" s="98"/>
+      <c r="F280" s="99"/>
+    </row>
+    <row r="284" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="47"/>
+      <c r="B284" s="91" t="s">
         <v>476</v>
       </c>
-      <c r="B280" s="102" t="s">
-        <v>470</v>
-      </c>
-      <c r="C280" s="102"/>
-      <c r="D280" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E280" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F280" s="53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="B281" s="89" t="s">
-        <v>471</v>
-      </c>
-      <c r="C281" s="89"/>
-      <c r="D281" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E281" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F281" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="B282" s="89" t="s">
-        <v>472</v>
-      </c>
-      <c r="C282" s="89"/>
-      <c r="D282" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E282" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F282" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="B283" s="89" t="s">
-        <v>473</v>
-      </c>
-      <c r="C283" s="89"/>
-      <c r="D283" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F283" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="B284" s="100" t="s">
-        <v>474</v>
-      </c>
-      <c r="C284" s="101"/>
+      <c r="C284" s="91"/>
       <c r="D284" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E284" s="54" t="s">
+      <c r="E284" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F284" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="47"/>
+      <c r="B285" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="C285" s="91"/>
+      <c r="D285" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F285" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="47"/>
+      <c r="B286" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="C286" s="91"/>
+      <c r="D286" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F286" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="47"/>
+      <c r="B287" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="C287" s="91"/>
+      <c r="D287" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F284" s="54" t="s">
+      <c r="F287" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="47"/>
+      <c r="B288" s="91" t="s">
+        <v>491</v>
+      </c>
+      <c r="C288" s="91"/>
+      <c r="D288" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="54" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="97" t="s">
-        <v>475</v>
-      </c>
-      <c r="B285" s="98"/>
-      <c r="C285" s="98"/>
-      <c r="D285" s="98"/>
-      <c r="E285" s="98"/>
-      <c r="F285" s="99"/>
+      <c r="F288" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="289" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="47"/>
-      <c r="B289" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="C289" s="89"/>
+      <c r="B289" s="91" t="s">
+        <v>492</v>
+      </c>
+      <c r="C289" s="91"/>
       <c r="D289" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E289" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F289" s="33" t="s">
-        <v>242</v>
+      <c r="E289" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F289" s="54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="47"/>
-      <c r="B290" s="89" t="s">
-        <v>484</v>
-      </c>
-      <c r="C290" s="89"/>
+      <c r="B290" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="C290" s="91"/>
       <c r="D290" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E290" s="33" t="s">
+      <c r="E290" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F290" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B291" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C291" s="6"/>
+      <c r="D291" s="93" t="s">
+        <v>480</v>
+      </c>
+      <c r="E291" s="94"/>
+      <c r="F291" s="95"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="37">
+        <v>16</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="96" t="s">
+        <v>478</v>
+      </c>
+      <c r="E292" s="96"/>
+      <c r="F292" s="96"/>
+    </row>
+    <row r="296" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="47"/>
+      <c r="B296" s="91" t="s">
+        <v>483</v>
+      </c>
+      <c r="C296" s="91"/>
+      <c r="D296" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F290" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="47"/>
-      <c r="B291" s="89" t="s">
-        <v>486</v>
-      </c>
-      <c r="C291" s="89"/>
-      <c r="D291" s="33" t="s">
+      <c r="F296" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="47"/>
+      <c r="B297" s="91" t="s">
+        <v>484</v>
+      </c>
+      <c r="C297" s="91"/>
+      <c r="D297" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E291" s="33" t="s">
+      <c r="E297" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F291" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="47"/>
-      <c r="B292" s="89" t="s">
-        <v>494</v>
-      </c>
-      <c r="C292" s="89"/>
-      <c r="D292" s="33" t="s">
+      <c r="F297" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="47"/>
+      <c r="B298" s="91" t="s">
+        <v>485</v>
+      </c>
+      <c r="C298" s="91"/>
+      <c r="D298" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E292" s="54" t="s">
+      <c r="E298" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F298" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="47"/>
+      <c r="B299" s="91" t="s">
+        <v>487</v>
+      </c>
+      <c r="C299" s="91"/>
+      <c r="D299" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F299" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F292" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="47"/>
-      <c r="B293" s="89" t="s">
-        <v>498</v>
-      </c>
-      <c r="C293" s="89"/>
-      <c r="D293" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" s="54" t="s">
+    </row>
+    <row r="300" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="47"/>
+      <c r="B300" s="91" t="s">
+        <v>488</v>
+      </c>
+      <c r="C300" s="91"/>
+      <c r="D300" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F293" s="54" t="s">
+      <c r="E300" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F300" s="54" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="47"/>
-      <c r="B294" s="89" t="s">
-        <v>499</v>
-      </c>
-      <c r="C294" s="89"/>
-      <c r="D294" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E294" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F294" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="47"/>
-      <c r="B295" s="89" t="s">
-        <v>500</v>
-      </c>
-      <c r="C295" s="89"/>
-      <c r="D295" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F295" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B296" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C296" s="6"/>
-      <c r="D296" s="93" t="s">
-        <v>485</v>
-      </c>
-      <c r="E296" s="94"/>
-      <c r="F296" s="95"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="37">
-        <v>16</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C297" s="6"/>
-      <c r="D297" s="96" t="s">
-        <v>483</v>
-      </c>
-      <c r="E297" s="96"/>
-      <c r="F297" s="96"/>
     </row>
     <row r="301" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="47"/>
-      <c r="B301" s="89" t="s">
-        <v>488</v>
-      </c>
-      <c r="C301" s="89"/>
+      <c r="B301" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C301" s="91"/>
       <c r="D301" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E301" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F301" s="54" t="s">
-        <v>94</v>
+      <c r="F301" s="33" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="47"/>
-      <c r="B302" s="89" t="s">
-        <v>489</v>
-      </c>
-      <c r="C302" s="89"/>
+      <c r="B302" s="91" t="s">
+        <v>490</v>
+      </c>
+      <c r="C302" s="91"/>
       <c r="D302" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E302" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F302" s="33" t="s">
-        <v>242</v>
+      <c r="E302" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F302" s="54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="47"/>
-      <c r="B303" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="C303" s="89"/>
+      <c r="B303" s="91" t="s">
+        <v>494</v>
+      </c>
+      <c r="C303" s="91"/>
       <c r="D303" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E303" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F303" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="47"/>
-      <c r="B304" s="89" t="s">
-        <v>492</v>
-      </c>
-      <c r="C304" s="89"/>
-      <c r="D304" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E304" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F304" s="54" t="s">
+      <c r="E303" s="54" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="47"/>
-      <c r="B305" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="C305" s="89"/>
-      <c r="D305" s="54" t="s">
+      <c r="F303" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E305" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F305" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="47"/>
-      <c r="B306" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="C306" s="89"/>
-      <c r="D306" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F306" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="47"/>
-      <c r="B307" s="89" t="s">
-        <v>497</v>
-      </c>
-      <c r="C307" s="89"/>
-      <c r="D307" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E307" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F307" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="47"/>
-      <c r="B308" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C308" s="89"/>
-      <c r="D308" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E308" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F308" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B309" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C309" s="6"/>
-      <c r="D309" s="93" t="s">
-        <v>491</v>
-      </c>
-      <c r="E309" s="94"/>
-      <c r="F309" s="95"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="37">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B304" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C304" s="6"/>
+      <c r="D304" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="E304" s="94"/>
+      <c r="F304" s="95"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="37">
         <v>16</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B305" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C305" s="6"/>
+      <c r="D305" s="114" t="s">
+        <v>478</v>
+      </c>
+      <c r="E305" s="114"/>
+      <c r="F305" s="114"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="C310" s="6"/>
-      <c r="D310" s="96" t="s">
-        <v>483</v>
-      </c>
-      <c r="E310" s="96"/>
-      <c r="F310" s="96"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C311" s="6"/>
-      <c r="D311" s="91" t="s">
-        <v>495</v>
-      </c>
-      <c r="E311" s="92"/>
-      <c r="F311" s="92"/>
-      <c r="G311" s="92"/>
-      <c r="H311" s="92"/>
-      <c r="I311" s="92"/>
-      <c r="J311" s="92"/>
-      <c r="K311" s="92"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D312" s="90" t="s">
-        <v>496</v>
-      </c>
-      <c r="E312" s="90"/>
-      <c r="F312" s="90"/>
-      <c r="G312" s="90"/>
-      <c r="H312" s="90"/>
-      <c r="I312" s="90"/>
-      <c r="J312" s="90"/>
-      <c r="K312" s="90"/>
+      <c r="B306" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C306" s="6"/>
+      <c r="D306" s="115" t="s">
+        <v>534</v>
+      </c>
+      <c r="E306" s="116"/>
+      <c r="F306" s="116"/>
+      <c r="G306" s="116"/>
+      <c r="H306" s="117"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D307" s="113"/>
+      <c r="E307" s="92"/>
+      <c r="F307" s="92"/>
+      <c r="G307" s="92"/>
+      <c r="H307" s="92"/>
+      <c r="I307" s="92"/>
+      <c r="J307" s="92"/>
+      <c r="K307" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E169:F169"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D7:F7"/>
@@ -7682,196 +7542,196 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
     <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C122:G122"/>
     <mergeCell ref="C121:G121"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E98:F98"/>
     <mergeCell ref="D135:G135"/>
     <mergeCell ref="D136:G136"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D130:G130"/>
     <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="D150:G150"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="D152:G152"/>
-    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
     <mergeCell ref="D144:G144"/>
     <mergeCell ref="D145:G145"/>
     <mergeCell ref="D146:G146"/>
     <mergeCell ref="D147:G147"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
     <mergeCell ref="D162:F162"/>
     <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
     <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
     <mergeCell ref="D193:G193"/>
     <mergeCell ref="D194:G194"/>
     <mergeCell ref="D195:G195"/>
     <mergeCell ref="D196:G196"/>
     <mergeCell ref="D197:G197"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D203:G203"/>
-    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="A212:F212"/>
     <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="A205:F205"/>
     <mergeCell ref="B208:C208"/>
     <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="D199:G199"/>
-    <mergeCell ref="D200:G200"/>
-    <mergeCell ref="D201:G201"/>
-    <mergeCell ref="D202:G202"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="D218:G218"/>
     <mergeCell ref="D220:G220"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D231:G231"/>
+    <mergeCell ref="D232:G232"/>
+    <mergeCell ref="D233:G233"/>
     <mergeCell ref="D226:G226"/>
     <mergeCell ref="D227:G227"/>
     <mergeCell ref="D228:G228"/>
     <mergeCell ref="D229:G229"/>
     <mergeCell ref="D230:G230"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
     <mergeCell ref="D242:G242"/>
     <mergeCell ref="D243:G243"/>
     <mergeCell ref="D244:G244"/>
     <mergeCell ref="D245:G245"/>
     <mergeCell ref="D246:G246"/>
-    <mergeCell ref="D236:G236"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D231:G231"/>
-    <mergeCell ref="D232:G232"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="D234:G234"/>
-    <mergeCell ref="D235:G235"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
     <mergeCell ref="D252:G252"/>
     <mergeCell ref="D253:G253"/>
     <mergeCell ref="D254:G254"/>
-    <mergeCell ref="D255:G255"/>
-    <mergeCell ref="D256:G256"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="A267:F267"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="D257:G257"/>
-    <mergeCell ref="D258:G258"/>
-    <mergeCell ref="D259:G259"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
     <mergeCell ref="B277:C277"/>
     <mergeCell ref="B276:C276"/>
     <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D307:K307"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B288:C288"/>
     <mergeCell ref="B289:C289"/>
     <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B301:C301"/>
     <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D296:F296"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B283:C283"/>
     <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D312:K312"/>
-    <mergeCell ref="D311:K311"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D306:H306"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SVD_Files/RST_VE8x.xlsx
+++ b/SVD_Files/RST_VE8x.xlsx
@@ -1310,9 +1310,6 @@
   </si>
   <si>
     <t>PLL_DV</t>
-  </si>
-  <si>
-    <t>F_out = F_int / (2^DV)</t>
   </si>
   <si>
     <t>PLL_READY_MODE</t>
@@ -1668,6 +1665,9 @@
       </rPr>
       <t>: MAX_CLK</t>
     </r>
+  </si>
+  <si>
+    <t>F_out = F_int / (2^DV), F_Int = 150..300 MHz</t>
   </si>
 </sst>
 </file>
@@ -2067,157 +2067,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2553,51 +2553,51 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2606,150 +2606,150 @@
       <c r="B8" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="75"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>533</v>
-      </c>
-      <c r="C17" s="83" t="s">
+        <v>532</v>
+      </c>
+      <c r="C17" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="73"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="73"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="75"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2758,98 +2758,98 @@
       <c r="B23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="73"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="73"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="73"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -2858,18 +2858,18 @@
       <c r="B33" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2895,11 +2895,11 @@
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -2908,98 +2908,98 @@
       <c r="B38" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="65"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="71"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="73"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="73"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="73"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="82"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="75"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3009,7 +3009,7 @@
         <v>187</v>
       </c>
       <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
+      <c r="D48" s="63"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3018,8 +3018,8 @@
       <c r="B49" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="67"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -3028,8 +3028,8 @@
       <c r="B50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="67"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3038,8 +3038,8 @@
       <c r="B51" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -3048,18 +3048,18 @@
       <c r="B52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="67"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="67"/>
+        <v>510</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -3068,8 +3068,8 @@
       <c r="B54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="67"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3078,8 +3078,8 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="67"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3088,8 +3088,8 @@
       <c r="B56" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="67"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3098,18 +3098,18 @@
       <c r="B57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="67"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="67"/>
+        <v>511</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3118,18 +3118,18 @@
       <c r="B59" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="67"/>
+        <v>512</v>
+      </c>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3138,8 +3138,8 @@
       <c r="B61" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="67"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -3148,8 +3148,8 @@
       <c r="B62" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="67"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3158,18 +3158,18 @@
       <c r="B63" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="67"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="67"/>
+        <v>513</v>
+      </c>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3178,8 +3178,8 @@
       <c r="B65" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="67"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="65"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3188,8 +3188,8 @@
       <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="67"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3198,8 +3198,8 @@
       <c r="B67" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="67"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
@@ -3208,28 +3208,28 @@
       <c r="B68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="67"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B69" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="67"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="67"/>
+        <v>514</v>
+      </c>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3238,8 +3238,8 @@
       <c r="B71" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="67"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="65"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -3248,8 +3248,8 @@
       <c r="B72" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="70"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -3270,13 +3270,13 @@
         <v>67</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,22 +3284,22 @@
         <v>68</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C75" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="64"/>
+      <c r="D75" s="63"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="C76" s="65"/>
-      <c r="D76" s="67"/>
+        <v>517</v>
+      </c>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3308,8 +3308,8 @@
       <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="67"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -3318,8 +3318,8 @@
       <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="68"/>
-      <c r="D78" s="70"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -3328,10 +3328,10 @@
       <c r="B79" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="74" t="s">
+      <c r="C79" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="76"/>
+      <c r="D79" s="71"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3340,7 +3340,7 @@
       <c r="B80" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="72" t="s">
         <v>201</v>
       </c>
       <c r="D80" s="73"/>
@@ -3352,7 +3352,7 @@
       <c r="B81" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="71" t="s">
+      <c r="C81" s="72" t="s">
         <v>202</v>
       </c>
       <c r="D81" s="73"/>
@@ -3364,10 +3364,10 @@
       <c r="B82" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D82" s="82"/>
+      <c r="C82" s="74" t="s">
+        <v>514</v>
+      </c>
+      <c r="D82" s="75"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -3390,7 +3390,7 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6" t="s">
@@ -3402,7 +3402,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="6" t="s">
@@ -3426,11 +3426,11 @@
         <v>96</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
       <c r="A97" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="77" t="s">
+      <c r="C97" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="79"/>
+      <c r="D97" s="69"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -3497,7 +3497,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,16 +3517,16 @@
       <c r="C101" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="64"/>
+      <c r="D101" s="63"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="68" t="s">
-        <v>524</v>
-      </c>
-      <c r="D102" s="70"/>
+      <c r="C102" s="66" t="s">
+        <v>523</v>
+      </c>
+      <c r="D102" s="67"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -3552,10 +3552,10 @@
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="77" t="s">
+      <c r="C107" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="79"/>
+      <c r="D107" s="69"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>123</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D115" s="11"/>
     </row>
@@ -3641,7 +3641,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3649,17 +3649,17 @@
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="77" t="s">
+      <c r="C118" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="79"/>
+      <c r="D118" s="69"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>128</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
         <v>129</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,28 +3705,26 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C75:D78"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C48:D72"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B25:D25"/>
@@ -3741,26 +3739,28 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C48:D72"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C75:D78"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="J308" sqref="J308"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241:G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,12 +3791,12 @@
         <v>217</v>
       </c>
       <c r="C2" s="35"/>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -3806,12 +3806,12 @@
         <v>217</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -3842,11 +3842,11 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
@@ -3854,11 +3854,11 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
@@ -3866,11 +3866,11 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -3878,11 +3878,11 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -3890,11 +3890,11 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -3902,11 +3902,11 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -3914,11 +3914,11 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
@@ -3926,11 +3926,11 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -3938,11 +3938,11 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
@@ -3950,11 +3950,11 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -3962,11 +3962,11 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
     </row>
     <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
@@ -3976,10 +3976,10 @@
         <v>239</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="101"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
@@ -3989,12 +3989,12 @@
         <v>241</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
@@ -4004,12 +4004,12 @@
         <v>243</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
@@ -4019,12 +4019,12 @@
         <v>244</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
@@ -4034,12 +4034,12 @@
         <v>245</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
@@ -4049,12 +4049,12 @@
         <v>246</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
@@ -4064,12 +4064,12 @@
         <v>247</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
@@ -4079,12 +4079,12 @@
         <v>253</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="108" t="s">
+      <c r="D26" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
@@ -4094,12 +4094,12 @@
         <v>254</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
@@ -4109,12 +4109,12 @@
         <v>255</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
@@ -4124,12 +4124,12 @@
         <v>256</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
@@ -4139,12 +4139,12 @@
         <v>257</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="111"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
@@ -4154,12 +4154,12 @@
         <v>258</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
     </row>
     <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
@@ -4224,7 +4224,7 @@
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
@@ -4339,11 +4339,11 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="104" t="s">
+      <c r="D50" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
@@ -4363,11 +4363,11 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
@@ -4376,10 +4376,10 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="F53" s="104"/>
+      <c r="F53" s="91"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
@@ -4420,10 +4420,10 @@
       <c r="D57" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="104" t="s">
+      <c r="E57" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="104"/>
+      <c r="F57" s="91"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="E58" s="31"/>
       <c r="F58" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,10 +4448,10 @@
       <c r="D59" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="104"/>
+      <c r="F59" s="91"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
@@ -4462,10 +4462,10 @@
       <c r="D60" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="F60" s="104"/>
+      <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
@@ -4474,12 +4474,12 @@
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="E61" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="E61" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F61" s="104"/>
+      <c r="F61" s="91"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
@@ -4490,10 +4490,10 @@
       <c r="D62" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="F62" s="104"/>
+      <c r="E62" s="91" t="s">
+        <v>499</v>
+      </c>
+      <c r="F62" s="91"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
@@ -4504,8 +4504,8 @@
       <c r="D63" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
@@ -4516,8 +4516,8 @@
       <c r="D64" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
@@ -4526,12 +4526,12 @@
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="E65" s="104" t="s">
+        <v>508</v>
+      </c>
+      <c r="E65" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="F65" s="104"/>
+      <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="E66" s="31"/>
       <c r="F66" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,8 +4556,8 @@
       <c r="D67" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
     </row>
     <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
@@ -4586,8 +4586,8 @@
       <c r="D71" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="104"/>
-      <c r="F71" s="104"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
@@ -4598,8 +4598,8 @@
       <c r="D72" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
@@ -4610,10 +4610,10 @@
       <c r="D73" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="E73" s="104" t="s">
+      <c r="E73" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="104"/>
+      <c r="F73" s="91"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
@@ -4622,7 +4622,7 @@
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="31" t="s">
@@ -4666,10 +4666,10 @@
       <c r="D77" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="104" t="s">
+      <c r="E77" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="F77" s="104"/>
+      <c r="F77" s="91"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
@@ -4678,12 +4678,12 @@
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="E78" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="E78" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F78" s="104"/>
+      <c r="F78" s="91"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
@@ -4694,8 +4694,8 @@
       <c r="D79" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
@@ -4704,10 +4704,10 @@
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="E80" s="104"/>
-      <c r="F80" s="104"/>
+        <v>501</v>
+      </c>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
@@ -4718,8 +4718,8 @@
       <c r="D81" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
@@ -4731,7 +4731,7 @@
         <v>288</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F82" s="31"/>
     </row>
@@ -4757,7 +4757,7 @@
         <v>290</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F84" s="31"/>
     </row>
@@ -4816,7 +4816,7 @@
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
@@ -4830,10 +4830,10 @@
       <c r="D90" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="104" t="s">
+      <c r="E90" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="F90" s="104"/>
+      <c r="F90" s="91"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
@@ -4854,12 +4854,12 @@
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="E92" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="F92" s="104"/>
+        <v>503</v>
+      </c>
+      <c r="E92" s="91" t="s">
+        <v>496</v>
+      </c>
+      <c r="F92" s="91"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
@@ -4908,7 +4908,7 @@
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>297</v>
@@ -4940,8 +4940,8 @@
       <c r="D98" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="104"/>
-      <c r="F98" s="104"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
@@ -4964,7 +4964,7 @@
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="31" t="s">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E102" s="31"/>
       <c r="F102" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -5025,13 +5025,13 @@
       <c r="B107" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C107" s="104" t="s">
+      <c r="C107" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="G107" s="104"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
@@ -5040,13 +5040,13 @@
       <c r="B108" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="104" t="s">
+      <c r="C108" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="104"/>
-      <c r="G108" s="104"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="91"/>
     </row>
     <row r="109" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
@@ -5074,13 +5074,13 @@
       <c r="B110" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C110" s="104" t="s">
+      <c r="C110" s="91" t="s">
         <v>331</v>
       </c>
-      <c r="D110" s="104"/>
-      <c r="E110" s="104"/>
-      <c r="F110" s="104"/>
-      <c r="G110" s="104"/>
+      <c r="D110" s="91"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="91"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
@@ -5089,13 +5089,13 @@
       <c r="B111" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="104" t="s">
+      <c r="C111" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="104"/>
-      <c r="E111" s="104"/>
-      <c r="F111" s="104"/>
-      <c r="G111" s="104"/>
+      <c r="D111" s="91"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="91"/>
     </row>
     <row r="115" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
@@ -5123,13 +5123,13 @@
       <c r="B116" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C116" s="96" t="s">
+      <c r="C116" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="96"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
+      <c r="D116" s="104"/>
+      <c r="E116" s="104"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="104"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
@@ -5138,13 +5138,13 @@
       <c r="B117" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C117" s="96" t="s">
+      <c r="C117" s="104" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
+      <c r="D117" s="104"/>
+      <c r="E117" s="104"/>
+      <c r="F117" s="104"/>
+      <c r="G117" s="104"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
@@ -5153,13 +5153,13 @@
       <c r="B118" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C118" s="96" t="s">
+      <c r="C118" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="96"/>
-      <c r="E118" s="96"/>
-      <c r="F118" s="96"/>
-      <c r="G118" s="96"/>
+      <c r="D118" s="104"/>
+      <c r="E118" s="104"/>
+      <c r="F118" s="104"/>
+      <c r="G118" s="104"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
@@ -5168,40 +5168,40 @@
       <c r="B119" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C119" s="96" t="s">
+      <c r="C119" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D119" s="96"/>
-      <c r="E119" s="96"/>
-      <c r="F119" s="96"/>
-      <c r="G119" s="96"/>
+      <c r="D119" s="104"/>
+      <c r="E119" s="104"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="104"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="105" t="s">
+      <c r="C120" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="103"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="103"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="105" t="s">
+      <c r="C121" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="103"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="103"/>
     </row>
     <row r="125" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="91" t="s">
+      <c r="B125" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="91"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="33" t="s">
         <v>7</v>
       </c>
@@ -5221,12 +5221,12 @@
         <v>351</v>
       </c>
       <c r="C126" s="6"/>
-      <c r="D126" s="96" t="s">
+      <c r="D126" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
+      <c r="E126" s="104"/>
+      <c r="F126" s="104"/>
+      <c r="G126" s="104"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
@@ -5236,12 +5236,12 @@
         <v>352</v>
       </c>
       <c r="C127" s="41"/>
-      <c r="D127" s="96" t="s">
+      <c r="D127" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="E127" s="96"/>
-      <c r="F127" s="96"/>
-      <c r="G127" s="96"/>
+      <c r="E127" s="104"/>
+      <c r="F127" s="104"/>
+      <c r="G127" s="104"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="37">
@@ -5251,12 +5251,12 @@
         <v>357</v>
       </c>
       <c r="C128" s="41"/>
-      <c r="D128" s="96" t="s">
+      <c r="D128" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E128" s="96"/>
-      <c r="F128" s="96"/>
-      <c r="G128" s="96"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="37">
@@ -5266,12 +5266,12 @@
         <v>356</v>
       </c>
       <c r="C129" s="41"/>
-      <c r="D129" s="96" t="s">
+      <c r="D129" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E129" s="96"/>
-      <c r="F129" s="96"/>
-      <c r="G129" s="96"/>
+      <c r="E129" s="104"/>
+      <c r="F129" s="104"/>
+      <c r="G129" s="104"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
@@ -5281,12 +5281,12 @@
         <v>358</v>
       </c>
       <c r="C130" s="41"/>
-      <c r="D130" s="96" t="s">
+      <c r="D130" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E130" s="96"/>
-      <c r="F130" s="96"/>
-      <c r="G130" s="96"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="104"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="37">
@@ -5296,12 +5296,12 @@
         <v>359</v>
       </c>
       <c r="C131" s="41"/>
-      <c r="D131" s="96" t="s">
+      <c r="D131" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E131" s="96"/>
-      <c r="F131" s="96"/>
-      <c r="G131" s="96"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="104"/>
     </row>
     <row r="135" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
@@ -5311,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="35"/>
-      <c r="D135" s="91"/>
-      <c r="E135" s="91"/>
-      <c r="F135" s="91"/>
-      <c r="G135" s="91"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="92"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
@@ -5324,10 +5324,10 @@
         <v>94</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="96"/>
-      <c r="E136" s="96"/>
-      <c r="F136" s="96"/>
-      <c r="G136" s="96"/>
+      <c r="D136" s="104"/>
+      <c r="E136" s="104"/>
+      <c r="F136" s="104"/>
+      <c r="G136" s="104"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="37">
@@ -5337,12 +5337,12 @@
         <v>243</v>
       </c>
       <c r="C137" s="6"/>
-      <c r="D137" s="96" t="s">
+      <c r="D137" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E137" s="96"/>
-      <c r="F137" s="96"/>
-      <c r="G137" s="96"/>
+      <c r="E137" s="104"/>
+      <c r="F137" s="104"/>
+      <c r="G137" s="104"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="37">
@@ -5352,12 +5352,12 @@
         <v>244</v>
       </c>
       <c r="C138" s="6"/>
-      <c r="D138" s="96" t="s">
+      <c r="D138" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E138" s="96"/>
-      <c r="F138" s="96"/>
-      <c r="G138" s="96"/>
+      <c r="E138" s="104"/>
+      <c r="F138" s="104"/>
+      <c r="G138" s="104"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
@@ -5367,12 +5367,12 @@
         <v>245</v>
       </c>
       <c r="C139" s="6"/>
-      <c r="D139" s="96" t="s">
+      <c r="D139" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E139" s="96"/>
-      <c r="F139" s="96"/>
-      <c r="G139" s="96"/>
+      <c r="E139" s="104"/>
+      <c r="F139" s="104"/>
+      <c r="G139" s="104"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="37">
@@ -5382,12 +5382,12 @@
         <v>246</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="96" t="s">
+      <c r="D140" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E140" s="96"/>
-      <c r="F140" s="96"/>
-      <c r="G140" s="96"/>
+      <c r="E140" s="104"/>
+      <c r="F140" s="104"/>
+      <c r="G140" s="104"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="37">
@@ -5397,12 +5397,12 @@
         <v>247</v>
       </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="96" t="s">
+      <c r="D141" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E141" s="96"/>
-      <c r="F141" s="96"/>
-      <c r="G141" s="96"/>
+      <c r="E141" s="104"/>
+      <c r="F141" s="104"/>
+      <c r="G141" s="104"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
@@ -5412,12 +5412,12 @@
         <v>253</v>
       </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="96" t="s">
+      <c r="D142" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E142" s="96"/>
-      <c r="F142" s="96"/>
-      <c r="G142" s="96"/>
+      <c r="E142" s="104"/>
+      <c r="F142" s="104"/>
+      <c r="G142" s="104"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
@@ -5427,12 +5427,12 @@
         <v>254</v>
       </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="96" t="s">
+      <c r="D143" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E143" s="96"/>
-      <c r="F143" s="96"/>
-      <c r="G143" s="96"/>
+      <c r="E143" s="104"/>
+      <c r="F143" s="104"/>
+      <c r="G143" s="104"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
@@ -5442,12 +5442,12 @@
         <v>255</v>
       </c>
       <c r="C144" s="6"/>
-      <c r="D144" s="96" t="s">
+      <c r="D144" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E144" s="96"/>
-      <c r="F144" s="96"/>
-      <c r="G144" s="96"/>
+      <c r="E144" s="104"/>
+      <c r="F144" s="104"/>
+      <c r="G144" s="104"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
@@ -5457,12 +5457,12 @@
         <v>256</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="96" t="s">
+      <c r="D145" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E145" s="96"/>
-      <c r="F145" s="96"/>
-      <c r="G145" s="96"/>
+      <c r="E145" s="104"/>
+      <c r="F145" s="104"/>
+      <c r="G145" s="104"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
@@ -5472,12 +5472,12 @@
         <v>257</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="96" t="s">
+      <c r="D146" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E146" s="96"/>
-      <c r="F146" s="96"/>
-      <c r="G146" s="96"/>
+      <c r="E146" s="104"/>
+      <c r="F146" s="104"/>
+      <c r="G146" s="104"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
@@ -5487,21 +5487,21 @@
         <v>258</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="96" t="s">
+      <c r="D147" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E147" s="96"/>
-      <c r="F147" s="96"/>
-      <c r="G147" s="96"/>
+      <c r="E147" s="104"/>
+      <c r="F147" s="104"/>
+      <c r="G147" s="104"/>
     </row>
     <row r="151" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="B151" s="100" t="s">
+      <c r="B151" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="C151" s="101"/>
+      <c r="C151" s="96"/>
       <c r="D151" s="33" t="s">
         <v>7</v>
       </c>
@@ -5516,10 +5516,10 @@
       <c r="A152" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="B152" s="100" t="s">
+      <c r="B152" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="C152" s="101"/>
+      <c r="C152" s="96"/>
       <c r="D152" s="33" t="s">
         <v>7</v>
       </c>
@@ -5534,10 +5534,10 @@
       <c r="A153" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="B153" s="100" t="s">
+      <c r="B153" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="101"/>
+      <c r="C153" s="96"/>
       <c r="D153" s="33" t="s">
         <v>7</v>
       </c>
@@ -5549,23 +5549,23 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="103" t="s">
+      <c r="A154" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B154" s="103"/>
-      <c r="C154" s="103"/>
-      <c r="D154" s="103"/>
-      <c r="E154" s="103"/>
-      <c r="F154" s="103"/>
+      <c r="B154" s="106"/>
+      <c r="C154" s="106"/>
+      <c r="D154" s="106"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="106"/>
     </row>
     <row r="156" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B156" s="91" t="s">
+      <c r="B156" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="C156" s="91"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="33" t="s">
         <v>7</v>
       </c>
@@ -5584,11 +5584,11 @@
         <v>351</v>
       </c>
       <c r="C157" s="6"/>
-      <c r="D157" s="96" t="s">
+      <c r="D157" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="E157" s="96"/>
-      <c r="F157" s="96"/>
+      <c r="E157" s="104"/>
+      <c r="F157" s="104"/>
       <c r="G157" s="36"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,11 +5599,11 @@
         <v>352</v>
       </c>
       <c r="C158" s="41"/>
-      <c r="D158" s="96" t="s">
+      <c r="D158" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96"/>
+      <c r="E158" s="104"/>
+      <c r="F158" s="104"/>
       <c r="G158" s="36"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5614,11 +5614,11 @@
         <v>357</v>
       </c>
       <c r="C159" s="41"/>
-      <c r="D159" s="96" t="s">
+      <c r="D159" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E159" s="96"/>
-      <c r="F159" s="96"/>
+      <c r="E159" s="104"/>
+      <c r="F159" s="104"/>
       <c r="G159" s="36"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,11 +5629,11 @@
         <v>356</v>
       </c>
       <c r="C160" s="41"/>
-      <c r="D160" s="96" t="s">
+      <c r="D160" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E160" s="96"/>
-      <c r="F160" s="96"/>
+      <c r="E160" s="104"/>
+      <c r="F160" s="104"/>
       <c r="G160" s="36"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,11 +5644,11 @@
         <v>358</v>
       </c>
       <c r="C161" s="41"/>
-      <c r="D161" s="96" t="s">
+      <c r="D161" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="96"/>
-      <c r="F161" s="96"/>
+      <c r="E161" s="104"/>
+      <c r="F161" s="104"/>
       <c r="G161" s="36"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,11 +5659,11 @@
         <v>359</v>
       </c>
       <c r="C162" s="41"/>
-      <c r="D162" s="96" t="s">
+      <c r="D162" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E162" s="96"/>
-      <c r="F162" s="96"/>
+      <c r="E162" s="104"/>
+      <c r="F162" s="104"/>
       <c r="G162" s="36"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,11 +5674,11 @@
         <v>366</v>
       </c>
       <c r="C163" s="41"/>
-      <c r="D163" s="96" t="s">
+      <c r="D163" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="E163" s="96"/>
-      <c r="F163" s="96"/>
+      <c r="E163" s="104"/>
+      <c r="F163" s="104"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,10 +5703,10 @@
       <c r="A168" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="B168" s="91" t="s">
+      <c r="B168" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="91"/>
+      <c r="C168" s="92"/>
       <c r="D168" s="33" t="s">
         <v>7</v>
       </c>
@@ -5726,12 +5726,12 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="E169" s="77" t="s">
+        <v>531</v>
+      </c>
+      <c r="E169" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="F169" s="79"/>
+      <c r="F169" s="69"/>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
       <c r="A174" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="B174" s="100" t="s">
+      <c r="B174" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C174" s="101"/>
+      <c r="C174" s="96"/>
       <c r="D174" s="33" t="s">
         <v>7</v>
       </c>
@@ -5774,10 +5774,10 @@
       <c r="A175" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="B175" s="91" t="s">
+      <c r="B175" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="C175" s="91"/>
+      <c r="C175" s="92"/>
       <c r="D175" s="33" t="s">
         <v>7</v>
       </c>
@@ -5792,10 +5792,10 @@
       <c r="A176" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="B176" s="91" t="s">
+      <c r="B176" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="C176" s="91"/>
+      <c r="C176" s="92"/>
       <c r="D176" s="33" t="s">
         <v>7</v>
       </c>
@@ -5810,10 +5810,10 @@
       <c r="A177" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="B177" s="91" t="s">
+      <c r="B177" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="C177" s="91"/>
+      <c r="C177" s="92"/>
       <c r="D177" s="33" t="s">
         <v>7</v>
       </c>
@@ -5828,10 +5828,10 @@
       <c r="A178" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="B178" s="100" t="s">
+      <c r="B178" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="C178" s="101"/>
+      <c r="C178" s="96"/>
       <c r="D178" s="33" t="s">
         <v>7</v>
       </c>
@@ -5843,14 +5843,14 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="103" t="s">
-        <v>510</v>
-      </c>
-      <c r="B179" s="103"/>
-      <c r="C179" s="103"/>
-      <c r="D179" s="103"/>
-      <c r="E179" s="103"/>
-      <c r="F179" s="103"/>
+      <c r="A179" s="106" t="s">
+        <v>509</v>
+      </c>
+      <c r="B179" s="106"/>
+      <c r="C179" s="106"/>
+      <c r="D179" s="106"/>
+      <c r="E179" s="106"/>
+      <c r="F179" s="106"/>
     </row>
     <row r="183" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
@@ -5860,10 +5860,10 @@
         <v>13</v>
       </c>
       <c r="C183" s="35"/>
-      <c r="D183" s="91"/>
-      <c r="E183" s="91"/>
-      <c r="F183" s="91"/>
-      <c r="G183" s="91"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="92"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
@@ -5873,10 +5873,10 @@
         <v>94</v>
       </c>
       <c r="C184" s="6"/>
-      <c r="D184" s="96"/>
-      <c r="E184" s="96"/>
-      <c r="F184" s="96"/>
-      <c r="G184" s="96"/>
+      <c r="D184" s="104"/>
+      <c r="E184" s="104"/>
+      <c r="F184" s="104"/>
+      <c r="G184" s="104"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="37">
@@ -5886,12 +5886,12 @@
         <v>243</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="96" t="s">
+      <c r="D185" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E185" s="96"/>
-      <c r="F185" s="96"/>
-      <c r="G185" s="96"/>
+      <c r="E185" s="104"/>
+      <c r="F185" s="104"/>
+      <c r="G185" s="104"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="37">
@@ -5901,12 +5901,12 @@
         <v>244</v>
       </c>
       <c r="C186" s="6"/>
-      <c r="D186" s="96" t="s">
+      <c r="D186" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E186" s="96"/>
-      <c r="F186" s="96"/>
-      <c r="G186" s="96"/>
+      <c r="E186" s="104"/>
+      <c r="F186" s="104"/>
+      <c r="G186" s="104"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="37">
@@ -5916,12 +5916,12 @@
         <v>245</v>
       </c>
       <c r="C187" s="6"/>
-      <c r="D187" s="96" t="s">
+      <c r="D187" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E187" s="96"/>
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
+      <c r="E187" s="104"/>
+      <c r="F187" s="104"/>
+      <c r="G187" s="104"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="37">
@@ -5931,12 +5931,12 @@
         <v>246</v>
       </c>
       <c r="C188" s="6"/>
-      <c r="D188" s="96" t="s">
+      <c r="D188" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E188" s="96"/>
-      <c r="F188" s="96"/>
-      <c r="G188" s="96"/>
+      <c r="E188" s="104"/>
+      <c r="F188" s="104"/>
+      <c r="G188" s="104"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="37">
@@ -5946,12 +5946,12 @@
         <v>247</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="96" t="s">
+      <c r="D189" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E189" s="96"/>
-      <c r="F189" s="96"/>
-      <c r="G189" s="96"/>
+      <c r="E189" s="104"/>
+      <c r="F189" s="104"/>
+      <c r="G189" s="104"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="37">
@@ -5961,12 +5961,12 @@
         <v>253</v>
       </c>
       <c r="C190" s="6"/>
-      <c r="D190" s="96" t="s">
+      <c r="D190" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E190" s="96"/>
-      <c r="F190" s="96"/>
-      <c r="G190" s="96"/>
+      <c r="E190" s="104"/>
+      <c r="F190" s="104"/>
+      <c r="G190" s="104"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="37">
@@ -5976,12 +5976,12 @@
         <v>254</v>
       </c>
       <c r="C191" s="6"/>
-      <c r="D191" s="96" t="s">
-        <v>495</v>
-      </c>
-      <c r="E191" s="96"/>
-      <c r="F191" s="96"/>
-      <c r="G191" s="96"/>
+      <c r="D191" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="E191" s="104"/>
+      <c r="F191" s="104"/>
+      <c r="G191" s="104"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
@@ -5991,12 +5991,12 @@
         <v>255</v>
       </c>
       <c r="C192" s="6"/>
-      <c r="D192" s="96" t="s">
+      <c r="D192" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E192" s="96"/>
-      <c r="F192" s="96"/>
-      <c r="G192" s="96"/>
+      <c r="E192" s="104"/>
+      <c r="F192" s="104"/>
+      <c r="G192" s="104"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="37">
@@ -6006,12 +6006,12 @@
         <v>256</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="96" t="s">
+      <c r="D193" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E193" s="96"/>
-      <c r="F193" s="96"/>
-      <c r="G193" s="96"/>
+      <c r="E193" s="104"/>
+      <c r="F193" s="104"/>
+      <c r="G193" s="104"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="37">
@@ -6021,12 +6021,12 @@
         <v>257</v>
       </c>
       <c r="C194" s="6"/>
-      <c r="D194" s="96" t="s">
+      <c r="D194" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E194" s="96"/>
-      <c r="F194" s="96"/>
-      <c r="G194" s="96"/>
+      <c r="E194" s="104"/>
+      <c r="F194" s="104"/>
+      <c r="G194" s="104"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="37">
@@ -6036,12 +6036,12 @@
         <v>258</v>
       </c>
       <c r="C195" s="6"/>
-      <c r="D195" s="96" t="s">
+      <c r="D195" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E195" s="96"/>
-      <c r="F195" s="96"/>
-      <c r="G195" s="96"/>
+      <c r="E195" s="104"/>
+      <c r="F195" s="104"/>
+      <c r="G195" s="104"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="37">
@@ -6051,12 +6051,12 @@
         <v>388</v>
       </c>
       <c r="C196" s="6"/>
-      <c r="D196" s="96" t="s">
+      <c r="D196" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E196" s="96"/>
-      <c r="F196" s="96"/>
-      <c r="G196" s="96"/>
+      <c r="E196" s="104"/>
+      <c r="F196" s="104"/>
+      <c r="G196" s="104"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="37">
@@ -6066,12 +6066,12 @@
         <v>389</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="96" t="s">
+      <c r="D197" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E197" s="96"/>
-      <c r="F197" s="96"/>
-      <c r="G197" s="96"/>
+      <c r="E197" s="104"/>
+      <c r="F197" s="104"/>
+      <c r="G197" s="104"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="37">
@@ -6081,21 +6081,21 @@
         <v>390</v>
       </c>
       <c r="C198" s="6"/>
-      <c r="D198" s="96" t="s">
+      <c r="D198" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E198" s="96"/>
-      <c r="F198" s="96"/>
-      <c r="G198" s="96"/>
+      <c r="E198" s="104"/>
+      <c r="F198" s="104"/>
+      <c r="G198" s="104"/>
     </row>
     <row r="201" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="B201" s="91" t="s">
+      <c r="B201" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="C201" s="91"/>
+      <c r="C201" s="92"/>
       <c r="D201" s="33" t="s">
         <v>7</v>
       </c>
@@ -6110,10 +6110,10 @@
       <c r="A202" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="B202" s="91" t="s">
+      <c r="B202" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="C202" s="91"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="33" t="s">
         <v>7</v>
       </c>
@@ -6128,10 +6128,10 @@
       <c r="A203" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="91" t="s">
+      <c r="B203" s="92" t="s">
         <v>400</v>
       </c>
-      <c r="C203" s="91"/>
+      <c r="C203" s="92"/>
       <c r="D203" s="33" t="s">
         <v>7</v>
       </c>
@@ -6146,10 +6146,10 @@
       <c r="A204" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="B204" s="100" t="s">
+      <c r="B204" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="C204" s="101"/>
+      <c r="C204" s="96"/>
       <c r="D204" s="33" t="s">
         <v>7</v>
       </c>
@@ -6161,23 +6161,23 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="103" t="s">
+      <c r="A205" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="103"/>
-      <c r="C205" s="103"/>
-      <c r="D205" s="103"/>
-      <c r="E205" s="103"/>
-      <c r="F205" s="103"/>
+      <c r="B205" s="106"/>
+      <c r="C205" s="106"/>
+      <c r="D205" s="106"/>
+      <c r="E205" s="106"/>
+      <c r="F205" s="106"/>
     </row>
     <row r="207" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="B207" s="100" t="s">
+      <c r="B207" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="C207" s="101"/>
+      <c r="C207" s="96"/>
       <c r="D207" s="33" t="s">
         <v>7</v>
       </c>
@@ -6192,10 +6192,10 @@
       <c r="A208" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="B208" s="91" t="s">
+      <c r="B208" s="92" t="s">
         <v>402</v>
       </c>
-      <c r="C208" s="91"/>
+      <c r="C208" s="92"/>
       <c r="D208" s="33" t="s">
         <v>7</v>
       </c>
@@ -6210,10 +6210,10 @@
       <c r="A209" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="B209" s="91" t="s">
+      <c r="B209" s="92" t="s">
         <v>403</v>
       </c>
-      <c r="C209" s="91"/>
+      <c r="C209" s="92"/>
       <c r="D209" s="33" t="s">
         <v>7</v>
       </c>
@@ -6228,10 +6228,10 @@
       <c r="A210" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="B210" s="91" t="s">
+      <c r="B210" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="C210" s="91"/>
+      <c r="C210" s="92"/>
       <c r="D210" s="33" t="s">
         <v>7</v>
       </c>
@@ -6246,10 +6246,10 @@
       <c r="A211" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="B211" s="100" t="s">
+      <c r="B211" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="101"/>
+      <c r="C211" s="96"/>
       <c r="D211" s="33" t="s">
         <v>7</v>
       </c>
@@ -6261,14 +6261,14 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="B212" s="103"/>
-      <c r="C212" s="103"/>
-      <c r="D212" s="103"/>
-      <c r="E212" s="103"/>
-      <c r="F212" s="103"/>
+      <c r="A212" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="B212" s="106"/>
+      <c r="C212" s="106"/>
+      <c r="D212" s="106"/>
+      <c r="E212" s="106"/>
+      <c r="F212" s="106"/>
     </row>
     <row r="215" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="50" t="s">
@@ -6278,12 +6278,12 @@
         <v>411</v>
       </c>
       <c r="C215" s="35"/>
-      <c r="D215" s="102" t="s">
+      <c r="D215" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="E215" s="102"/>
-      <c r="F215" s="102"/>
-      <c r="G215" s="102"/>
+      <c r="E215" s="107"/>
+      <c r="F215" s="107"/>
+      <c r="G215" s="107"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
@@ -6293,12 +6293,12 @@
         <v>412</v>
       </c>
       <c r="C216" s="6"/>
-      <c r="D216" s="77" t="s">
+      <c r="D216" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="E216" s="78"/>
-      <c r="F216" s="78"/>
-      <c r="G216" s="79"/>
+      <c r="E216" s="90"/>
+      <c r="F216" s="90"/>
+      <c r="G216" s="69"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="37">
@@ -6308,12 +6308,12 @@
         <v>429</v>
       </c>
       <c r="C217" s="6"/>
-      <c r="D217" s="104" t="s">
+      <c r="D217" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="E217" s="104"/>
-      <c r="F217" s="104"/>
-      <c r="G217" s="104"/>
+      <c r="E217" s="91"/>
+      <c r="F217" s="91"/>
+      <c r="G217" s="91"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
@@ -6323,10 +6323,10 @@
         <v>94</v>
       </c>
       <c r="C218" s="6"/>
-      <c r="D218" s="104"/>
-      <c r="E218" s="104"/>
-      <c r="F218" s="104"/>
-      <c r="G218" s="104"/>
+      <c r="D218" s="91"/>
+      <c r="E218" s="91"/>
+      <c r="F218" s="91"/>
+      <c r="G218" s="91"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
@@ -6336,12 +6336,12 @@
         <v>417</v>
       </c>
       <c r="C219" s="6"/>
-      <c r="D219" s="104" t="s">
+      <c r="D219" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="E219" s="104"/>
-      <c r="F219" s="104"/>
-      <c r="G219" s="104"/>
+      <c r="E219" s="91"/>
+      <c r="F219" s="91"/>
+      <c r="G219" s="91"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="37">
@@ -6351,12 +6351,12 @@
         <v>243</v>
       </c>
       <c r="C220" s="6"/>
-      <c r="D220" s="96" t="s">
+      <c r="D220" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E220" s="96"/>
-      <c r="F220" s="96"/>
-      <c r="G220" s="96"/>
+      <c r="E220" s="104"/>
+      <c r="F220" s="104"/>
+      <c r="G220" s="104"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="37">
@@ -6366,12 +6366,12 @@
         <v>244</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="96" t="s">
+      <c r="D221" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E221" s="96"/>
-      <c r="F221" s="96"/>
-      <c r="G221" s="96"/>
+      <c r="E221" s="104"/>
+      <c r="F221" s="104"/>
+      <c r="G221" s="104"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="37">
@@ -6381,12 +6381,12 @@
         <v>245</v>
       </c>
       <c r="C222" s="6"/>
-      <c r="D222" s="96" t="s">
+      <c r="D222" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E222" s="96"/>
-      <c r="F222" s="96"/>
-      <c r="G222" s="96"/>
+      <c r="E222" s="104"/>
+      <c r="F222" s="104"/>
+      <c r="G222" s="104"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="37">
@@ -6396,12 +6396,12 @@
         <v>246</v>
       </c>
       <c r="C223" s="6"/>
-      <c r="D223" s="96" t="s">
+      <c r="D223" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E223" s="96"/>
-      <c r="F223" s="96"/>
-      <c r="G223" s="96"/>
+      <c r="E223" s="104"/>
+      <c r="F223" s="104"/>
+      <c r="G223" s="104"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="37">
@@ -6411,12 +6411,12 @@
         <v>247</v>
       </c>
       <c r="C224" s="6"/>
-      <c r="D224" s="96" t="s">
+      <c r="D224" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E224" s="96"/>
-      <c r="F224" s="96"/>
-      <c r="G224" s="96"/>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="37">
@@ -6426,12 +6426,12 @@
         <v>253</v>
       </c>
       <c r="C225" s="6"/>
-      <c r="D225" s="96" t="s">
+      <c r="D225" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E225" s="96"/>
-      <c r="F225" s="96"/>
-      <c r="G225" s="96"/>
+      <c r="E225" s="104"/>
+      <c r="F225" s="104"/>
+      <c r="G225" s="104"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="37">
@@ -6441,12 +6441,12 @@
         <v>254</v>
       </c>
       <c r="C226" s="6"/>
-      <c r="D226" s="96" t="s">
+      <c r="D226" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E226" s="96"/>
-      <c r="F226" s="96"/>
-      <c r="G226" s="96"/>
+      <c r="E226" s="104"/>
+      <c r="F226" s="104"/>
+      <c r="G226" s="104"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="37">
@@ -6456,12 +6456,12 @@
         <v>255</v>
       </c>
       <c r="C227" s="6"/>
-      <c r="D227" s="96" t="s">
+      <c r="D227" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E227" s="96"/>
-      <c r="F227" s="96"/>
-      <c r="G227" s="96"/>
+      <c r="E227" s="104"/>
+      <c r="F227" s="104"/>
+      <c r="G227" s="104"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="37">
@@ -6471,12 +6471,12 @@
         <v>256</v>
       </c>
       <c r="C228" s="6"/>
-      <c r="D228" s="96" t="s">
+      <c r="D228" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E228" s="96"/>
-      <c r="F228" s="96"/>
-      <c r="G228" s="96"/>
+      <c r="E228" s="104"/>
+      <c r="F228" s="104"/>
+      <c r="G228" s="104"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="37">
@@ -6486,12 +6486,12 @@
         <v>257</v>
       </c>
       <c r="C229" s="6"/>
-      <c r="D229" s="96" t="s">
+      <c r="D229" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E229" s="96"/>
-      <c r="F229" s="96"/>
-      <c r="G229" s="96"/>
+      <c r="E229" s="104"/>
+      <c r="F229" s="104"/>
+      <c r="G229" s="104"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="37">
@@ -6501,12 +6501,12 @@
         <v>258</v>
       </c>
       <c r="C230" s="6"/>
-      <c r="D230" s="96" t="s">
+      <c r="D230" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E230" s="96"/>
-      <c r="F230" s="96"/>
-      <c r="G230" s="96"/>
+      <c r="E230" s="104"/>
+      <c r="F230" s="104"/>
+      <c r="G230" s="104"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="37">
@@ -6516,12 +6516,12 @@
         <v>418</v>
       </c>
       <c r="C231" s="6"/>
-      <c r="D231" s="96" t="s">
+      <c r="D231" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E231" s="96"/>
-      <c r="F231" s="96"/>
-      <c r="G231" s="96"/>
+      <c r="E231" s="104"/>
+      <c r="F231" s="104"/>
+      <c r="G231" s="104"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="37">
@@ -6531,12 +6531,12 @@
         <v>419</v>
       </c>
       <c r="C232" s="6"/>
-      <c r="D232" s="96" t="s">
+      <c r="D232" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E232" s="96"/>
-      <c r="F232" s="96"/>
-      <c r="G232" s="96"/>
+      <c r="E232" s="104"/>
+      <c r="F232" s="104"/>
+      <c r="G232" s="104"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
@@ -6546,12 +6546,12 @@
         <v>420</v>
       </c>
       <c r="C233" s="6"/>
-      <c r="D233" s="96" t="s">
-        <v>433</v>
-      </c>
-      <c r="E233" s="96"/>
-      <c r="F233" s="96"/>
-      <c r="G233" s="96"/>
+      <c r="D233" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="E233" s="104"/>
+      <c r="F233" s="104"/>
+      <c r="G233" s="104"/>
     </row>
     <row r="237" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="50" t="s">
@@ -6561,12 +6561,12 @@
         <v>411</v>
       </c>
       <c r="C237" s="35"/>
-      <c r="D237" s="102" t="s">
+      <c r="D237" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E237" s="102"/>
-      <c r="F237" s="102"/>
-      <c r="G237" s="102"/>
+      <c r="E237" s="107"/>
+      <c r="F237" s="107"/>
+      <c r="G237" s="107"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
@@ -6576,12 +6576,12 @@
         <v>412</v>
       </c>
       <c r="C238" s="6"/>
-      <c r="D238" s="104" t="s">
+      <c r="D238" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="E238" s="104"/>
-      <c r="F238" s="104"/>
-      <c r="G238" s="104"/>
+      <c r="E238" s="91"/>
+      <c r="F238" s="91"/>
+      <c r="G238" s="91"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
@@ -6591,12 +6591,12 @@
         <v>417</v>
       </c>
       <c r="C239" s="6"/>
-      <c r="D239" s="104" t="s">
+      <c r="D239" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="E239" s="104"/>
-      <c r="F239" s="104"/>
-      <c r="G239" s="104"/>
+      <c r="E239" s="91"/>
+      <c r="F239" s="91"/>
+      <c r="G239" s="91"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
@@ -6606,27 +6606,27 @@
         <v>429</v>
       </c>
       <c r="C240" s="6"/>
-      <c r="D240" s="104" t="s">
-        <v>430</v>
-      </c>
-      <c r="E240" s="104"/>
-      <c r="F240" s="104"/>
-      <c r="G240" s="104"/>
+      <c r="D240" s="91" t="s">
+        <v>534</v>
+      </c>
+      <c r="E240" s="91"/>
+      <c r="F240" s="91"/>
+      <c r="G240" s="91"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="37">
         <v>16</v>
       </c>
       <c r="B241" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C241" s="6"/>
+      <c r="D241" s="91" t="s">
         <v>431</v>
       </c>
-      <c r="C241" s="6"/>
-      <c r="D241" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="E241" s="104"/>
-      <c r="F241" s="104"/>
-      <c r="G241" s="104"/>
+      <c r="E241" s="91"/>
+      <c r="F241" s="91"/>
+      <c r="G241" s="91"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="37">
@@ -6636,27 +6636,27 @@
         <v>418</v>
       </c>
       <c r="C242" s="6"/>
-      <c r="D242" s="96" t="s">
+      <c r="D242" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E242" s="96"/>
-      <c r="F242" s="96"/>
-      <c r="G242" s="96"/>
+      <c r="E242" s="104"/>
+      <c r="F242" s="104"/>
+      <c r="G242" s="104"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B243" s="40" t="s">
         <v>420</v>
       </c>
       <c r="C243" s="6"/>
-      <c r="D243" s="96" t="s">
-        <v>433</v>
-      </c>
-      <c r="E243" s="96"/>
-      <c r="F243" s="96"/>
-      <c r="G243" s="96"/>
+      <c r="D243" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="E243" s="104"/>
+      <c r="F243" s="104"/>
+      <c r="G243" s="104"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="37">
@@ -6666,12 +6666,12 @@
         <v>243</v>
       </c>
       <c r="C244" s="6"/>
-      <c r="D244" s="96" t="s">
+      <c r="D244" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E244" s="96"/>
-      <c r="F244" s="96"/>
-      <c r="G244" s="96"/>
+      <c r="E244" s="104"/>
+      <c r="F244" s="104"/>
+      <c r="G244" s="104"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="37">
@@ -6681,12 +6681,12 @@
         <v>244</v>
       </c>
       <c r="C245" s="6"/>
-      <c r="D245" s="96" t="s">
+      <c r="D245" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E245" s="96"/>
-      <c r="F245" s="96"/>
-      <c r="G245" s="96"/>
+      <c r="E245" s="104"/>
+      <c r="F245" s="104"/>
+      <c r="G245" s="104"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="37">
@@ -6696,12 +6696,12 @@
         <v>245</v>
       </c>
       <c r="C246" s="6"/>
-      <c r="D246" s="96" t="s">
+      <c r="D246" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E246" s="96"/>
-      <c r="F246" s="96"/>
-      <c r="G246" s="96"/>
+      <c r="E246" s="104"/>
+      <c r="F246" s="104"/>
+      <c r="G246" s="104"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="37">
@@ -6711,12 +6711,12 @@
         <v>246</v>
       </c>
       <c r="C247" s="6"/>
-      <c r="D247" s="96" t="s">
+      <c r="D247" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E247" s="96"/>
-      <c r="F247" s="96"/>
-      <c r="G247" s="96"/>
+      <c r="E247" s="104"/>
+      <c r="F247" s="104"/>
+      <c r="G247" s="104"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="37">
@@ -6726,12 +6726,12 @@
         <v>247</v>
       </c>
       <c r="C248" s="6"/>
-      <c r="D248" s="96" t="s">
+      <c r="D248" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E248" s="96"/>
-      <c r="F248" s="96"/>
-      <c r="G248" s="96"/>
+      <c r="E248" s="104"/>
+      <c r="F248" s="104"/>
+      <c r="G248" s="104"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="37">
@@ -6741,12 +6741,12 @@
         <v>253</v>
       </c>
       <c r="C249" s="6"/>
-      <c r="D249" s="96" t="s">
+      <c r="D249" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E249" s="96"/>
-      <c r="F249" s="96"/>
-      <c r="G249" s="96"/>
+      <c r="E249" s="104"/>
+      <c r="F249" s="104"/>
+      <c r="G249" s="104"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="37">
@@ -6756,12 +6756,12 @@
         <v>254</v>
       </c>
       <c r="C250" s="6"/>
-      <c r="D250" s="96" t="s">
+      <c r="D250" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E250" s="96"/>
-      <c r="F250" s="96"/>
-      <c r="G250" s="96"/>
+      <c r="E250" s="104"/>
+      <c r="F250" s="104"/>
+      <c r="G250" s="104"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="37">
@@ -6771,12 +6771,12 @@
         <v>255</v>
       </c>
       <c r="C251" s="6"/>
-      <c r="D251" s="96" t="s">
+      <c r="D251" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E251" s="96"/>
-      <c r="F251" s="96"/>
-      <c r="G251" s="96"/>
+      <c r="E251" s="104"/>
+      <c r="F251" s="104"/>
+      <c r="G251" s="104"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="37">
@@ -6786,12 +6786,12 @@
         <v>256</v>
       </c>
       <c r="C252" s="6"/>
-      <c r="D252" s="96" t="s">
+      <c r="D252" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E252" s="96"/>
-      <c r="F252" s="96"/>
-      <c r="G252" s="96"/>
+      <c r="E252" s="104"/>
+      <c r="F252" s="104"/>
+      <c r="G252" s="104"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="37">
@@ -6801,12 +6801,12 @@
         <v>257</v>
       </c>
       <c r="C253" s="6"/>
-      <c r="D253" s="96" t="s">
+      <c r="D253" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E253" s="96"/>
-      <c r="F253" s="96"/>
-      <c r="G253" s="96"/>
+      <c r="E253" s="104"/>
+      <c r="F253" s="104"/>
+      <c r="G253" s="104"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="37">
@@ -6816,21 +6816,21 @@
         <v>258</v>
       </c>
       <c r="C254" s="6"/>
-      <c r="D254" s="96" t="s">
+      <c r="D254" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E254" s="96"/>
-      <c r="F254" s="96"/>
-      <c r="G254" s="96"/>
+      <c r="E254" s="104"/>
+      <c r="F254" s="104"/>
+      <c r="G254" s="104"/>
     </row>
     <row r="258" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="B258" s="91" t="s">
-        <v>436</v>
-      </c>
-      <c r="C258" s="91"/>
+        <v>439</v>
+      </c>
+      <c r="B258" s="92" t="s">
+        <v>435</v>
+      </c>
+      <c r="C258" s="92"/>
       <c r="D258" s="33" t="s">
         <v>7</v>
       </c>
@@ -6843,12 +6843,12 @@
     </row>
     <row r="259" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="B259" s="91" t="s">
-        <v>437</v>
-      </c>
-      <c r="C259" s="91"/>
+        <v>440</v>
+      </c>
+      <c r="B259" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="C259" s="92"/>
       <c r="D259" s="33" t="s">
         <v>7</v>
       </c>
@@ -6861,12 +6861,12 @@
     </row>
     <row r="260" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="B260" s="91" t="s">
-        <v>438</v>
-      </c>
-      <c r="C260" s="91"/>
+        <v>441</v>
+      </c>
+      <c r="B260" s="92" t="s">
+        <v>437</v>
+      </c>
+      <c r="C260" s="92"/>
       <c r="D260" s="33" t="s">
         <v>7</v>
       </c>
@@ -6879,12 +6879,12 @@
     </row>
     <row r="261" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="B261" s="100" t="s">
-        <v>439</v>
-      </c>
-      <c r="C261" s="101"/>
+        <v>442</v>
+      </c>
+      <c r="B261" s="105" t="s">
+        <v>438</v>
+      </c>
+      <c r="C261" s="96"/>
       <c r="D261" s="33" t="s">
         <v>7</v>
       </c>
@@ -6896,14 +6896,14 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="B262" s="103"/>
-      <c r="C262" s="103"/>
-      <c r="D262" s="103"/>
-      <c r="E262" s="103"/>
-      <c r="F262" s="103"/>
+      <c r="A262" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="B262" s="106"/>
+      <c r="C262" s="106"/>
+      <c r="D262" s="106"/>
+      <c r="E262" s="106"/>
+      <c r="F262" s="106"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="51"/>
@@ -6923,12 +6923,12 @@
     </row>
     <row r="265" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="B265" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="C265" s="102"/>
+        <v>449</v>
+      </c>
+      <c r="B265" s="107" t="s">
+        <v>444</v>
+      </c>
+      <c r="C265" s="107"/>
       <c r="D265" s="52" t="s">
         <v>7</v>
       </c>
@@ -6941,12 +6941,12 @@
     </row>
     <row r="266" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="B266" s="91" t="s">
-        <v>446</v>
-      </c>
-      <c r="C266" s="91"/>
+        <v>450</v>
+      </c>
+      <c r="B266" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="C266" s="92"/>
       <c r="D266" s="33" t="s">
         <v>7</v>
       </c>
@@ -6959,12 +6959,12 @@
     </row>
     <row r="267" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="B267" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="C267" s="91"/>
+        <v>451</v>
+      </c>
+      <c r="B267" s="92" t="s">
+        <v>446</v>
+      </c>
+      <c r="C267" s="92"/>
       <c r="D267" s="33" t="s">
         <v>7</v>
       </c>
@@ -6977,12 +6977,12 @@
     </row>
     <row r="268" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="B268" s="91" t="s">
-        <v>448</v>
-      </c>
-      <c r="C268" s="91"/>
+        <v>452</v>
+      </c>
+      <c r="B268" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="C268" s="92"/>
       <c r="D268" s="33" t="s">
         <v>7</v>
       </c>
@@ -6995,12 +6995,12 @@
     </row>
     <row r="269" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="B269" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="C269" s="101"/>
+        <v>453</v>
+      </c>
+      <c r="B269" s="105" t="s">
+        <v>448</v>
+      </c>
+      <c r="C269" s="96"/>
       <c r="D269" s="33" t="s">
         <v>7</v>
       </c>
@@ -7013,12 +7013,12 @@
     </row>
     <row r="270" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="50" t="s">
-        <v>460</v>
-      </c>
-      <c r="B270" s="102" t="s">
-        <v>455</v>
-      </c>
-      <c r="C270" s="102"/>
+        <v>459</v>
+      </c>
+      <c r="B270" s="107" t="s">
+        <v>454</v>
+      </c>
+      <c r="C270" s="107"/>
       <c r="D270" s="52" t="s">
         <v>7</v>
       </c>
@@ -7031,12 +7031,12 @@
     </row>
     <row r="271" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="B271" s="91" t="s">
-        <v>456</v>
-      </c>
-      <c r="C271" s="91"/>
+        <v>460</v>
+      </c>
+      <c r="B271" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="C271" s="92"/>
       <c r="D271" s="33" t="s">
         <v>7</v>
       </c>
@@ -7049,12 +7049,12 @@
     </row>
     <row r="272" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="B272" s="91" t="s">
-        <v>457</v>
-      </c>
-      <c r="C272" s="91"/>
+        <v>461</v>
+      </c>
+      <c r="B272" s="92" t="s">
+        <v>456</v>
+      </c>
+      <c r="C272" s="92"/>
       <c r="D272" s="33" t="s">
         <v>7</v>
       </c>
@@ -7067,12 +7067,12 @@
     </row>
     <row r="273" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="B273" s="91" t="s">
-        <v>458</v>
-      </c>
-      <c r="C273" s="91"/>
+        <v>462</v>
+      </c>
+      <c r="B273" s="92" t="s">
+        <v>457</v>
+      </c>
+      <c r="C273" s="92"/>
       <c r="D273" s="33" t="s">
         <v>7</v>
       </c>
@@ -7085,12 +7085,12 @@
     </row>
     <row r="274" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="B274" s="100" t="s">
-        <v>459</v>
-      </c>
-      <c r="C274" s="101"/>
+        <v>463</v>
+      </c>
+      <c r="B274" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="C274" s="96"/>
       <c r="D274" s="33" t="s">
         <v>7</v>
       </c>
@@ -7103,12 +7103,12 @@
     </row>
     <row r="275" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="B275" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="C275" s="102"/>
+        <v>470</v>
+      </c>
+      <c r="B275" s="107" t="s">
+        <v>464</v>
+      </c>
+      <c r="C275" s="107"/>
       <c r="D275" s="52" t="s">
         <v>7</v>
       </c>
@@ -7121,12 +7121,12 @@
     </row>
     <row r="276" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="B276" s="91" t="s">
-        <v>466</v>
-      </c>
-      <c r="C276" s="91"/>
+        <v>471</v>
+      </c>
+      <c r="B276" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="C276" s="92"/>
       <c r="D276" s="33" t="s">
         <v>7</v>
       </c>
@@ -7139,12 +7139,12 @@
     </row>
     <row r="277" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="B277" s="91" t="s">
-        <v>467</v>
-      </c>
-      <c r="C277" s="91"/>
+        <v>472</v>
+      </c>
+      <c r="B277" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="C277" s="92"/>
       <c r="D277" s="33" t="s">
         <v>7</v>
       </c>
@@ -7157,12 +7157,12 @@
     </row>
     <row r="278" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="B278" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="C278" s="91"/>
+        <v>473</v>
+      </c>
+      <c r="B278" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="C278" s="92"/>
       <c r="D278" s="33" t="s">
         <v>7</v>
       </c>
@@ -7175,12 +7175,12 @@
     </row>
     <row r="279" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="B279" s="100" t="s">
-        <v>469</v>
-      </c>
-      <c r="C279" s="101"/>
+        <v>474</v>
+      </c>
+      <c r="B279" s="105" t="s">
+        <v>468</v>
+      </c>
+      <c r="C279" s="96"/>
       <c r="D279" s="33" t="s">
         <v>7</v>
       </c>
@@ -7192,21 +7192,21 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="97" t="s">
-        <v>470</v>
-      </c>
-      <c r="B280" s="98"/>
-      <c r="C280" s="98"/>
-      <c r="D280" s="98"/>
-      <c r="E280" s="98"/>
-      <c r="F280" s="99"/>
+      <c r="A280" s="108" t="s">
+        <v>469</v>
+      </c>
+      <c r="B280" s="109"/>
+      <c r="C280" s="109"/>
+      <c r="D280" s="109"/>
+      <c r="E280" s="109"/>
+      <c r="F280" s="110"/>
     </row>
     <row r="284" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="47"/>
-      <c r="B284" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="C284" s="91"/>
+      <c r="B284" s="92" t="s">
+        <v>475</v>
+      </c>
+      <c r="C284" s="92"/>
       <c r="D284" s="33" t="s">
         <v>7</v>
       </c>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="285" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="47"/>
-      <c r="B285" s="91" t="s">
-        <v>479</v>
-      </c>
-      <c r="C285" s="91"/>
+      <c r="B285" s="92" t="s">
+        <v>478</v>
+      </c>
+      <c r="C285" s="92"/>
       <c r="D285" s="33" t="s">
         <v>7</v>
       </c>
@@ -7235,10 +7235,10 @@
     </row>
     <row r="286" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="47"/>
-      <c r="B286" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="C286" s="91"/>
+      <c r="B286" s="92" t="s">
+        <v>480</v>
+      </c>
+      <c r="C286" s="92"/>
       <c r="D286" s="33" t="s">
         <v>7</v>
       </c>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="287" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="47"/>
-      <c r="B287" s="91" t="s">
-        <v>489</v>
-      </c>
-      <c r="C287" s="91"/>
+      <c r="B287" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="C287" s="92"/>
       <c r="D287" s="33" t="s">
         <v>7</v>
       </c>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="288" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="47"/>
-      <c r="B288" s="91" t="s">
-        <v>491</v>
-      </c>
-      <c r="C288" s="91"/>
+      <c r="B288" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="C288" s="92"/>
       <c r="D288" s="33" t="s">
         <v>7</v>
       </c>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="289" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="47"/>
-      <c r="B289" s="91" t="s">
-        <v>492</v>
-      </c>
-      <c r="C289" s="91"/>
+      <c r="B289" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="C289" s="92"/>
       <c r="D289" s="33" t="s">
         <v>7</v>
       </c>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="290" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="47"/>
-      <c r="B290" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="C290" s="91"/>
+      <c r="B290" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="C290" s="92"/>
       <c r="D290" s="33" t="s">
         <v>7</v>
       </c>
@@ -7321,32 +7321,32 @@
         <v>241</v>
       </c>
       <c r="C291" s="6"/>
-      <c r="D291" s="93" t="s">
-        <v>480</v>
-      </c>
-      <c r="E291" s="94"/>
-      <c r="F291" s="95"/>
+      <c r="D291" s="111" t="s">
+        <v>479</v>
+      </c>
+      <c r="E291" s="93"/>
+      <c r="F291" s="94"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="37">
         <v>16</v>
       </c>
       <c r="B292" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="C292" s="6"/>
-      <c r="D292" s="96" t="s">
-        <v>478</v>
-      </c>
-      <c r="E292" s="96"/>
-      <c r="F292" s="96"/>
+      <c r="E292" s="104"/>
+      <c r="F292" s="104"/>
     </row>
     <row r="296" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="47"/>
-      <c r="B296" s="91" t="s">
-        <v>483</v>
-      </c>
-      <c r="C296" s="91"/>
+      <c r="B296" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="C296" s="92"/>
       <c r="D296" s="33" t="s">
         <v>7</v>
       </c>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="297" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="47"/>
-      <c r="B297" s="91" t="s">
-        <v>484</v>
-      </c>
-      <c r="C297" s="91"/>
+      <c r="B297" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="C297" s="92"/>
       <c r="D297" s="33" t="s">
         <v>7</v>
       </c>
@@ -7375,10 +7375,10 @@
     </row>
     <row r="298" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="47"/>
-      <c r="B298" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="C298" s="91"/>
+      <c r="B298" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="C298" s="92"/>
       <c r="D298" s="33" t="s">
         <v>7</v>
       </c>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="299" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="47"/>
-      <c r="B299" s="91" t="s">
-        <v>487</v>
-      </c>
-      <c r="C299" s="91"/>
+      <c r="B299" s="92" t="s">
+        <v>486</v>
+      </c>
+      <c r="C299" s="92"/>
       <c r="D299" s="33" t="s">
         <v>7</v>
       </c>
@@ -7407,10 +7407,10 @@
     </row>
     <row r="300" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="47"/>
-      <c r="B300" s="91" t="s">
-        <v>488</v>
-      </c>
-      <c r="C300" s="91"/>
+      <c r="B300" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="C300" s="92"/>
       <c r="D300" s="54" t="s">
         <v>94</v>
       </c>
@@ -7423,10 +7423,10 @@
     </row>
     <row r="301" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="47"/>
-      <c r="B301" s="91" t="s">
+      <c r="B301" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="C301" s="91"/>
+      <c r="C301" s="92"/>
       <c r="D301" s="33" t="s">
         <v>7</v>
       </c>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="302" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="47"/>
-      <c r="B302" s="91" t="s">
-        <v>490</v>
-      </c>
-      <c r="C302" s="91"/>
+      <c r="B302" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="C302" s="92"/>
       <c r="D302" s="33" t="s">
         <v>7</v>
       </c>
@@ -7455,10 +7455,10 @@
     </row>
     <row r="303" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="47"/>
-      <c r="B303" s="91" t="s">
-        <v>494</v>
-      </c>
-      <c r="C303" s="91"/>
+      <c r="B303" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="C303" s="92"/>
       <c r="D303" s="33" t="s">
         <v>7</v>
       </c>
@@ -7477,36 +7477,36 @@
         <v>241</v>
       </c>
       <c r="C304" s="6"/>
-      <c r="D304" s="93" t="s">
-        <v>486</v>
-      </c>
-      <c r="E304" s="94"/>
-      <c r="F304" s="95"/>
+      <c r="D304" s="111" t="s">
+        <v>485</v>
+      </c>
+      <c r="E304" s="93"/>
+      <c r="F304" s="94"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="37">
         <v>16</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E305" s="114"/>
       <c r="F305" s="114"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>420</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="115" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E306" s="116"/>
       <c r="F306" s="116"/>
@@ -7514,17 +7514,200 @@
       <c r="H306" s="117"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D307" s="113"/>
-      <c r="E307" s="92"/>
-      <c r="F307" s="92"/>
-      <c r="G307" s="92"/>
-      <c r="H307" s="92"/>
-      <c r="I307" s="92"/>
-      <c r="J307" s="92"/>
-      <c r="K307" s="92"/>
+      <c r="D307" s="112"/>
+      <c r="E307" s="113"/>
+      <c r="F307" s="113"/>
+      <c r="G307" s="113"/>
+      <c r="H307" s="113"/>
+      <c r="I307" s="113"/>
+      <c r="J307" s="113"/>
+      <c r="K307" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D307:K307"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D306:H306"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D252:G252"/>
+    <mergeCell ref="D253:G253"/>
+    <mergeCell ref="D254:G254"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D231:G231"/>
+    <mergeCell ref="D232:G232"/>
+    <mergeCell ref="D233:G233"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="D228:G228"/>
+    <mergeCell ref="D229:G229"/>
+    <mergeCell ref="D230:G230"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="D218:G218"/>
+    <mergeCell ref="D220:G220"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="D194:G194"/>
+    <mergeCell ref="D195:G195"/>
+    <mergeCell ref="D196:G196"/>
+    <mergeCell ref="D197:G197"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D31:G31"/>
     <mergeCell ref="E169:F169"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D2:G2"/>
@@ -7549,189 +7732,6 @@
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="D196:G196"/>
-    <mergeCell ref="D197:G197"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D215:G215"/>
-    <mergeCell ref="D216:G216"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="D225:G225"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="D219:G219"/>
-    <mergeCell ref="D218:G218"/>
-    <mergeCell ref="D220:G220"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D231:G231"/>
-    <mergeCell ref="D232:G232"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="D228:G228"/>
-    <mergeCell ref="D229:G229"/>
-    <mergeCell ref="D230:G230"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D252:G252"/>
-    <mergeCell ref="D253:G253"/>
-    <mergeCell ref="D254:G254"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="D307:K307"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D304:F304"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="D292:F292"/>
-    <mergeCell ref="D306:H306"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SVD_Files/RST_VE8x.xlsx
+++ b/SVD_Files/RST_VE8x.xlsx
@@ -2067,45 +2067,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2115,59 +2151,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2181,55 +2229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2553,51 +2553,51 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2606,88 +2606,88 @@
       <c r="B8" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="71"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="83"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2696,60 +2696,60 @@
       <c r="B17" s="61" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="84"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="71"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="73"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="73"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2758,98 +2758,98 @@
       <c r="B23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="73"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="73"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="73"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -2858,18 +2858,18 @@
       <c r="B33" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2895,11 +2895,11 @@
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -2908,98 +2908,98 @@
       <c r="B38" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="67"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="71"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="83"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="73"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="83"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="73"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="83"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="73"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="84"/>
-      <c r="D47" s="75"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="82"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3009,7 +3009,7 @@
         <v>187</v>
       </c>
       <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3018,8 +3018,8 @@
       <c r="B49" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="67"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -3028,8 +3028,8 @@
       <c r="B50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="67"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3038,8 +3038,8 @@
       <c r="B51" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -3048,8 +3048,8 @@
       <c r="B52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="67"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3058,8 +3058,8 @@
       <c r="B53" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="67"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -3068,8 +3068,8 @@
       <c r="B54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="67"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3078,8 +3078,8 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3088,8 +3088,8 @@
       <c r="B56" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="67"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3098,8 +3098,8 @@
       <c r="B57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -3108,8 +3108,8 @@
       <c r="B58" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="67"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3118,8 +3118,8 @@
       <c r="B59" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="67"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -3128,8 +3128,8 @@
       <c r="B60" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="67"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3138,8 +3138,8 @@
       <c r="B61" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="67"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -3148,8 +3148,8 @@
       <c r="B62" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="67"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3158,8 +3158,8 @@
       <c r="B63" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="67"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -3168,8 +3168,8 @@
       <c r="B64" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="67"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3178,8 +3178,8 @@
       <c r="B65" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="67"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3188,8 +3188,8 @@
       <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="67"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3198,8 +3198,8 @@
       <c r="B67" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
@@ -3208,8 +3208,8 @@
       <c r="B68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="67"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
@@ -3218,8 +3218,8 @@
       <c r="B69" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="67"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
@@ -3228,8 +3228,8 @@
       <c r="B70" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="67"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3238,8 +3238,8 @@
       <c r="B71" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -3248,8 +3248,8 @@
       <c r="B72" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="70"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -3289,7 +3289,7 @@
       <c r="C75" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="64"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -3298,8 +3298,8 @@
       <c r="B76" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="67"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3308,8 +3308,8 @@
       <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="67"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -3318,8 +3318,8 @@
       <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="70"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -3328,10 +3328,10 @@
       <c r="B79" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="70" t="s">
+      <c r="C79" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="71"/>
+      <c r="D79" s="76"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3340,7 +3340,7 @@
       <c r="B80" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="71" t="s">
         <v>201</v>
       </c>
       <c r="D80" s="73"/>
@@ -3352,7 +3352,7 @@
       <c r="B81" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="71" t="s">
         <v>202</v>
       </c>
       <c r="D81" s="73"/>
@@ -3364,10 +3364,10 @@
       <c r="B82" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="74" t="s">
+      <c r="C82" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="D82" s="75"/>
+      <c r="D82" s="82"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -3484,10 +3484,10 @@
       <c r="A97" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="69"/>
+      <c r="D97" s="79"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -3517,16 +3517,16 @@
       <c r="C101" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="63"/>
+      <c r="D101" s="64"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="66" t="s">
+      <c r="C102" s="68" t="s">
         <v>523</v>
       </c>
-      <c r="D102" s="67"/>
+      <c r="D102" s="70"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -3552,10 +3552,10 @@
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="69"/>
+      <c r="D107" s="79"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -3649,10 +3649,10 @@
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="68" t="s">
+      <c r="C118" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="69"/>
+      <c r="D118" s="79"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -3705,26 +3705,28 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C75:D78"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C48:D72"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B25:D25"/>
@@ -3739,28 +3741,26 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C48:D72"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C75:D78"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241:G241"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144:G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,12 +3791,12 @@
         <v>217</v>
       </c>
       <c r="C2" s="35"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -3806,12 +3806,12 @@
         <v>217</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -3842,11 +3842,11 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
@@ -3854,11 +3854,11 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
@@ -3866,11 +3866,11 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -3878,11 +3878,11 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -3890,11 +3890,11 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="109" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -3902,11 +3902,11 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -3914,11 +3914,11 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
@@ -3926,11 +3926,11 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -3938,11 +3938,11 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
@@ -3950,11 +3950,11 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -3962,11 +3962,11 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
     </row>
     <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
@@ -3976,10 +3976,10 @@
         <v>239</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="106"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
@@ -3989,12 +3989,12 @@
         <v>241</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
@@ -4004,12 +4004,12 @@
         <v>243</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
@@ -4019,12 +4019,12 @@
         <v>244</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
@@ -4034,12 +4034,12 @@
         <v>245</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
@@ -4049,12 +4049,12 @@
         <v>246</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
@@ -4064,12 +4064,12 @@
         <v>247</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
@@ -4079,12 +4079,12 @@
         <v>253</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
@@ -4094,12 +4094,12 @@
         <v>254</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
@@ -4109,12 +4109,12 @@
         <v>255</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="98"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
@@ -4124,12 +4124,12 @@
         <v>256</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
@@ -4139,12 +4139,12 @@
         <v>257</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="115" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
@@ -4154,12 +4154,12 @@
         <v>258</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
@@ -4339,11 +4339,11 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="91" t="s">
+      <c r="D51" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
@@ -4363,11 +4363,11 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="91" t="s">
+      <c r="D52" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
@@ -4376,10 +4376,10 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="91" t="s">
+      <c r="E53" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="F53" s="91"/>
+      <c r="F53" s="109"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
@@ -4420,10 +4420,10 @@
       <c r="D57" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="91" t="s">
+      <c r="E57" s="109" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="91"/>
+      <c r="F57" s="109"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
@@ -4448,10 +4448,10 @@
       <c r="D59" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E59" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="91"/>
+      <c r="F59" s="109"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
@@ -4462,10 +4462,10 @@
       <c r="D60" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="91" t="s">
+      <c r="E60" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="F60" s="91"/>
+      <c r="F60" s="109"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
@@ -4476,10 +4476,10 @@
       <c r="D61" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="E61" s="91" t="s">
+      <c r="E61" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="F61" s="91"/>
+      <c r="F61" s="109"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
@@ -4490,10 +4490,10 @@
       <c r="D62" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="91" t="s">
+      <c r="E62" s="109" t="s">
         <v>499</v>
       </c>
-      <c r="F62" s="91"/>
+      <c r="F62" s="109"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
@@ -4504,8 +4504,8 @@
       <c r="D63" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
@@ -4516,8 +4516,8 @@
       <c r="D64" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
@@ -4528,10 +4528,10 @@
       <c r="D65" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="E65" s="91" t="s">
+      <c r="E65" s="109" t="s">
         <v>272</v>
       </c>
-      <c r="F65" s="91"/>
+      <c r="F65" s="109"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
@@ -4556,8 +4556,8 @@
       <c r="D67" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
     </row>
     <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
@@ -4586,8 +4586,8 @@
       <c r="D71" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
@@ -4598,8 +4598,8 @@
       <c r="D72" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
@@ -4610,10 +4610,10 @@
       <c r="D73" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="91"/>
+      <c r="F73" s="109"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
@@ -4666,10 +4666,10 @@
       <c r="D77" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="91" t="s">
+      <c r="E77" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="F77" s="91"/>
+      <c r="F77" s="109"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
@@ -4680,10 +4680,10 @@
       <c r="D78" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="E78" s="91" t="s">
+      <c r="E78" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="F78" s="91"/>
+      <c r="F78" s="109"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
@@ -4694,8 +4694,8 @@
       <c r="D79" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
+      <c r="E79" s="109"/>
+      <c r="F79" s="109"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
@@ -4706,8 +4706,8 @@
       <c r="D80" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
@@ -4718,8 +4718,8 @@
       <c r="D81" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
@@ -4830,10 +4830,10 @@
       <c r="D90" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E90" s="109" t="s">
         <v>306</v>
       </c>
-      <c r="F90" s="91"/>
+      <c r="F90" s="109"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
@@ -4856,10 +4856,10 @@
       <c r="D92" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="E92" s="91" t="s">
+      <c r="E92" s="109" t="s">
         <v>496</v>
       </c>
-      <c r="F92" s="91"/>
+      <c r="F92" s="109"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
@@ -4940,8 +4940,8 @@
       <c r="D98" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="109"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
@@ -5025,13 +5025,13 @@
       <c r="B107" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C107" s="91" t="s">
+      <c r="C107" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
+      <c r="D107" s="109"/>
+      <c r="E107" s="109"/>
+      <c r="F107" s="109"/>
+      <c r="G107" s="109"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
@@ -5040,13 +5040,13 @@
       <c r="B108" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="91" t="s">
+      <c r="C108" s="109" t="s">
         <v>326</v>
       </c>
-      <c r="D108" s="91"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="91"/>
-      <c r="G108" s="91"/>
+      <c r="D108" s="109"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="109"/>
+      <c r="G108" s="109"/>
     </row>
     <row r="109" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
@@ -5074,13 +5074,13 @@
       <c r="B110" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C110" s="91" t="s">
+      <c r="C110" s="109" t="s">
         <v>331</v>
       </c>
-      <c r="D110" s="91"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91"/>
+      <c r="D110" s="109"/>
+      <c r="E110" s="109"/>
+      <c r="F110" s="109"/>
+      <c r="G110" s="109"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
@@ -5089,13 +5089,13 @@
       <c r="B111" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="91"/>
-      <c r="E111" s="91"/>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
+      <c r="D111" s="109"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="109"/>
+      <c r="G111" s="109"/>
     </row>
     <row r="115" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
@@ -5123,13 +5123,13 @@
       <c r="B116" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C116" s="104" t="s">
+      <c r="C116" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="104"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="104"/>
-      <c r="G116" s="104"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="98"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
@@ -5138,13 +5138,13 @@
       <c r="B117" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C117" s="104" t="s">
+      <c r="C117" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="104"/>
-      <c r="E117" s="104"/>
-      <c r="F117" s="104"/>
-      <c r="G117" s="104"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
@@ -5153,13 +5153,13 @@
       <c r="B118" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C118" s="104" t="s">
+      <c r="C118" s="98" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="104"/>
-      <c r="E118" s="104"/>
-      <c r="F118" s="104"/>
-      <c r="G118" s="104"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="98"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
@@ -5168,40 +5168,40 @@
       <c r="B119" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C119" s="104" t="s">
+      <c r="C119" s="98" t="s">
         <v>348</v>
       </c>
-      <c r="D119" s="104"/>
-      <c r="E119" s="104"/>
-      <c r="F119" s="104"/>
-      <c r="G119" s="104"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="103" t="s">
+      <c r="C120" s="110" t="s">
         <v>343</v>
       </c>
-      <c r="D120" s="103"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="103"/>
-      <c r="G120" s="103"/>
+      <c r="D120" s="110"/>
+      <c r="E120" s="110"/>
+      <c r="F120" s="110"/>
+      <c r="G120" s="110"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="103" t="s">
+      <c r="C121" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="D121" s="103"/>
-      <c r="E121" s="103"/>
-      <c r="F121" s="103"/>
-      <c r="G121" s="103"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="110"/>
+      <c r="F121" s="110"/>
+      <c r="G121" s="110"/>
     </row>
     <row r="125" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="92" t="s">
+      <c r="B125" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="92"/>
+      <c r="C125" s="91"/>
       <c r="D125" s="33" t="s">
         <v>7</v>
       </c>
@@ -5221,12 +5221,12 @@
         <v>351</v>
       </c>
       <c r="C126" s="6"/>
-      <c r="D126" s="104" t="s">
+      <c r="D126" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="E126" s="104"/>
-      <c r="F126" s="104"/>
-      <c r="G126" s="104"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="98"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
@@ -5236,12 +5236,12 @@
         <v>352</v>
       </c>
       <c r="C127" s="41"/>
-      <c r="D127" s="104" t="s">
+      <c r="D127" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="E127" s="104"/>
-      <c r="F127" s="104"/>
-      <c r="G127" s="104"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="98"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="37">
@@ -5251,12 +5251,12 @@
         <v>357</v>
       </c>
       <c r="C128" s="41"/>
-      <c r="D128" s="104" t="s">
+      <c r="D128" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E128" s="104"/>
-      <c r="F128" s="104"/>
-      <c r="G128" s="104"/>
+      <c r="E128" s="98"/>
+      <c r="F128" s="98"/>
+      <c r="G128" s="98"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="37">
@@ -5266,12 +5266,12 @@
         <v>356</v>
       </c>
       <c r="C129" s="41"/>
-      <c r="D129" s="104" t="s">
+      <c r="D129" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E129" s="104"/>
-      <c r="F129" s="104"/>
-      <c r="G129" s="104"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="98"/>
+      <c r="G129" s="98"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
@@ -5281,12 +5281,12 @@
         <v>358</v>
       </c>
       <c r="C130" s="41"/>
-      <c r="D130" s="104" t="s">
+      <c r="D130" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E130" s="104"/>
-      <c r="F130" s="104"/>
-      <c r="G130" s="104"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="98"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="37">
@@ -5296,12 +5296,12 @@
         <v>359</v>
       </c>
       <c r="C131" s="41"/>
-      <c r="D131" s="104" t="s">
+      <c r="D131" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E131" s="104"/>
-      <c r="F131" s="104"/>
-      <c r="G131" s="104"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="98"/>
     </row>
     <row r="135" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
@@ -5311,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="35"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="92"/>
-      <c r="F135" s="92"/>
-      <c r="G135" s="92"/>
+      <c r="D135" s="91"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="91"/>
+      <c r="G135" s="91"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
@@ -5324,10 +5324,10 @@
         <v>94</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="104"/>
-      <c r="E136" s="104"/>
-      <c r="F136" s="104"/>
-      <c r="G136" s="104"/>
+      <c r="D136" s="98"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="98"/>
+      <c r="G136" s="98"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="37">
@@ -5337,12 +5337,12 @@
         <v>243</v>
       </c>
       <c r="C137" s="6"/>
-      <c r="D137" s="104" t="s">
+      <c r="D137" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="E137" s="104"/>
-      <c r="F137" s="104"/>
-      <c r="G137" s="104"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="98"/>
+      <c r="G137" s="98"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="37">
@@ -5352,12 +5352,12 @@
         <v>244</v>
       </c>
       <c r="C138" s="6"/>
-      <c r="D138" s="104" t="s">
+      <c r="D138" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="E138" s="104"/>
-      <c r="F138" s="104"/>
-      <c r="G138" s="104"/>
+      <c r="E138" s="98"/>
+      <c r="F138" s="98"/>
+      <c r="G138" s="98"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
@@ -5367,12 +5367,12 @@
         <v>245</v>
       </c>
       <c r="C139" s="6"/>
-      <c r="D139" s="104" t="s">
+      <c r="D139" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="E139" s="104"/>
-      <c r="F139" s="104"/>
-      <c r="G139" s="104"/>
+      <c r="E139" s="98"/>
+      <c r="F139" s="98"/>
+      <c r="G139" s="98"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="37">
@@ -5382,12 +5382,12 @@
         <v>246</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="104" t="s">
+      <c r="D140" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="E140" s="104"/>
-      <c r="F140" s="104"/>
-      <c r="G140" s="104"/>
+      <c r="E140" s="98"/>
+      <c r="F140" s="98"/>
+      <c r="G140" s="98"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="37">
@@ -5397,12 +5397,12 @@
         <v>247</v>
       </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="104" t="s">
+      <c r="D141" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="E141" s="104"/>
-      <c r="F141" s="104"/>
-      <c r="G141" s="104"/>
+      <c r="E141" s="98"/>
+      <c r="F141" s="98"/>
+      <c r="G141" s="98"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
@@ -5412,12 +5412,12 @@
         <v>253</v>
       </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="104" t="s">
+      <c r="D142" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="E142" s="104"/>
-      <c r="F142" s="104"/>
-      <c r="G142" s="104"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="98"/>
+      <c r="G142" s="98"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
@@ -5427,12 +5427,12 @@
         <v>254</v>
       </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="E143" s="104"/>
-      <c r="F143" s="104"/>
-      <c r="G143" s="104"/>
+      <c r="D143" s="98" t="s">
+        <v>494</v>
+      </c>
+      <c r="E143" s="98"/>
+      <c r="F143" s="98"/>
+      <c r="G143" s="98"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
@@ -5442,12 +5442,12 @@
         <v>255</v>
       </c>
       <c r="C144" s="6"/>
-      <c r="D144" s="104" t="s">
+      <c r="D144" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E144" s="104"/>
-      <c r="F144" s="104"/>
-      <c r="G144" s="104"/>
+      <c r="E144" s="98"/>
+      <c r="F144" s="98"/>
+      <c r="G144" s="98"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
@@ -5457,12 +5457,12 @@
         <v>256</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="104" t="s">
+      <c r="D145" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="E145" s="104"/>
-      <c r="F145" s="104"/>
-      <c r="G145" s="104"/>
+      <c r="E145" s="98"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="98"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
@@ -5472,12 +5472,12 @@
         <v>257</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="104" t="s">
+      <c r="D146" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="E146" s="104"/>
-      <c r="F146" s="104"/>
-      <c r="G146" s="104"/>
+      <c r="E146" s="98"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="98"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
@@ -5487,12 +5487,12 @@
         <v>258</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="104" t="s">
+      <c r="D147" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="E147" s="104"/>
-      <c r="F147" s="104"/>
-      <c r="G147" s="104"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="98"/>
     </row>
     <row r="151" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
@@ -5501,7 +5501,7 @@
       <c r="B151" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="C151" s="96"/>
+      <c r="C151" s="106"/>
       <c r="D151" s="33" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="B152" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="C152" s="96"/>
+      <c r="C152" s="106"/>
       <c r="D152" s="33" t="s">
         <v>7</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="B153" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="96"/>
+      <c r="C153" s="106"/>
       <c r="D153" s="33" t="s">
         <v>7</v>
       </c>
@@ -5549,23 +5549,23 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="106" t="s">
+      <c r="A154" s="108" t="s">
         <v>365</v>
       </c>
-      <c r="B154" s="106"/>
-      <c r="C154" s="106"/>
-      <c r="D154" s="106"/>
-      <c r="E154" s="106"/>
-      <c r="F154" s="106"/>
+      <c r="B154" s="108"/>
+      <c r="C154" s="108"/>
+      <c r="D154" s="108"/>
+      <c r="E154" s="108"/>
+      <c r="F154" s="108"/>
     </row>
     <row r="156" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B156" s="92" t="s">
+      <c r="B156" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="C156" s="92"/>
+      <c r="C156" s="91"/>
       <c r="D156" s="33" t="s">
         <v>7</v>
       </c>
@@ -5584,11 +5584,11 @@
         <v>351</v>
       </c>
       <c r="C157" s="6"/>
-      <c r="D157" s="104" t="s">
+      <c r="D157" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="E157" s="104"/>
-      <c r="F157" s="104"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="98"/>
       <c r="G157" s="36"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,11 +5599,11 @@
         <v>352</v>
       </c>
       <c r="C158" s="41"/>
-      <c r="D158" s="104" t="s">
+      <c r="D158" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="E158" s="104"/>
-      <c r="F158" s="104"/>
+      <c r="E158" s="98"/>
+      <c r="F158" s="98"/>
       <c r="G158" s="36"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5614,11 +5614,11 @@
         <v>357</v>
       </c>
       <c r="C159" s="41"/>
-      <c r="D159" s="104" t="s">
+      <c r="D159" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E159" s="104"/>
-      <c r="F159" s="104"/>
+      <c r="E159" s="98"/>
+      <c r="F159" s="98"/>
       <c r="G159" s="36"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,11 +5629,11 @@
         <v>356</v>
       </c>
       <c r="C160" s="41"/>
-      <c r="D160" s="104" t="s">
+      <c r="D160" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E160" s="104"/>
-      <c r="F160" s="104"/>
+      <c r="E160" s="98"/>
+      <c r="F160" s="98"/>
       <c r="G160" s="36"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,11 +5644,11 @@
         <v>358</v>
       </c>
       <c r="C161" s="41"/>
-      <c r="D161" s="104" t="s">
+      <c r="D161" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="104"/>
-      <c r="F161" s="104"/>
+      <c r="E161" s="98"/>
+      <c r="F161" s="98"/>
       <c r="G161" s="36"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,11 +5659,11 @@
         <v>359</v>
       </c>
       <c r="C162" s="41"/>
-      <c r="D162" s="104" t="s">
+      <c r="D162" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="E162" s="104"/>
-      <c r="F162" s="104"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
       <c r="G162" s="36"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,11 +5674,11 @@
         <v>366</v>
       </c>
       <c r="C163" s="41"/>
-      <c r="D163" s="104" t="s">
+      <c r="D163" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="E163" s="104"/>
-      <c r="F163" s="104"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="98"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,10 +5703,10 @@
       <c r="A168" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="B168" s="92" t="s">
+      <c r="B168" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="92"/>
+      <c r="C168" s="91"/>
       <c r="D168" s="33" t="s">
         <v>7</v>
       </c>
@@ -5728,10 +5728,10 @@
       <c r="D169" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="68" t="s">
+      <c r="E169" s="77" t="s">
         <v>367</v>
       </c>
-      <c r="F169" s="69"/>
+      <c r="F169" s="79"/>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,7 +5759,7 @@
       <c r="B174" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C174" s="96"/>
+      <c r="C174" s="106"/>
       <c r="D174" s="33" t="s">
         <v>7</v>
       </c>
@@ -5774,10 +5774,10 @@
       <c r="A175" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="B175" s="92" t="s">
+      <c r="B175" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="C175" s="92"/>
+      <c r="C175" s="91"/>
       <c r="D175" s="33" t="s">
         <v>7</v>
       </c>
@@ -5792,10 +5792,10 @@
       <c r="A176" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="B176" s="92" t="s">
+      <c r="B176" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C176" s="92"/>
+      <c r="C176" s="91"/>
       <c r="D176" s="33" t="s">
         <v>7</v>
       </c>
@@ -5810,10 +5810,10 @@
       <c r="A177" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="B177" s="92" t="s">
+      <c r="B177" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="C177" s="92"/>
+      <c r="C177" s="91"/>
       <c r="D177" s="33" t="s">
         <v>7</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="B178" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="C178" s="96"/>
+      <c r="C178" s="106"/>
       <c r="D178" s="33" t="s">
         <v>7</v>
       </c>
@@ -5843,14 +5843,14 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="106" t="s">
+      <c r="A179" s="108" t="s">
         <v>509</v>
       </c>
-      <c r="B179" s="106"/>
-      <c r="C179" s="106"/>
-      <c r="D179" s="106"/>
-      <c r="E179" s="106"/>
-      <c r="F179" s="106"/>
+      <c r="B179" s="108"/>
+      <c r="C179" s="108"/>
+      <c r="D179" s="108"/>
+      <c r="E179" s="108"/>
+      <c r="F179" s="108"/>
     </row>
     <row r="183" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
@@ -5860,10 +5860,10 @@
         <v>13</v>
       </c>
       <c r="C183" s="35"/>
-      <c r="D183" s="92"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="92"/>
-      <c r="G183" s="92"/>
+      <c r="D183" s="91"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="91"/>
+      <c r="G183" s="91"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
@@ -5873,10 +5873,10 @@
         <v>94</v>
       </c>
       <c r="C184" s="6"/>
-      <c r="D184" s="104"/>
-      <c r="E184" s="104"/>
-      <c r="F184" s="104"/>
-      <c r="G184" s="104"/>
+      <c r="D184" s="98"/>
+      <c r="E184" s="98"/>
+      <c r="F184" s="98"/>
+      <c r="G184" s="98"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="37">
@@ -5886,12 +5886,12 @@
         <v>243</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="104" t="s">
+      <c r="D185" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="E185" s="104"/>
-      <c r="F185" s="104"/>
-      <c r="G185" s="104"/>
+      <c r="E185" s="98"/>
+      <c r="F185" s="98"/>
+      <c r="G185" s="98"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="37">
@@ -5901,12 +5901,12 @@
         <v>244</v>
       </c>
       <c r="C186" s="6"/>
-      <c r="D186" s="104" t="s">
+      <c r="D186" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="E186" s="104"/>
-      <c r="F186" s="104"/>
-      <c r="G186" s="104"/>
+      <c r="E186" s="98"/>
+      <c r="F186" s="98"/>
+      <c r="G186" s="98"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="37">
@@ -5916,12 +5916,12 @@
         <v>245</v>
       </c>
       <c r="C187" s="6"/>
-      <c r="D187" s="104" t="s">
+      <c r="D187" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="E187" s="104"/>
-      <c r="F187" s="104"/>
-      <c r="G187" s="104"/>
+      <c r="E187" s="98"/>
+      <c r="F187" s="98"/>
+      <c r="G187" s="98"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="37">
@@ -5931,12 +5931,12 @@
         <v>246</v>
       </c>
       <c r="C188" s="6"/>
-      <c r="D188" s="104" t="s">
+      <c r="D188" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="E188" s="104"/>
-      <c r="F188" s="104"/>
-      <c r="G188" s="104"/>
+      <c r="E188" s="98"/>
+      <c r="F188" s="98"/>
+      <c r="G188" s="98"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="37">
@@ -5946,12 +5946,12 @@
         <v>247</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="104" t="s">
+      <c r="D189" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="E189" s="104"/>
-      <c r="F189" s="104"/>
-      <c r="G189" s="104"/>
+      <c r="E189" s="98"/>
+      <c r="F189" s="98"/>
+      <c r="G189" s="98"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="37">
@@ -5961,12 +5961,12 @@
         <v>253</v>
       </c>
       <c r="C190" s="6"/>
-      <c r="D190" s="104" t="s">
+      <c r="D190" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="E190" s="104"/>
-      <c r="F190" s="104"/>
-      <c r="G190" s="104"/>
+      <c r="E190" s="98"/>
+      <c r="F190" s="98"/>
+      <c r="G190" s="98"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="37">
@@ -5976,12 +5976,12 @@
         <v>254</v>
       </c>
       <c r="C191" s="6"/>
-      <c r="D191" s="104" t="s">
+      <c r="D191" s="98" t="s">
         <v>494</v>
       </c>
-      <c r="E191" s="104"/>
-      <c r="F191" s="104"/>
-      <c r="G191" s="104"/>
+      <c r="E191" s="98"/>
+      <c r="F191" s="98"/>
+      <c r="G191" s="98"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
@@ -5991,12 +5991,12 @@
         <v>255</v>
       </c>
       <c r="C192" s="6"/>
-      <c r="D192" s="104" t="s">
+      <c r="D192" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E192" s="104"/>
-      <c r="F192" s="104"/>
-      <c r="G192" s="104"/>
+      <c r="E192" s="98"/>
+      <c r="F192" s="98"/>
+      <c r="G192" s="98"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="37">
@@ -6006,12 +6006,12 @@
         <v>256</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="104" t="s">
+      <c r="D193" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="E193" s="104"/>
-      <c r="F193" s="104"/>
-      <c r="G193" s="104"/>
+      <c r="E193" s="98"/>
+      <c r="F193" s="98"/>
+      <c r="G193" s="98"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="37">
@@ -6021,12 +6021,12 @@
         <v>257</v>
       </c>
       <c r="C194" s="6"/>
-      <c r="D194" s="104" t="s">
+      <c r="D194" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="E194" s="104"/>
-      <c r="F194" s="104"/>
-      <c r="G194" s="104"/>
+      <c r="E194" s="98"/>
+      <c r="F194" s="98"/>
+      <c r="G194" s="98"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="37">
@@ -6036,12 +6036,12 @@
         <v>258</v>
       </c>
       <c r="C195" s="6"/>
-      <c r="D195" s="104" t="s">
+      <c r="D195" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="E195" s="104"/>
-      <c r="F195" s="104"/>
-      <c r="G195" s="104"/>
+      <c r="E195" s="98"/>
+      <c r="F195" s="98"/>
+      <c r="G195" s="98"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="37">
@@ -6051,12 +6051,12 @@
         <v>388</v>
       </c>
       <c r="C196" s="6"/>
-      <c r="D196" s="104" t="s">
+      <c r="D196" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="E196" s="104"/>
-      <c r="F196" s="104"/>
-      <c r="G196" s="104"/>
+      <c r="E196" s="98"/>
+      <c r="F196" s="98"/>
+      <c r="G196" s="98"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="37">
@@ -6066,12 +6066,12 @@
         <v>389</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="104" t="s">
+      <c r="D197" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="E197" s="104"/>
-      <c r="F197" s="104"/>
-      <c r="G197" s="104"/>
+      <c r="E197" s="98"/>
+      <c r="F197" s="98"/>
+      <c r="G197" s="98"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="37">
@@ -6081,21 +6081,21 @@
         <v>390</v>
       </c>
       <c r="C198" s="6"/>
-      <c r="D198" s="104" t="s">
+      <c r="D198" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="E198" s="104"/>
-      <c r="F198" s="104"/>
-      <c r="G198" s="104"/>
+      <c r="E198" s="98"/>
+      <c r="F198" s="98"/>
+      <c r="G198" s="98"/>
     </row>
     <row r="201" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="B201" s="92" t="s">
+      <c r="B201" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="C201" s="92"/>
+      <c r="C201" s="91"/>
       <c r="D201" s="33" t="s">
         <v>7</v>
       </c>
@@ -6110,10 +6110,10 @@
       <c r="A202" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="B202" s="92" t="s">
+      <c r="B202" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="C202" s="92"/>
+      <c r="C202" s="91"/>
       <c r="D202" s="33" t="s">
         <v>7</v>
       </c>
@@ -6128,10 +6128,10 @@
       <c r="A203" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="92" t="s">
+      <c r="B203" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="C203" s="92"/>
+      <c r="C203" s="91"/>
       <c r="D203" s="33" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="B204" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="C204" s="96"/>
+      <c r="C204" s="106"/>
       <c r="D204" s="33" t="s">
         <v>7</v>
       </c>
@@ -6161,14 +6161,14 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="106" t="s">
+      <c r="A205" s="108" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="106"/>
-      <c r="C205" s="106"/>
-      <c r="D205" s="106"/>
-      <c r="E205" s="106"/>
-      <c r="F205" s="106"/>
+      <c r="B205" s="108"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="108"/>
+      <c r="F205" s="108"/>
     </row>
     <row r="207" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="47" t="s">
@@ -6177,7 +6177,7 @@
       <c r="B207" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="C207" s="96"/>
+      <c r="C207" s="106"/>
       <c r="D207" s="33" t="s">
         <v>7</v>
       </c>
@@ -6192,10 +6192,10 @@
       <c r="A208" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="B208" s="92" t="s">
+      <c r="B208" s="91" t="s">
         <v>402</v>
       </c>
-      <c r="C208" s="92"/>
+      <c r="C208" s="91"/>
       <c r="D208" s="33" t="s">
         <v>7</v>
       </c>
@@ -6210,10 +6210,10 @@
       <c r="A209" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="B209" s="92" t="s">
+      <c r="B209" s="91" t="s">
         <v>403</v>
       </c>
-      <c r="C209" s="92"/>
+      <c r="C209" s="91"/>
       <c r="D209" s="33" t="s">
         <v>7</v>
       </c>
@@ -6228,10 +6228,10 @@
       <c r="A210" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="B210" s="92" t="s">
+      <c r="B210" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="C210" s="92"/>
+      <c r="C210" s="91"/>
       <c r="D210" s="33" t="s">
         <v>7</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="B211" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="96"/>
+      <c r="C211" s="106"/>
       <c r="D211" s="33" t="s">
         <v>7</v>
       </c>
@@ -6261,14 +6261,14 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="106" t="s">
+      <c r="A212" s="108" t="s">
         <v>434</v>
       </c>
-      <c r="B212" s="106"/>
-      <c r="C212" s="106"/>
-      <c r="D212" s="106"/>
-      <c r="E212" s="106"/>
-      <c r="F212" s="106"/>
+      <c r="B212" s="108"/>
+      <c r="C212" s="108"/>
+      <c r="D212" s="108"/>
+      <c r="E212" s="108"/>
+      <c r="F212" s="108"/>
     </row>
     <row r="215" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="50" t="s">
@@ -6293,12 +6293,12 @@
         <v>412</v>
       </c>
       <c r="C216" s="6"/>
-      <c r="D216" s="68" t="s">
+      <c r="D216" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="E216" s="90"/>
-      <c r="F216" s="90"/>
-      <c r="G216" s="69"/>
+      <c r="E216" s="78"/>
+      <c r="F216" s="78"/>
+      <c r="G216" s="79"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="37">
@@ -6308,12 +6308,12 @@
         <v>429</v>
       </c>
       <c r="C217" s="6"/>
-      <c r="D217" s="91" t="s">
+      <c r="D217" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="E217" s="91"/>
-      <c r="F217" s="91"/>
-      <c r="G217" s="91"/>
+      <c r="E217" s="109"/>
+      <c r="F217" s="109"/>
+      <c r="G217" s="109"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
@@ -6323,10 +6323,10 @@
         <v>94</v>
       </c>
       <c r="C218" s="6"/>
-      <c r="D218" s="91"/>
-      <c r="E218" s="91"/>
-      <c r="F218" s="91"/>
-      <c r="G218" s="91"/>
+      <c r="D218" s="109"/>
+      <c r="E218" s="109"/>
+      <c r="F218" s="109"/>
+      <c r="G218" s="109"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
@@ -6336,12 +6336,12 @@
         <v>417</v>
       </c>
       <c r="C219" s="6"/>
-      <c r="D219" s="91" t="s">
+      <c r="D219" s="109" t="s">
         <v>423</v>
       </c>
-      <c r="E219" s="91"/>
-      <c r="F219" s="91"/>
-      <c r="G219" s="91"/>
+      <c r="E219" s="109"/>
+      <c r="F219" s="109"/>
+      <c r="G219" s="109"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="37">
@@ -6351,12 +6351,12 @@
         <v>243</v>
       </c>
       <c r="C220" s="6"/>
-      <c r="D220" s="104" t="s">
+      <c r="D220" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="E220" s="104"/>
-      <c r="F220" s="104"/>
-      <c r="G220" s="104"/>
+      <c r="E220" s="98"/>
+      <c r="F220" s="98"/>
+      <c r="G220" s="98"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="37">
@@ -6366,12 +6366,12 @@
         <v>244</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="104" t="s">
+      <c r="D221" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="E221" s="104"/>
-      <c r="F221" s="104"/>
-      <c r="G221" s="104"/>
+      <c r="E221" s="98"/>
+      <c r="F221" s="98"/>
+      <c r="G221" s="98"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="37">
@@ -6381,12 +6381,12 @@
         <v>245</v>
       </c>
       <c r="C222" s="6"/>
-      <c r="D222" s="104" t="s">
+      <c r="D222" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="E222" s="104"/>
-      <c r="F222" s="104"/>
-      <c r="G222" s="104"/>
+      <c r="E222" s="98"/>
+      <c r="F222" s="98"/>
+      <c r="G222" s="98"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="37">
@@ -6396,12 +6396,12 @@
         <v>246</v>
       </c>
       <c r="C223" s="6"/>
-      <c r="D223" s="104" t="s">
+      <c r="D223" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="E223" s="104"/>
-      <c r="F223" s="104"/>
-      <c r="G223" s="104"/>
+      <c r="E223" s="98"/>
+      <c r="F223" s="98"/>
+      <c r="G223" s="98"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="37">
@@ -6411,12 +6411,12 @@
         <v>247</v>
       </c>
       <c r="C224" s="6"/>
-      <c r="D224" s="104" t="s">
+      <c r="D224" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="E224" s="104"/>
-      <c r="F224" s="104"/>
-      <c r="G224" s="104"/>
+      <c r="E224" s="98"/>
+      <c r="F224" s="98"/>
+      <c r="G224" s="98"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="37">
@@ -6426,12 +6426,12 @@
         <v>253</v>
       </c>
       <c r="C225" s="6"/>
-      <c r="D225" s="104" t="s">
+      <c r="D225" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="E225" s="104"/>
-      <c r="F225" s="104"/>
-      <c r="G225" s="104"/>
+      <c r="E225" s="98"/>
+      <c r="F225" s="98"/>
+      <c r="G225" s="98"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="37">
@@ -6441,12 +6441,12 @@
         <v>254</v>
       </c>
       <c r="C226" s="6"/>
-      <c r="D226" s="104" t="s">
+      <c r="D226" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="E226" s="104"/>
-      <c r="F226" s="104"/>
-      <c r="G226" s="104"/>
+      <c r="E226" s="98"/>
+      <c r="F226" s="98"/>
+      <c r="G226" s="98"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="37">
@@ -6456,12 +6456,12 @@
         <v>255</v>
       </c>
       <c r="C227" s="6"/>
-      <c r="D227" s="104" t="s">
+      <c r="D227" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E227" s="104"/>
-      <c r="F227" s="104"/>
-      <c r="G227" s="104"/>
+      <c r="E227" s="98"/>
+      <c r="F227" s="98"/>
+      <c r="G227" s="98"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="37">
@@ -6471,12 +6471,12 @@
         <v>256</v>
       </c>
       <c r="C228" s="6"/>
-      <c r="D228" s="104" t="s">
+      <c r="D228" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="E228" s="104"/>
-      <c r="F228" s="104"/>
-      <c r="G228" s="104"/>
+      <c r="E228" s="98"/>
+      <c r="F228" s="98"/>
+      <c r="G228" s="98"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="37">
@@ -6486,12 +6486,12 @@
         <v>257</v>
       </c>
       <c r="C229" s="6"/>
-      <c r="D229" s="104" t="s">
+      <c r="D229" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="E229" s="104"/>
-      <c r="F229" s="104"/>
-      <c r="G229" s="104"/>
+      <c r="E229" s="98"/>
+      <c r="F229" s="98"/>
+      <c r="G229" s="98"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="37">
@@ -6501,12 +6501,12 @@
         <v>258</v>
       </c>
       <c r="C230" s="6"/>
-      <c r="D230" s="104" t="s">
+      <c r="D230" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="E230" s="104"/>
-      <c r="F230" s="104"/>
-      <c r="G230" s="104"/>
+      <c r="E230" s="98"/>
+      <c r="F230" s="98"/>
+      <c r="G230" s="98"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="37">
@@ -6516,12 +6516,12 @@
         <v>418</v>
       </c>
       <c r="C231" s="6"/>
-      <c r="D231" s="104" t="s">
+      <c r="D231" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="E231" s="104"/>
-      <c r="F231" s="104"/>
-      <c r="G231" s="104"/>
+      <c r="E231" s="98"/>
+      <c r="F231" s="98"/>
+      <c r="G231" s="98"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="37">
@@ -6531,12 +6531,12 @@
         <v>419</v>
       </c>
       <c r="C232" s="6"/>
-      <c r="D232" s="104" t="s">
+      <c r="D232" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="E232" s="104"/>
-      <c r="F232" s="104"/>
-      <c r="G232" s="104"/>
+      <c r="E232" s="98"/>
+      <c r="F232" s="98"/>
+      <c r="G232" s="98"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
@@ -6546,12 +6546,12 @@
         <v>420</v>
       </c>
       <c r="C233" s="6"/>
-      <c r="D233" s="104" t="s">
+      <c r="D233" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="E233" s="104"/>
-      <c r="F233" s="104"/>
-      <c r="G233" s="104"/>
+      <c r="E233" s="98"/>
+      <c r="F233" s="98"/>
+      <c r="G233" s="98"/>
     </row>
     <row r="237" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="50" t="s">
@@ -6576,12 +6576,12 @@
         <v>412</v>
       </c>
       <c r="C238" s="6"/>
-      <c r="D238" s="91" t="s">
+      <c r="D238" s="109" t="s">
         <v>426</v>
       </c>
-      <c r="E238" s="91"/>
-      <c r="F238" s="91"/>
-      <c r="G238" s="91"/>
+      <c r="E238" s="109"/>
+      <c r="F238" s="109"/>
+      <c r="G238" s="109"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
@@ -6591,12 +6591,12 @@
         <v>417</v>
       </c>
       <c r="C239" s="6"/>
-      <c r="D239" s="91" t="s">
+      <c r="D239" s="109" t="s">
         <v>427</v>
       </c>
-      <c r="E239" s="91"/>
-      <c r="F239" s="91"/>
-      <c r="G239" s="91"/>
+      <c r="E239" s="109"/>
+      <c r="F239" s="109"/>
+      <c r="G239" s="109"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
@@ -6606,12 +6606,12 @@
         <v>429</v>
       </c>
       <c r="C240" s="6"/>
-      <c r="D240" s="91" t="s">
+      <c r="D240" s="109" t="s">
         <v>534</v>
       </c>
-      <c r="E240" s="91"/>
-      <c r="F240" s="91"/>
-      <c r="G240" s="91"/>
+      <c r="E240" s="109"/>
+      <c r="F240" s="109"/>
+      <c r="G240" s="109"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="37">
@@ -6621,12 +6621,12 @@
         <v>430</v>
       </c>
       <c r="C241" s="6"/>
-      <c r="D241" s="91" t="s">
+      <c r="D241" s="109" t="s">
         <v>431</v>
       </c>
-      <c r="E241" s="91"/>
-      <c r="F241" s="91"/>
-      <c r="G241" s="91"/>
+      <c r="E241" s="109"/>
+      <c r="F241" s="109"/>
+      <c r="G241" s="109"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="37">
@@ -6636,12 +6636,12 @@
         <v>418</v>
       </c>
       <c r="C242" s="6"/>
-      <c r="D242" s="104" t="s">
+      <c r="D242" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="E242" s="104"/>
-      <c r="F242" s="104"/>
-      <c r="G242" s="104"/>
+      <c r="E242" s="98"/>
+      <c r="F242" s="98"/>
+      <c r="G242" s="98"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
@@ -6651,12 +6651,12 @@
         <v>420</v>
       </c>
       <c r="C243" s="6"/>
-      <c r="D243" s="104" t="s">
+      <c r="D243" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="E243" s="104"/>
-      <c r="F243" s="104"/>
-      <c r="G243" s="104"/>
+      <c r="E243" s="98"/>
+      <c r="F243" s="98"/>
+      <c r="G243" s="98"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="37">
@@ -6666,12 +6666,12 @@
         <v>243</v>
       </c>
       <c r="C244" s="6"/>
-      <c r="D244" s="104" t="s">
+      <c r="D244" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="E244" s="104"/>
-      <c r="F244" s="104"/>
-      <c r="G244" s="104"/>
+      <c r="E244" s="98"/>
+      <c r="F244" s="98"/>
+      <c r="G244" s="98"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="37">
@@ -6681,12 +6681,12 @@
         <v>244</v>
       </c>
       <c r="C245" s="6"/>
-      <c r="D245" s="104" t="s">
+      <c r="D245" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="E245" s="104"/>
-      <c r="F245" s="104"/>
-      <c r="G245" s="104"/>
+      <c r="E245" s="98"/>
+      <c r="F245" s="98"/>
+      <c r="G245" s="98"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="37">
@@ -6696,12 +6696,12 @@
         <v>245</v>
       </c>
       <c r="C246" s="6"/>
-      <c r="D246" s="104" t="s">
+      <c r="D246" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="E246" s="104"/>
-      <c r="F246" s="104"/>
-      <c r="G246" s="104"/>
+      <c r="E246" s="98"/>
+      <c r="F246" s="98"/>
+      <c r="G246" s="98"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="37">
@@ -6711,12 +6711,12 @@
         <v>246</v>
       </c>
       <c r="C247" s="6"/>
-      <c r="D247" s="104" t="s">
+      <c r="D247" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="E247" s="104"/>
-      <c r="F247" s="104"/>
-      <c r="G247" s="104"/>
+      <c r="E247" s="98"/>
+      <c r="F247" s="98"/>
+      <c r="G247" s="98"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="37">
@@ -6726,12 +6726,12 @@
         <v>247</v>
       </c>
       <c r="C248" s="6"/>
-      <c r="D248" s="104" t="s">
+      <c r="D248" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="E248" s="104"/>
-      <c r="F248" s="104"/>
-      <c r="G248" s="104"/>
+      <c r="E248" s="98"/>
+      <c r="F248" s="98"/>
+      <c r="G248" s="98"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="37">
@@ -6741,12 +6741,12 @@
         <v>253</v>
       </c>
       <c r="C249" s="6"/>
-      <c r="D249" s="104" t="s">
+      <c r="D249" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="E249" s="104"/>
-      <c r="F249" s="104"/>
-      <c r="G249" s="104"/>
+      <c r="E249" s="98"/>
+      <c r="F249" s="98"/>
+      <c r="G249" s="98"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="37">
@@ -6756,12 +6756,12 @@
         <v>254</v>
       </c>
       <c r="C250" s="6"/>
-      <c r="D250" s="104" t="s">
+      <c r="D250" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="E250" s="104"/>
-      <c r="F250" s="104"/>
-      <c r="G250" s="104"/>
+      <c r="E250" s="98"/>
+      <c r="F250" s="98"/>
+      <c r="G250" s="98"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="37">
@@ -6771,12 +6771,12 @@
         <v>255</v>
       </c>
       <c r="C251" s="6"/>
-      <c r="D251" s="104" t="s">
+      <c r="D251" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E251" s="104"/>
-      <c r="F251" s="104"/>
-      <c r="G251" s="104"/>
+      <c r="E251" s="98"/>
+      <c r="F251" s="98"/>
+      <c r="G251" s="98"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="37">
@@ -6786,12 +6786,12 @@
         <v>256</v>
       </c>
       <c r="C252" s="6"/>
-      <c r="D252" s="104" t="s">
+      <c r="D252" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="E252" s="104"/>
-      <c r="F252" s="104"/>
-      <c r="G252" s="104"/>
+      <c r="E252" s="98"/>
+      <c r="F252" s="98"/>
+      <c r="G252" s="98"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="37">
@@ -6801,12 +6801,12 @@
         <v>257</v>
       </c>
       <c r="C253" s="6"/>
-      <c r="D253" s="104" t="s">
+      <c r="D253" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="E253" s="104"/>
-      <c r="F253" s="104"/>
-      <c r="G253" s="104"/>
+      <c r="E253" s="98"/>
+      <c r="F253" s="98"/>
+      <c r="G253" s="98"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="37">
@@ -6816,21 +6816,21 @@
         <v>258</v>
       </c>
       <c r="C254" s="6"/>
-      <c r="D254" s="104" t="s">
+      <c r="D254" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="E254" s="104"/>
-      <c r="F254" s="104"/>
-      <c r="G254" s="104"/>
+      <c r="E254" s="98"/>
+      <c r="F254" s="98"/>
+      <c r="G254" s="98"/>
     </row>
     <row r="258" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="B258" s="92" t="s">
+      <c r="B258" s="91" t="s">
         <v>435</v>
       </c>
-      <c r="C258" s="92"/>
+      <c r="C258" s="91"/>
       <c r="D258" s="33" t="s">
         <v>7</v>
       </c>
@@ -6845,10 +6845,10 @@
       <c r="A259" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="B259" s="92" t="s">
+      <c r="B259" s="91" t="s">
         <v>436</v>
       </c>
-      <c r="C259" s="92"/>
+      <c r="C259" s="91"/>
       <c r="D259" s="33" t="s">
         <v>7</v>
       </c>
@@ -6863,10 +6863,10 @@
       <c r="A260" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="B260" s="92" t="s">
+      <c r="B260" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="C260" s="92"/>
+      <c r="C260" s="91"/>
       <c r="D260" s="33" t="s">
         <v>7</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="B261" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="C261" s="96"/>
+      <c r="C261" s="106"/>
       <c r="D261" s="33" t="s">
         <v>7</v>
       </c>
@@ -6896,14 +6896,14 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="106" t="s">
+      <c r="A262" s="108" t="s">
         <v>443</v>
       </c>
-      <c r="B262" s="106"/>
-      <c r="C262" s="106"/>
-      <c r="D262" s="106"/>
-      <c r="E262" s="106"/>
-      <c r="F262" s="106"/>
+      <c r="B262" s="108"/>
+      <c r="C262" s="108"/>
+      <c r="D262" s="108"/>
+      <c r="E262" s="108"/>
+      <c r="F262" s="108"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="51"/>
@@ -6943,10 +6943,10 @@
       <c r="A266" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="B266" s="92" t="s">
+      <c r="B266" s="91" t="s">
         <v>445</v>
       </c>
-      <c r="C266" s="92"/>
+      <c r="C266" s="91"/>
       <c r="D266" s="33" t="s">
         <v>7</v>
       </c>
@@ -6961,10 +6961,10 @@
       <c r="A267" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="B267" s="92" t="s">
+      <c r="B267" s="91" t="s">
         <v>446</v>
       </c>
-      <c r="C267" s="92"/>
+      <c r="C267" s="91"/>
       <c r="D267" s="33" t="s">
         <v>7</v>
       </c>
@@ -6979,10 +6979,10 @@
       <c r="A268" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="B268" s="92" t="s">
+      <c r="B268" s="91" t="s">
         <v>447</v>
       </c>
-      <c r="C268" s="92"/>
+      <c r="C268" s="91"/>
       <c r="D268" s="33" t="s">
         <v>7</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="B269" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="C269" s="96"/>
+      <c r="C269" s="106"/>
       <c r="D269" s="33" t="s">
         <v>7</v>
       </c>
@@ -7033,10 +7033,10 @@
       <c r="A271" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="B271" s="92" t="s">
+      <c r="B271" s="91" t="s">
         <v>455</v>
       </c>
-      <c r="C271" s="92"/>
+      <c r="C271" s="91"/>
       <c r="D271" s="33" t="s">
         <v>7</v>
       </c>
@@ -7051,10 +7051,10 @@
       <c r="A272" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="B272" s="92" t="s">
+      <c r="B272" s="91" t="s">
         <v>456</v>
       </c>
-      <c r="C272" s="92"/>
+      <c r="C272" s="91"/>
       <c r="D272" s="33" t="s">
         <v>7</v>
       </c>
@@ -7069,10 +7069,10 @@
       <c r="A273" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="B273" s="92" t="s">
+      <c r="B273" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="C273" s="92"/>
+      <c r="C273" s="91"/>
       <c r="D273" s="33" t="s">
         <v>7</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="B274" s="105" t="s">
         <v>458</v>
       </c>
-      <c r="C274" s="96"/>
+      <c r="C274" s="106"/>
       <c r="D274" s="33" t="s">
         <v>7</v>
       </c>
@@ -7123,10 +7123,10 @@
       <c r="A276" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="B276" s="92" t="s">
+      <c r="B276" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="C276" s="92"/>
+      <c r="C276" s="91"/>
       <c r="D276" s="33" t="s">
         <v>7</v>
       </c>
@@ -7141,10 +7141,10 @@
       <c r="A277" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B277" s="92" t="s">
+      <c r="B277" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="C277" s="92"/>
+      <c r="C277" s="91"/>
       <c r="D277" s="33" t="s">
         <v>7</v>
       </c>
@@ -7159,10 +7159,10 @@
       <c r="A278" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B278" s="92" t="s">
+      <c r="B278" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="C278" s="92"/>
+      <c r="C278" s="91"/>
       <c r="D278" s="33" t="s">
         <v>7</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="B279" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="C279" s="96"/>
+      <c r="C279" s="106"/>
       <c r="D279" s="33" t="s">
         <v>7</v>
       </c>
@@ -7192,21 +7192,21 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="108" t="s">
+      <c r="A280" s="102" t="s">
         <v>469</v>
       </c>
-      <c r="B280" s="109"/>
-      <c r="C280" s="109"/>
-      <c r="D280" s="109"/>
-      <c r="E280" s="109"/>
-      <c r="F280" s="110"/>
+      <c r="B280" s="103"/>
+      <c r="C280" s="103"/>
+      <c r="D280" s="103"/>
+      <c r="E280" s="103"/>
+      <c r="F280" s="104"/>
     </row>
     <row r="284" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="47"/>
-      <c r="B284" s="92" t="s">
+      <c r="B284" s="91" t="s">
         <v>475</v>
       </c>
-      <c r="C284" s="92"/>
+      <c r="C284" s="91"/>
       <c r="D284" s="33" t="s">
         <v>7</v>
       </c>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="285" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="47"/>
-      <c r="B285" s="92" t="s">
+      <c r="B285" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="C285" s="92"/>
+      <c r="C285" s="91"/>
       <c r="D285" s="33" t="s">
         <v>7</v>
       </c>
@@ -7235,10 +7235,10 @@
     </row>
     <row r="286" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="47"/>
-      <c r="B286" s="92" t="s">
+      <c r="B286" s="91" t="s">
         <v>480</v>
       </c>
-      <c r="C286" s="92"/>
+      <c r="C286" s="91"/>
       <c r="D286" s="33" t="s">
         <v>7</v>
       </c>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="287" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="47"/>
-      <c r="B287" s="92" t="s">
+      <c r="B287" s="91" t="s">
         <v>488</v>
       </c>
-      <c r="C287" s="92"/>
+      <c r="C287" s="91"/>
       <c r="D287" s="33" t="s">
         <v>7</v>
       </c>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="288" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="47"/>
-      <c r="B288" s="92" t="s">
+      <c r="B288" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="C288" s="92"/>
+      <c r="C288" s="91"/>
       <c r="D288" s="33" t="s">
         <v>7</v>
       </c>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="289" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="47"/>
-      <c r="B289" s="92" t="s">
+      <c r="B289" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="C289" s="92"/>
+      <c r="C289" s="91"/>
       <c r="D289" s="33" t="s">
         <v>7</v>
       </c>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="290" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="47"/>
-      <c r="B290" s="92" t="s">
+      <c r="B290" s="91" t="s">
         <v>492</v>
       </c>
-      <c r="C290" s="92"/>
+      <c r="C290" s="91"/>
       <c r="D290" s="33" t="s">
         <v>7</v>
       </c>
@@ -7321,11 +7321,11 @@
         <v>241</v>
       </c>
       <c r="C291" s="6"/>
-      <c r="D291" s="111" t="s">
+      <c r="D291" s="94" t="s">
         <v>479</v>
       </c>
-      <c r="E291" s="93"/>
-      <c r="F291" s="94"/>
+      <c r="E291" s="95"/>
+      <c r="F291" s="96"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="37">
@@ -7335,18 +7335,18 @@
         <v>476</v>
       </c>
       <c r="C292" s="6"/>
-      <c r="D292" s="104" t="s">
+      <c r="D292" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="E292" s="104"/>
-      <c r="F292" s="104"/>
+      <c r="E292" s="98"/>
+      <c r="F292" s="98"/>
     </row>
     <row r="296" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="47"/>
-      <c r="B296" s="92" t="s">
+      <c r="B296" s="91" t="s">
         <v>482</v>
       </c>
-      <c r="C296" s="92"/>
+      <c r="C296" s="91"/>
       <c r="D296" s="33" t="s">
         <v>7</v>
       </c>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="297" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="47"/>
-      <c r="B297" s="92" t="s">
+      <c r="B297" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="C297" s="92"/>
+      <c r="C297" s="91"/>
       <c r="D297" s="33" t="s">
         <v>7</v>
       </c>
@@ -7375,10 +7375,10 @@
     </row>
     <row r="298" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="47"/>
-      <c r="B298" s="92" t="s">
+      <c r="B298" s="91" t="s">
         <v>484</v>
       </c>
-      <c r="C298" s="92"/>
+      <c r="C298" s="91"/>
       <c r="D298" s="33" t="s">
         <v>7</v>
       </c>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="299" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="47"/>
-      <c r="B299" s="92" t="s">
+      <c r="B299" s="91" t="s">
         <v>486</v>
       </c>
-      <c r="C299" s="92"/>
+      <c r="C299" s="91"/>
       <c r="D299" s="33" t="s">
         <v>7</v>
       </c>
@@ -7407,10 +7407,10 @@
     </row>
     <row r="300" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="47"/>
-      <c r="B300" s="92" t="s">
+      <c r="B300" s="91" t="s">
         <v>487</v>
       </c>
-      <c r="C300" s="92"/>
+      <c r="C300" s="91"/>
       <c r="D300" s="54" t="s">
         <v>94</v>
       </c>
@@ -7423,10 +7423,10 @@
     </row>
     <row r="301" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="47"/>
-      <c r="B301" s="92" t="s">
+      <c r="B301" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C301" s="92"/>
+      <c r="C301" s="91"/>
       <c r="D301" s="33" t="s">
         <v>7</v>
       </c>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="302" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="47"/>
-      <c r="B302" s="92" t="s">
+      <c r="B302" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="C302" s="92"/>
+      <c r="C302" s="91"/>
       <c r="D302" s="33" t="s">
         <v>7</v>
       </c>
@@ -7455,10 +7455,10 @@
     </row>
     <row r="303" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="47"/>
-      <c r="B303" s="92" t="s">
+      <c r="B303" s="91" t="s">
         <v>493</v>
       </c>
-      <c r="C303" s="92"/>
+      <c r="C303" s="91"/>
       <c r="D303" s="33" t="s">
         <v>7</v>
       </c>
@@ -7477,11 +7477,11 @@
         <v>241</v>
       </c>
       <c r="C304" s="6"/>
-      <c r="D304" s="111" t="s">
+      <c r="D304" s="94" t="s">
         <v>485</v>
       </c>
-      <c r="E304" s="93"/>
-      <c r="F304" s="94"/>
+      <c r="E304" s="95"/>
+      <c r="F304" s="96"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="37">
@@ -7491,11 +7491,11 @@
         <v>476</v>
       </c>
       <c r="C305" s="6"/>
-      <c r="D305" s="114" t="s">
+      <c r="D305" s="97" t="s">
         <v>477</v>
       </c>
-      <c r="E305" s="114"/>
-      <c r="F305" s="114"/>
+      <c r="E305" s="97"/>
+      <c r="F305" s="97"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="37" t="s">
@@ -7505,132 +7505,103 @@
         <v>420</v>
       </c>
       <c r="C306" s="6"/>
-      <c r="D306" s="115" t="s">
+      <c r="D306" s="99" t="s">
         <v>533</v>
       </c>
-      <c r="E306" s="116"/>
-      <c r="F306" s="116"/>
-      <c r="G306" s="116"/>
-      <c r="H306" s="117"/>
+      <c r="E306" s="100"/>
+      <c r="F306" s="100"/>
+      <c r="G306" s="100"/>
+      <c r="H306" s="101"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D307" s="112"/>
-      <c r="E307" s="113"/>
-      <c r="F307" s="113"/>
-      <c r="G307" s="113"/>
-      <c r="H307" s="113"/>
-      <c r="I307" s="113"/>
-      <c r="J307" s="113"/>
-      <c r="K307" s="113"/>
+      <c r="D307" s="92"/>
+      <c r="E307" s="93"/>
+      <c r="F307" s="93"/>
+      <c r="G307" s="93"/>
+      <c r="H307" s="93"/>
+      <c r="I307" s="93"/>
+      <c r="J307" s="93"/>
+      <c r="K307" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="D307:K307"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D304:F304"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="D292:F292"/>
-    <mergeCell ref="D306:H306"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D252:G252"/>
-    <mergeCell ref="D253:G253"/>
-    <mergeCell ref="D254:G254"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D231:G231"/>
-    <mergeCell ref="D232:G232"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="D228:G228"/>
-    <mergeCell ref="D229:G229"/>
-    <mergeCell ref="D230:G230"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="D225:G225"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="D219:G219"/>
-    <mergeCell ref="D218:G218"/>
-    <mergeCell ref="D220:G220"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D215:G215"/>
-    <mergeCell ref="D216:G216"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="D196:G196"/>
-    <mergeCell ref="D197:G197"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D142:G142"/>
     <mergeCell ref="B178:C178"/>
     <mergeCell ref="A179:F179"/>
     <mergeCell ref="C107:G107"/>
@@ -7655,83 +7626,112 @@
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="D143:G143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="D194:G194"/>
+    <mergeCell ref="D195:G195"/>
+    <mergeCell ref="D196:G196"/>
+    <mergeCell ref="D197:G197"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="D218:G218"/>
+    <mergeCell ref="D220:G220"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D231:G231"/>
+    <mergeCell ref="D232:G232"/>
+    <mergeCell ref="D233:G233"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="D228:G228"/>
+    <mergeCell ref="D229:G229"/>
+    <mergeCell ref="D230:G230"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D252:G252"/>
+    <mergeCell ref="D253:G253"/>
+    <mergeCell ref="D254:G254"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D307:K307"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D306:H306"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SVD_Files/RST_VE8x.xlsx
+++ b/SVD_Files/RST_VE8x.xlsx
@@ -2067,114 +2067,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2182,54 +2230,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2553,51 +2553,51 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2606,88 +2606,88 @@
       <c r="B8" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="75"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2696,60 +2696,60 @@
       <c r="B17" s="61" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="73"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="73"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="75"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2758,98 +2758,98 @@
       <c r="B23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="73"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="73"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="73"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -2858,18 +2858,18 @@
       <c r="B33" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2895,11 +2895,11 @@
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -2908,98 +2908,98 @@
       <c r="B38" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="65"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="71"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="73"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="73"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="73"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="82"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="75"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3009,7 +3009,7 @@
         <v>187</v>
       </c>
       <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
+      <c r="D48" s="63"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3018,8 +3018,8 @@
       <c r="B49" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="67"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -3028,8 +3028,8 @@
       <c r="B50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="67"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3038,8 +3038,8 @@
       <c r="B51" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -3048,8 +3048,8 @@
       <c r="B52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="67"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3058,8 +3058,8 @@
       <c r="B53" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="67"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -3068,8 +3068,8 @@
       <c r="B54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="67"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3078,8 +3078,8 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="67"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3088,8 +3088,8 @@
       <c r="B56" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="67"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3098,8 +3098,8 @@
       <c r="B57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="67"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -3108,8 +3108,8 @@
       <c r="B58" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="67"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3118,8 +3118,8 @@
       <c r="B59" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -3128,8 +3128,8 @@
       <c r="B60" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="67"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3138,8 +3138,8 @@
       <c r="B61" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="67"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -3148,8 +3148,8 @@
       <c r="B62" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="67"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3158,8 +3158,8 @@
       <c r="B63" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="67"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -3168,8 +3168,8 @@
       <c r="B64" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="67"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3178,8 +3178,8 @@
       <c r="B65" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="67"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="65"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3188,8 +3188,8 @@
       <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="67"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3198,8 +3198,8 @@
       <c r="B67" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="67"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
@@ -3208,8 +3208,8 @@
       <c r="B68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="67"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
@@ -3218,8 +3218,8 @@
       <c r="B69" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="67"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
@@ -3228,8 +3228,8 @@
       <c r="B70" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="67"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3238,8 +3238,8 @@
       <c r="B71" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="67"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="65"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -3248,8 +3248,8 @@
       <c r="B72" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="70"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -3289,7 +3289,7 @@
       <c r="C75" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="64"/>
+      <c r="D75" s="63"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -3298,8 +3298,8 @@
       <c r="B76" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C76" s="65"/>
-      <c r="D76" s="67"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3308,8 +3308,8 @@
       <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="67"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -3318,8 +3318,8 @@
       <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="68"/>
-      <c r="D78" s="70"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -3328,10 +3328,10 @@
       <c r="B79" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="74" t="s">
+      <c r="C79" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="76"/>
+      <c r="D79" s="71"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3340,7 +3340,7 @@
       <c r="B80" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="72" t="s">
         <v>201</v>
       </c>
       <c r="D80" s="73"/>
@@ -3352,7 +3352,7 @@
       <c r="B81" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="71" t="s">
+      <c r="C81" s="72" t="s">
         <v>202</v>
       </c>
       <c r="D81" s="73"/>
@@ -3364,10 +3364,10 @@
       <c r="B82" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="74" t="s">
         <v>514</v>
       </c>
-      <c r="D82" s="82"/>
+      <c r="D82" s="75"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -3484,10 +3484,10 @@
       <c r="A97" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="77" t="s">
+      <c r="C97" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="79"/>
+      <c r="D97" s="69"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -3517,16 +3517,16 @@
       <c r="C101" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="64"/>
+      <c r="D101" s="63"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="68" t="s">
+      <c r="C102" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="D102" s="70"/>
+      <c r="D102" s="67"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -3552,10 +3552,10 @@
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="77" t="s">
+      <c r="C107" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="79"/>
+      <c r="D107" s="69"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -3649,10 +3649,10 @@
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="77" t="s">
+      <c r="C118" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="79"/>
+      <c r="D118" s="69"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -3705,28 +3705,26 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C75:D78"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C48:D72"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B25:D25"/>
@@ -3741,26 +3739,28 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C48:D72"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C75:D78"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144:G144"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,12 +3791,12 @@
         <v>217</v>
       </c>
       <c r="C2" s="35"/>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -3806,12 +3806,12 @@
         <v>217</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -3842,11 +3842,11 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
@@ -3854,11 +3854,11 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
@@ -3866,11 +3866,11 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -3878,11 +3878,11 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -3890,11 +3890,11 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -3902,11 +3902,11 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -3914,11 +3914,11 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
@@ -3926,11 +3926,11 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -3938,11 +3938,11 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
@@ -3950,11 +3950,11 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -3962,11 +3962,11 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
     </row>
     <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
@@ -3976,10 +3976,10 @@
         <v>239</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="106"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
@@ -3989,12 +3989,12 @@
         <v>241</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
@@ -4004,12 +4004,12 @@
         <v>243</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
@@ -4019,12 +4019,12 @@
         <v>244</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
@@ -4034,12 +4034,12 @@
         <v>245</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
@@ -4049,12 +4049,12 @@
         <v>246</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
@@ -4064,12 +4064,12 @@
         <v>247</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
@@ -4079,12 +4079,12 @@
         <v>253</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
@@ -4094,12 +4094,12 @@
         <v>254</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
@@ -4109,12 +4109,12 @@
         <v>255</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
@@ -4124,12 +4124,12 @@
         <v>256</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
@@ -4139,12 +4139,12 @@
         <v>257</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
@@ -4154,12 +4154,12 @@
         <v>258</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
     </row>
     <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="109" t="s">
+      <c r="D49" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
@@ -4339,11 +4339,11 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="109" t="s">
+      <c r="D50" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="109" t="s">
+      <c r="D51" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
@@ -4363,11 +4363,11 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
@@ -4376,10 +4376,10 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="109" t="s">
+      <c r="E53" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="F53" s="109"/>
+      <c r="F53" s="91"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
@@ -4420,10 +4420,10 @@
       <c r="D57" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="109" t="s">
+      <c r="E57" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="109"/>
+      <c r="F57" s="91"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
@@ -4448,10 +4448,10 @@
       <c r="D59" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="E59" s="109" t="s">
+      <c r="E59" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="109"/>
+      <c r="F59" s="91"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
@@ -4462,10 +4462,10 @@
       <c r="D60" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="109" t="s">
+      <c r="E60" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="F60" s="109"/>
+      <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
@@ -4476,10 +4476,10 @@
       <c r="D61" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="E61" s="109" t="s">
+      <c r="E61" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F61" s="109"/>
+      <c r="F61" s="91"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
@@ -4490,10 +4490,10 @@
       <c r="D62" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="109" t="s">
+      <c r="E62" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="F62" s="109"/>
+      <c r="F62" s="91"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
@@ -4504,8 +4504,8 @@
       <c r="D63" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
@@ -4516,8 +4516,8 @@
       <c r="D64" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
@@ -4528,10 +4528,10 @@
       <c r="D65" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="E65" s="109" t="s">
+      <c r="E65" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="F65" s="109"/>
+      <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
@@ -4556,8 +4556,8 @@
       <c r="D67" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
     </row>
     <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
@@ -4586,8 +4586,8 @@
       <c r="D71" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
@@ -4598,8 +4598,8 @@
       <c r="D72" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
@@ -4610,10 +4610,10 @@
       <c r="D73" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="E73" s="109" t="s">
+      <c r="E73" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="109"/>
+      <c r="F73" s="91"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
@@ -4666,10 +4666,10 @@
       <c r="D77" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="109" t="s">
+      <c r="E77" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="F77" s="109"/>
+      <c r="F77" s="91"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
@@ -4680,10 +4680,10 @@
       <c r="D78" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="E78" s="109" t="s">
+      <c r="E78" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F78" s="109"/>
+      <c r="F78" s="91"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
@@ -4694,8 +4694,8 @@
       <c r="D79" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E79" s="109"/>
-      <c r="F79" s="109"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
@@ -4706,8 +4706,8 @@
       <c r="D80" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="E80" s="109"/>
-      <c r="F80" s="109"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
@@ -4718,8 +4718,8 @@
       <c r="D81" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
@@ -4830,10 +4830,10 @@
       <c r="D90" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="109" t="s">
+      <c r="E90" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="F90" s="109"/>
+      <c r="F90" s="91"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
@@ -4856,10 +4856,10 @@
       <c r="D92" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="E92" s="109" t="s">
+      <c r="E92" s="91" t="s">
         <v>496</v>
       </c>
-      <c r="F92" s="109"/>
+      <c r="F92" s="91"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
@@ -4940,8 +4940,8 @@
       <c r="D98" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="109"/>
-      <c r="F98" s="109"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
@@ -5025,13 +5025,13 @@
       <c r="B107" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C107" s="109" t="s">
+      <c r="C107" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
-      <c r="F107" s="109"/>
-      <c r="G107" s="109"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
@@ -5040,13 +5040,13 @@
       <c r="B108" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="109" t="s">
+      <c r="C108" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="D108" s="109"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="109"/>
-      <c r="G108" s="109"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="91"/>
     </row>
     <row r="109" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
@@ -5072,30 +5072,30 @@
         <v>240</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="D110" s="109"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="109"/>
-      <c r="G110" s="109"/>
+        <v>330</v>
+      </c>
+      <c r="C110" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="91"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="91"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
         <v>322</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C111" s="109" t="s">
-        <v>332</v>
-      </c>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="109"/>
+        <v>329</v>
+      </c>
+      <c r="C111" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" s="91"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="91"/>
     </row>
     <row r="115" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
@@ -5123,13 +5123,13 @@
       <c r="B116" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C116" s="98" t="s">
+      <c r="C116" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="98"/>
-      <c r="E116" s="98"/>
-      <c r="F116" s="98"/>
-      <c r="G116" s="98"/>
+      <c r="D116" s="104"/>
+      <c r="E116" s="104"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="104"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
@@ -5138,13 +5138,13 @@
       <c r="B117" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C117" s="98" t="s">
+      <c r="C117" s="104" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="98"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="98"/>
+      <c r="D117" s="104"/>
+      <c r="E117" s="104"/>
+      <c r="F117" s="104"/>
+      <c r="G117" s="104"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
@@ -5153,13 +5153,13 @@
       <c r="B118" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C118" s="98" t="s">
+      <c r="C118" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="98"/>
-      <c r="E118" s="98"/>
-      <c r="F118" s="98"/>
-      <c r="G118" s="98"/>
+      <c r="D118" s="104"/>
+      <c r="E118" s="104"/>
+      <c r="F118" s="104"/>
+      <c r="G118" s="104"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
@@ -5168,40 +5168,40 @@
       <c r="B119" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C119" s="98" t="s">
+      <c r="C119" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D119" s="98"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="98"/>
+      <c r="D119" s="104"/>
+      <c r="E119" s="104"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="104"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="110" t="s">
+      <c r="C120" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="D120" s="110"/>
-      <c r="E120" s="110"/>
-      <c r="F120" s="110"/>
-      <c r="G120" s="110"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="103"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="103"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="110" t="s">
+      <c r="C121" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="D121" s="110"/>
-      <c r="E121" s="110"/>
-      <c r="F121" s="110"/>
-      <c r="G121" s="110"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="103"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="103"/>
     </row>
     <row r="125" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="91" t="s">
+      <c r="B125" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="91"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="33" t="s">
         <v>7</v>
       </c>
@@ -5221,12 +5221,12 @@
         <v>351</v>
       </c>
       <c r="C126" s="6"/>
-      <c r="D126" s="98" t="s">
+      <c r="D126" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="E126" s="98"/>
-      <c r="F126" s="98"/>
-      <c r="G126" s="98"/>
+      <c r="E126" s="104"/>
+      <c r="F126" s="104"/>
+      <c r="G126" s="104"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
@@ -5236,12 +5236,12 @@
         <v>352</v>
       </c>
       <c r="C127" s="41"/>
-      <c r="D127" s="98" t="s">
+      <c r="D127" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="E127" s="98"/>
-      <c r="F127" s="98"/>
-      <c r="G127" s="98"/>
+      <c r="E127" s="104"/>
+      <c r="F127" s="104"/>
+      <c r="G127" s="104"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="37">
@@ -5251,12 +5251,12 @@
         <v>357</v>
       </c>
       <c r="C128" s="41"/>
-      <c r="D128" s="98" t="s">
+      <c r="D128" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E128" s="98"/>
-      <c r="F128" s="98"/>
-      <c r="G128" s="98"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="37">
@@ -5266,12 +5266,12 @@
         <v>356</v>
       </c>
       <c r="C129" s="41"/>
-      <c r="D129" s="98" t="s">
+      <c r="D129" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E129" s="98"/>
-      <c r="F129" s="98"/>
-      <c r="G129" s="98"/>
+      <c r="E129" s="104"/>
+      <c r="F129" s="104"/>
+      <c r="G129" s="104"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
@@ -5281,12 +5281,12 @@
         <v>358</v>
       </c>
       <c r="C130" s="41"/>
-      <c r="D130" s="98" t="s">
+      <c r="D130" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E130" s="98"/>
-      <c r="F130" s="98"/>
-      <c r="G130" s="98"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="104"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="37">
@@ -5296,12 +5296,12 @@
         <v>359</v>
       </c>
       <c r="C131" s="41"/>
-      <c r="D131" s="98" t="s">
+      <c r="D131" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E131" s="98"/>
-      <c r="F131" s="98"/>
-      <c r="G131" s="98"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="104"/>
     </row>
     <row r="135" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
@@ -5311,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="35"/>
-      <c r="D135" s="91"/>
-      <c r="E135" s="91"/>
-      <c r="F135" s="91"/>
-      <c r="G135" s="91"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="92"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
@@ -5324,10 +5324,10 @@
         <v>94</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="98"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="98"/>
-      <c r="G136" s="98"/>
+      <c r="D136" s="104"/>
+      <c r="E136" s="104"/>
+      <c r="F136" s="104"/>
+      <c r="G136" s="104"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="37">
@@ -5337,12 +5337,12 @@
         <v>243</v>
       </c>
       <c r="C137" s="6"/>
-      <c r="D137" s="98" t="s">
+      <c r="D137" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E137" s="98"/>
-      <c r="F137" s="98"/>
-      <c r="G137" s="98"/>
+      <c r="E137" s="104"/>
+      <c r="F137" s="104"/>
+      <c r="G137" s="104"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="37">
@@ -5352,12 +5352,12 @@
         <v>244</v>
       </c>
       <c r="C138" s="6"/>
-      <c r="D138" s="98" t="s">
+      <c r="D138" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E138" s="98"/>
-      <c r="F138" s="98"/>
-      <c r="G138" s="98"/>
+      <c r="E138" s="104"/>
+      <c r="F138" s="104"/>
+      <c r="G138" s="104"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
@@ -5367,12 +5367,12 @@
         <v>245</v>
       </c>
       <c r="C139" s="6"/>
-      <c r="D139" s="98" t="s">
+      <c r="D139" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E139" s="98"/>
-      <c r="F139" s="98"/>
-      <c r="G139" s="98"/>
+      <c r="E139" s="104"/>
+      <c r="F139" s="104"/>
+      <c r="G139" s="104"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="37">
@@ -5382,12 +5382,12 @@
         <v>246</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="98" t="s">
+      <c r="D140" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E140" s="98"/>
-      <c r="F140" s="98"/>
-      <c r="G140" s="98"/>
+      <c r="E140" s="104"/>
+      <c r="F140" s="104"/>
+      <c r="G140" s="104"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="37">
@@ -5397,12 +5397,12 @@
         <v>247</v>
       </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="98" t="s">
+      <c r="D141" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E141" s="98"/>
-      <c r="F141" s="98"/>
-      <c r="G141" s="98"/>
+      <c r="E141" s="104"/>
+      <c r="F141" s="104"/>
+      <c r="G141" s="104"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
@@ -5412,12 +5412,12 @@
         <v>253</v>
       </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="98" t="s">
+      <c r="D142" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E142" s="98"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98"/>
+      <c r="E142" s="104"/>
+      <c r="F142" s="104"/>
+      <c r="G142" s="104"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
@@ -5427,12 +5427,12 @@
         <v>254</v>
       </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="98" t="s">
+      <c r="D143" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="E143" s="98"/>
-      <c r="F143" s="98"/>
-      <c r="G143" s="98"/>
+      <c r="E143" s="104"/>
+      <c r="F143" s="104"/>
+      <c r="G143" s="104"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
@@ -5442,12 +5442,12 @@
         <v>255</v>
       </c>
       <c r="C144" s="6"/>
-      <c r="D144" s="98" t="s">
+      <c r="D144" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E144" s="98"/>
-      <c r="F144" s="98"/>
-      <c r="G144" s="98"/>
+      <c r="E144" s="104"/>
+      <c r="F144" s="104"/>
+      <c r="G144" s="104"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
@@ -5457,12 +5457,12 @@
         <v>256</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="98" t="s">
+      <c r="D145" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E145" s="98"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="98"/>
+      <c r="E145" s="104"/>
+      <c r="F145" s="104"/>
+      <c r="G145" s="104"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
@@ -5472,12 +5472,12 @@
         <v>257</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="98" t="s">
+      <c r="D146" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E146" s="98"/>
-      <c r="F146" s="98"/>
-      <c r="G146" s="98"/>
+      <c r="E146" s="104"/>
+      <c r="F146" s="104"/>
+      <c r="G146" s="104"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
@@ -5487,12 +5487,12 @@
         <v>258</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="98" t="s">
+      <c r="D147" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E147" s="98"/>
-      <c r="F147" s="98"/>
-      <c r="G147" s="98"/>
+      <c r="E147" s="104"/>
+      <c r="F147" s="104"/>
+      <c r="G147" s="104"/>
     </row>
     <row r="151" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
@@ -5501,7 +5501,7 @@
       <c r="B151" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="C151" s="106"/>
+      <c r="C151" s="96"/>
       <c r="D151" s="33" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="B152" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="C152" s="106"/>
+      <c r="C152" s="96"/>
       <c r="D152" s="33" t="s">
         <v>7</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="B153" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="106"/>
+      <c r="C153" s="96"/>
       <c r="D153" s="33" t="s">
         <v>7</v>
       </c>
@@ -5549,23 +5549,23 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="108" t="s">
+      <c r="A154" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B154" s="108"/>
-      <c r="C154" s="108"/>
-      <c r="D154" s="108"/>
-      <c r="E154" s="108"/>
-      <c r="F154" s="108"/>
+      <c r="B154" s="106"/>
+      <c r="C154" s="106"/>
+      <c r="D154" s="106"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="106"/>
     </row>
     <row r="156" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B156" s="91" t="s">
+      <c r="B156" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="C156" s="91"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="33" t="s">
         <v>7</v>
       </c>
@@ -5584,11 +5584,11 @@
         <v>351</v>
       </c>
       <c r="C157" s="6"/>
-      <c r="D157" s="98" t="s">
+      <c r="D157" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="E157" s="98"/>
-      <c r="F157" s="98"/>
+      <c r="E157" s="104"/>
+      <c r="F157" s="104"/>
       <c r="G157" s="36"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,11 +5599,11 @@
         <v>352</v>
       </c>
       <c r="C158" s="41"/>
-      <c r="D158" s="98" t="s">
+      <c r="D158" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="E158" s="98"/>
-      <c r="F158" s="98"/>
+      <c r="E158" s="104"/>
+      <c r="F158" s="104"/>
       <c r="G158" s="36"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5614,11 +5614,11 @@
         <v>357</v>
       </c>
       <c r="C159" s="41"/>
-      <c r="D159" s="98" t="s">
+      <c r="D159" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E159" s="98"/>
-      <c r="F159" s="98"/>
+      <c r="E159" s="104"/>
+      <c r="F159" s="104"/>
       <c r="G159" s="36"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,11 +5629,11 @@
         <v>356</v>
       </c>
       <c r="C160" s="41"/>
-      <c r="D160" s="98" t="s">
+      <c r="D160" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E160" s="98"/>
-      <c r="F160" s="98"/>
+      <c r="E160" s="104"/>
+      <c r="F160" s="104"/>
       <c r="G160" s="36"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,11 +5644,11 @@
         <v>358</v>
       </c>
       <c r="C161" s="41"/>
-      <c r="D161" s="98" t="s">
+      <c r="D161" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="98"/>
-      <c r="F161" s="98"/>
+      <c r="E161" s="104"/>
+      <c r="F161" s="104"/>
       <c r="G161" s="36"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,11 +5659,11 @@
         <v>359</v>
       </c>
       <c r="C162" s="41"/>
-      <c r="D162" s="98" t="s">
+      <c r="D162" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E162" s="98"/>
-      <c r="F162" s="98"/>
+      <c r="E162" s="104"/>
+      <c r="F162" s="104"/>
       <c r="G162" s="36"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,11 +5674,11 @@
         <v>366</v>
       </c>
       <c r="C163" s="41"/>
-      <c r="D163" s="98" t="s">
+      <c r="D163" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="E163" s="98"/>
-      <c r="F163" s="98"/>
+      <c r="E163" s="104"/>
+      <c r="F163" s="104"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,10 +5703,10 @@
       <c r="A168" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="B168" s="91" t="s">
+      <c r="B168" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="91"/>
+      <c r="C168" s="92"/>
       <c r="D168" s="33" t="s">
         <v>7</v>
       </c>
@@ -5728,10 +5728,10 @@
       <c r="D169" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="77" t="s">
+      <c r="E169" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="F169" s="79"/>
+      <c r="F169" s="69"/>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,7 +5759,7 @@
       <c r="B174" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C174" s="106"/>
+      <c r="C174" s="96"/>
       <c r="D174" s="33" t="s">
         <v>7</v>
       </c>
@@ -5774,10 +5774,10 @@
       <c r="A175" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="B175" s="91" t="s">
+      <c r="B175" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="C175" s="91"/>
+      <c r="C175" s="92"/>
       <c r="D175" s="33" t="s">
         <v>7</v>
       </c>
@@ -5792,10 +5792,10 @@
       <c r="A176" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="B176" s="91" t="s">
+      <c r="B176" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="C176" s="91"/>
+      <c r="C176" s="92"/>
       <c r="D176" s="33" t="s">
         <v>7</v>
       </c>
@@ -5810,10 +5810,10 @@
       <c r="A177" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="B177" s="91" t="s">
+      <c r="B177" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="C177" s="91"/>
+      <c r="C177" s="92"/>
       <c r="D177" s="33" t="s">
         <v>7</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="B178" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="C178" s="106"/>
+      <c r="C178" s="96"/>
       <c r="D178" s="33" t="s">
         <v>7</v>
       </c>
@@ -5843,14 +5843,14 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="108" t="s">
+      <c r="A179" s="106" t="s">
         <v>509</v>
       </c>
-      <c r="B179" s="108"/>
-      <c r="C179" s="108"/>
-      <c r="D179" s="108"/>
-      <c r="E179" s="108"/>
-      <c r="F179" s="108"/>
+      <c r="B179" s="106"/>
+      <c r="C179" s="106"/>
+      <c r="D179" s="106"/>
+      <c r="E179" s="106"/>
+      <c r="F179" s="106"/>
     </row>
     <row r="183" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
@@ -5860,10 +5860,10 @@
         <v>13</v>
       </c>
       <c r="C183" s="35"/>
-      <c r="D183" s="91"/>
-      <c r="E183" s="91"/>
-      <c r="F183" s="91"/>
-      <c r="G183" s="91"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="92"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
@@ -5873,10 +5873,10 @@
         <v>94</v>
       </c>
       <c r="C184" s="6"/>
-      <c r="D184" s="98"/>
-      <c r="E184" s="98"/>
-      <c r="F184" s="98"/>
-      <c r="G184" s="98"/>
+      <c r="D184" s="104"/>
+      <c r="E184" s="104"/>
+      <c r="F184" s="104"/>
+      <c r="G184" s="104"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="37">
@@ -5886,12 +5886,12 @@
         <v>243</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="98" t="s">
+      <c r="D185" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E185" s="98"/>
-      <c r="F185" s="98"/>
-      <c r="G185" s="98"/>
+      <c r="E185" s="104"/>
+      <c r="F185" s="104"/>
+      <c r="G185" s="104"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="37">
@@ -5901,12 +5901,12 @@
         <v>244</v>
       </c>
       <c r="C186" s="6"/>
-      <c r="D186" s="98" t="s">
+      <c r="D186" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E186" s="98"/>
-      <c r="F186" s="98"/>
-      <c r="G186" s="98"/>
+      <c r="E186" s="104"/>
+      <c r="F186" s="104"/>
+      <c r="G186" s="104"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="37">
@@ -5916,12 +5916,12 @@
         <v>245</v>
       </c>
       <c r="C187" s="6"/>
-      <c r="D187" s="98" t="s">
+      <c r="D187" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E187" s="98"/>
-      <c r="F187" s="98"/>
-      <c r="G187" s="98"/>
+      <c r="E187" s="104"/>
+      <c r="F187" s="104"/>
+      <c r="G187" s="104"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="37">
@@ -5931,12 +5931,12 @@
         <v>246</v>
       </c>
       <c r="C188" s="6"/>
-      <c r="D188" s="98" t="s">
+      <c r="D188" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E188" s="98"/>
-      <c r="F188" s="98"/>
-      <c r="G188" s="98"/>
+      <c r="E188" s="104"/>
+      <c r="F188" s="104"/>
+      <c r="G188" s="104"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="37">
@@ -5946,12 +5946,12 @@
         <v>247</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="98" t="s">
+      <c r="D189" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E189" s="98"/>
-      <c r="F189" s="98"/>
-      <c r="G189" s="98"/>
+      <c r="E189" s="104"/>
+      <c r="F189" s="104"/>
+      <c r="G189" s="104"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="37">
@@ -5961,12 +5961,12 @@
         <v>253</v>
       </c>
       <c r="C190" s="6"/>
-      <c r="D190" s="98" t="s">
+      <c r="D190" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E190" s="98"/>
-      <c r="F190" s="98"/>
-      <c r="G190" s="98"/>
+      <c r="E190" s="104"/>
+      <c r="F190" s="104"/>
+      <c r="G190" s="104"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="37">
@@ -5976,12 +5976,12 @@
         <v>254</v>
       </c>
       <c r="C191" s="6"/>
-      <c r="D191" s="98" t="s">
+      <c r="D191" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="E191" s="98"/>
-      <c r="F191" s="98"/>
-      <c r="G191" s="98"/>
+      <c r="E191" s="104"/>
+      <c r="F191" s="104"/>
+      <c r="G191" s="104"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
@@ -5991,12 +5991,12 @@
         <v>255</v>
       </c>
       <c r="C192" s="6"/>
-      <c r="D192" s="98" t="s">
+      <c r="D192" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E192" s="98"/>
-      <c r="F192" s="98"/>
-      <c r="G192" s="98"/>
+      <c r="E192" s="104"/>
+      <c r="F192" s="104"/>
+      <c r="G192" s="104"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="37">
@@ -6006,12 +6006,12 @@
         <v>256</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="98" t="s">
+      <c r="D193" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E193" s="98"/>
-      <c r="F193" s="98"/>
-      <c r="G193" s="98"/>
+      <c r="E193" s="104"/>
+      <c r="F193" s="104"/>
+      <c r="G193" s="104"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="37">
@@ -6021,12 +6021,12 @@
         <v>257</v>
       </c>
       <c r="C194" s="6"/>
-      <c r="D194" s="98" t="s">
+      <c r="D194" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E194" s="98"/>
-      <c r="F194" s="98"/>
-      <c r="G194" s="98"/>
+      <c r="E194" s="104"/>
+      <c r="F194" s="104"/>
+      <c r="G194" s="104"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="37">
@@ -6036,12 +6036,12 @@
         <v>258</v>
       </c>
       <c r="C195" s="6"/>
-      <c r="D195" s="98" t="s">
+      <c r="D195" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E195" s="98"/>
-      <c r="F195" s="98"/>
-      <c r="G195" s="98"/>
+      <c r="E195" s="104"/>
+      <c r="F195" s="104"/>
+      <c r="G195" s="104"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="37">
@@ -6051,12 +6051,12 @@
         <v>388</v>
       </c>
       <c r="C196" s="6"/>
-      <c r="D196" s="98" t="s">
+      <c r="D196" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E196" s="98"/>
-      <c r="F196" s="98"/>
-      <c r="G196" s="98"/>
+      <c r="E196" s="104"/>
+      <c r="F196" s="104"/>
+      <c r="G196" s="104"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="37">
@@ -6066,12 +6066,12 @@
         <v>389</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="98" t="s">
+      <c r="D197" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E197" s="98"/>
-      <c r="F197" s="98"/>
-      <c r="G197" s="98"/>
+      <c r="E197" s="104"/>
+      <c r="F197" s="104"/>
+      <c r="G197" s="104"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="37">
@@ -6081,21 +6081,21 @@
         <v>390</v>
       </c>
       <c r="C198" s="6"/>
-      <c r="D198" s="98" t="s">
+      <c r="D198" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E198" s="98"/>
-      <c r="F198" s="98"/>
-      <c r="G198" s="98"/>
+      <c r="E198" s="104"/>
+      <c r="F198" s="104"/>
+      <c r="G198" s="104"/>
     </row>
     <row r="201" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="B201" s="91" t="s">
+      <c r="B201" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="C201" s="91"/>
+      <c r="C201" s="92"/>
       <c r="D201" s="33" t="s">
         <v>7</v>
       </c>
@@ -6110,10 +6110,10 @@
       <c r="A202" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="B202" s="91" t="s">
+      <c r="B202" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="C202" s="91"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="33" t="s">
         <v>7</v>
       </c>
@@ -6128,10 +6128,10 @@
       <c r="A203" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="91" t="s">
+      <c r="B203" s="92" t="s">
         <v>400</v>
       </c>
-      <c r="C203" s="91"/>
+      <c r="C203" s="92"/>
       <c r="D203" s="33" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="B204" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="C204" s="106"/>
+      <c r="C204" s="96"/>
       <c r="D204" s="33" t="s">
         <v>7</v>
       </c>
@@ -6161,14 +6161,14 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="108" t="s">
+      <c r="A205" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="108"/>
-      <c r="C205" s="108"/>
-      <c r="D205" s="108"/>
-      <c r="E205" s="108"/>
-      <c r="F205" s="108"/>
+      <c r="B205" s="106"/>
+      <c r="C205" s="106"/>
+      <c r="D205" s="106"/>
+      <c r="E205" s="106"/>
+      <c r="F205" s="106"/>
     </row>
     <row r="207" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="47" t="s">
@@ -6177,7 +6177,7 @@
       <c r="B207" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="C207" s="106"/>
+      <c r="C207" s="96"/>
       <c r="D207" s="33" t="s">
         <v>7</v>
       </c>
@@ -6192,10 +6192,10 @@
       <c r="A208" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="B208" s="91" t="s">
+      <c r="B208" s="92" t="s">
         <v>402</v>
       </c>
-      <c r="C208" s="91"/>
+      <c r="C208" s="92"/>
       <c r="D208" s="33" t="s">
         <v>7</v>
       </c>
@@ -6210,10 +6210,10 @@
       <c r="A209" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="B209" s="91" t="s">
+      <c r="B209" s="92" t="s">
         <v>403</v>
       </c>
-      <c r="C209" s="91"/>
+      <c r="C209" s="92"/>
       <c r="D209" s="33" t="s">
         <v>7</v>
       </c>
@@ -6228,10 +6228,10 @@
       <c r="A210" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="B210" s="91" t="s">
+      <c r="B210" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="C210" s="91"/>
+      <c r="C210" s="92"/>
       <c r="D210" s="33" t="s">
         <v>7</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="B211" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="106"/>
+      <c r="C211" s="96"/>
       <c r="D211" s="33" t="s">
         <v>7</v>
       </c>
@@ -6261,14 +6261,14 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="108" t="s">
+      <c r="A212" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="B212" s="108"/>
-      <c r="C212" s="108"/>
-      <c r="D212" s="108"/>
-      <c r="E212" s="108"/>
-      <c r="F212" s="108"/>
+      <c r="B212" s="106"/>
+      <c r="C212" s="106"/>
+      <c r="D212" s="106"/>
+      <c r="E212" s="106"/>
+      <c r="F212" s="106"/>
     </row>
     <row r="215" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="50" t="s">
@@ -6293,12 +6293,12 @@
         <v>412</v>
       </c>
       <c r="C216" s="6"/>
-      <c r="D216" s="77" t="s">
+      <c r="D216" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="E216" s="78"/>
-      <c r="F216" s="78"/>
-      <c r="G216" s="79"/>
+      <c r="E216" s="90"/>
+      <c r="F216" s="90"/>
+      <c r="G216" s="69"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="37">
@@ -6308,12 +6308,12 @@
         <v>429</v>
       </c>
       <c r="C217" s="6"/>
-      <c r="D217" s="109" t="s">
+      <c r="D217" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="E217" s="109"/>
-      <c r="F217" s="109"/>
-      <c r="G217" s="109"/>
+      <c r="E217" s="91"/>
+      <c r="F217" s="91"/>
+      <c r="G217" s="91"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
@@ -6323,10 +6323,10 @@
         <v>94</v>
       </c>
       <c r="C218" s="6"/>
-      <c r="D218" s="109"/>
-      <c r="E218" s="109"/>
-      <c r="F218" s="109"/>
-      <c r="G218" s="109"/>
+      <c r="D218" s="91"/>
+      <c r="E218" s="91"/>
+      <c r="F218" s="91"/>
+      <c r="G218" s="91"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
@@ -6336,12 +6336,12 @@
         <v>417</v>
       </c>
       <c r="C219" s="6"/>
-      <c r="D219" s="109" t="s">
+      <c r="D219" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="E219" s="109"/>
-      <c r="F219" s="109"/>
-      <c r="G219" s="109"/>
+      <c r="E219" s="91"/>
+      <c r="F219" s="91"/>
+      <c r="G219" s="91"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="37">
@@ -6351,12 +6351,12 @@
         <v>243</v>
       </c>
       <c r="C220" s="6"/>
-      <c r="D220" s="98" t="s">
+      <c r="D220" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E220" s="98"/>
-      <c r="F220" s="98"/>
-      <c r="G220" s="98"/>
+      <c r="E220" s="104"/>
+      <c r="F220" s="104"/>
+      <c r="G220" s="104"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="37">
@@ -6366,12 +6366,12 @@
         <v>244</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="98" t="s">
+      <c r="D221" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E221" s="98"/>
-      <c r="F221" s="98"/>
-      <c r="G221" s="98"/>
+      <c r="E221" s="104"/>
+      <c r="F221" s="104"/>
+      <c r="G221" s="104"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="37">
@@ -6381,12 +6381,12 @@
         <v>245</v>
       </c>
       <c r="C222" s="6"/>
-      <c r="D222" s="98" t="s">
+      <c r="D222" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E222" s="98"/>
-      <c r="F222" s="98"/>
-      <c r="G222" s="98"/>
+      <c r="E222" s="104"/>
+      <c r="F222" s="104"/>
+      <c r="G222" s="104"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="37">
@@ -6396,12 +6396,12 @@
         <v>246</v>
       </c>
       <c r="C223" s="6"/>
-      <c r="D223" s="98" t="s">
+      <c r="D223" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E223" s="98"/>
-      <c r="F223" s="98"/>
-      <c r="G223" s="98"/>
+      <c r="E223" s="104"/>
+      <c r="F223" s="104"/>
+      <c r="G223" s="104"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="37">
@@ -6411,12 +6411,12 @@
         <v>247</v>
       </c>
       <c r="C224" s="6"/>
-      <c r="D224" s="98" t="s">
+      <c r="D224" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E224" s="98"/>
-      <c r="F224" s="98"/>
-      <c r="G224" s="98"/>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="37">
@@ -6426,12 +6426,12 @@
         <v>253</v>
       </c>
       <c r="C225" s="6"/>
-      <c r="D225" s="98" t="s">
+      <c r="D225" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E225" s="98"/>
-      <c r="F225" s="98"/>
-      <c r="G225" s="98"/>
+      <c r="E225" s="104"/>
+      <c r="F225" s="104"/>
+      <c r="G225" s="104"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="37">
@@ -6441,12 +6441,12 @@
         <v>254</v>
       </c>
       <c r="C226" s="6"/>
-      <c r="D226" s="98" t="s">
+      <c r="D226" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E226" s="98"/>
-      <c r="F226" s="98"/>
-      <c r="G226" s="98"/>
+      <c r="E226" s="104"/>
+      <c r="F226" s="104"/>
+      <c r="G226" s="104"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="37">
@@ -6456,12 +6456,12 @@
         <v>255</v>
       </c>
       <c r="C227" s="6"/>
-      <c r="D227" s="98" t="s">
+      <c r="D227" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E227" s="98"/>
-      <c r="F227" s="98"/>
-      <c r="G227" s="98"/>
+      <c r="E227" s="104"/>
+      <c r="F227" s="104"/>
+      <c r="G227" s="104"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="37">
@@ -6471,12 +6471,12 @@
         <v>256</v>
       </c>
       <c r="C228" s="6"/>
-      <c r="D228" s="98" t="s">
+      <c r="D228" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E228" s="98"/>
-      <c r="F228" s="98"/>
-      <c r="G228" s="98"/>
+      <c r="E228" s="104"/>
+      <c r="F228" s="104"/>
+      <c r="G228" s="104"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="37">
@@ -6486,12 +6486,12 @@
         <v>257</v>
       </c>
       <c r="C229" s="6"/>
-      <c r="D229" s="98" t="s">
+      <c r="D229" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E229" s="98"/>
-      <c r="F229" s="98"/>
-      <c r="G229" s="98"/>
+      <c r="E229" s="104"/>
+      <c r="F229" s="104"/>
+      <c r="G229" s="104"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="37">
@@ -6501,12 +6501,12 @@
         <v>258</v>
       </c>
       <c r="C230" s="6"/>
-      <c r="D230" s="98" t="s">
+      <c r="D230" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E230" s="98"/>
-      <c r="F230" s="98"/>
-      <c r="G230" s="98"/>
+      <c r="E230" s="104"/>
+      <c r="F230" s="104"/>
+      <c r="G230" s="104"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="37">
@@ -6516,12 +6516,12 @@
         <v>418</v>
       </c>
       <c r="C231" s="6"/>
-      <c r="D231" s="98" t="s">
+      <c r="D231" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E231" s="98"/>
-      <c r="F231" s="98"/>
-      <c r="G231" s="98"/>
+      <c r="E231" s="104"/>
+      <c r="F231" s="104"/>
+      <c r="G231" s="104"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="37">
@@ -6531,12 +6531,12 @@
         <v>419</v>
       </c>
       <c r="C232" s="6"/>
-      <c r="D232" s="98" t="s">
+      <c r="D232" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E232" s="98"/>
-      <c r="F232" s="98"/>
-      <c r="G232" s="98"/>
+      <c r="E232" s="104"/>
+      <c r="F232" s="104"/>
+      <c r="G232" s="104"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
@@ -6546,12 +6546,12 @@
         <v>420</v>
       </c>
       <c r="C233" s="6"/>
-      <c r="D233" s="98" t="s">
+      <c r="D233" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="E233" s="98"/>
-      <c r="F233" s="98"/>
-      <c r="G233" s="98"/>
+      <c r="E233" s="104"/>
+      <c r="F233" s="104"/>
+      <c r="G233" s="104"/>
     </row>
     <row r="237" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="50" t="s">
@@ -6576,12 +6576,12 @@
         <v>412</v>
       </c>
       <c r="C238" s="6"/>
-      <c r="D238" s="109" t="s">
+      <c r="D238" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="E238" s="109"/>
-      <c r="F238" s="109"/>
-      <c r="G238" s="109"/>
+      <c r="E238" s="91"/>
+      <c r="F238" s="91"/>
+      <c r="G238" s="91"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
@@ -6591,12 +6591,12 @@
         <v>417</v>
       </c>
       <c r="C239" s="6"/>
-      <c r="D239" s="109" t="s">
+      <c r="D239" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="E239" s="109"/>
-      <c r="F239" s="109"/>
-      <c r="G239" s="109"/>
+      <c r="E239" s="91"/>
+      <c r="F239" s="91"/>
+      <c r="G239" s="91"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
@@ -6606,12 +6606,12 @@
         <v>429</v>
       </c>
       <c r="C240" s="6"/>
-      <c r="D240" s="109" t="s">
+      <c r="D240" s="91" t="s">
         <v>534</v>
       </c>
-      <c r="E240" s="109"/>
-      <c r="F240" s="109"/>
-      <c r="G240" s="109"/>
+      <c r="E240" s="91"/>
+      <c r="F240" s="91"/>
+      <c r="G240" s="91"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="37">
@@ -6621,12 +6621,12 @@
         <v>430</v>
       </c>
       <c r="C241" s="6"/>
-      <c r="D241" s="109" t="s">
+      <c r="D241" s="91" t="s">
         <v>431</v>
       </c>
-      <c r="E241" s="109"/>
-      <c r="F241" s="109"/>
-      <c r="G241" s="109"/>
+      <c r="E241" s="91"/>
+      <c r="F241" s="91"/>
+      <c r="G241" s="91"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="37">
@@ -6636,12 +6636,12 @@
         <v>418</v>
       </c>
       <c r="C242" s="6"/>
-      <c r="D242" s="98" t="s">
+      <c r="D242" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="E242" s="98"/>
-      <c r="F242" s="98"/>
-      <c r="G242" s="98"/>
+      <c r="E242" s="104"/>
+      <c r="F242" s="104"/>
+      <c r="G242" s="104"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
@@ -6651,12 +6651,12 @@
         <v>420</v>
       </c>
       <c r="C243" s="6"/>
-      <c r="D243" s="98" t="s">
+      <c r="D243" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="E243" s="98"/>
-      <c r="F243" s="98"/>
-      <c r="G243" s="98"/>
+      <c r="E243" s="104"/>
+      <c r="F243" s="104"/>
+      <c r="G243" s="104"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="37">
@@ -6666,12 +6666,12 @@
         <v>243</v>
       </c>
       <c r="C244" s="6"/>
-      <c r="D244" s="98" t="s">
+      <c r="D244" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E244" s="98"/>
-      <c r="F244" s="98"/>
-      <c r="G244" s="98"/>
+      <c r="E244" s="104"/>
+      <c r="F244" s="104"/>
+      <c r="G244" s="104"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="37">
@@ -6681,12 +6681,12 @@
         <v>244</v>
       </c>
       <c r="C245" s="6"/>
-      <c r="D245" s="98" t="s">
+      <c r="D245" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E245" s="98"/>
-      <c r="F245" s="98"/>
-      <c r="G245" s="98"/>
+      <c r="E245" s="104"/>
+      <c r="F245" s="104"/>
+      <c r="G245" s="104"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="37">
@@ -6696,12 +6696,12 @@
         <v>245</v>
       </c>
       <c r="C246" s="6"/>
-      <c r="D246" s="98" t="s">
+      <c r="D246" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E246" s="98"/>
-      <c r="F246" s="98"/>
-      <c r="G246" s="98"/>
+      <c r="E246" s="104"/>
+      <c r="F246" s="104"/>
+      <c r="G246" s="104"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="37">
@@ -6711,12 +6711,12 @@
         <v>246</v>
       </c>
       <c r="C247" s="6"/>
-      <c r="D247" s="98" t="s">
+      <c r="D247" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E247" s="98"/>
-      <c r="F247" s="98"/>
-      <c r="G247" s="98"/>
+      <c r="E247" s="104"/>
+      <c r="F247" s="104"/>
+      <c r="G247" s="104"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="37">
@@ -6726,12 +6726,12 @@
         <v>247</v>
       </c>
       <c r="C248" s="6"/>
-      <c r="D248" s="98" t="s">
+      <c r="D248" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="E248" s="98"/>
-      <c r="F248" s="98"/>
-      <c r="G248" s="98"/>
+      <c r="E248" s="104"/>
+      <c r="F248" s="104"/>
+      <c r="G248" s="104"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="37">
@@ -6741,12 +6741,12 @@
         <v>253</v>
       </c>
       <c r="C249" s="6"/>
-      <c r="D249" s="98" t="s">
+      <c r="D249" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E249" s="98"/>
-      <c r="F249" s="98"/>
-      <c r="G249" s="98"/>
+      <c r="E249" s="104"/>
+      <c r="F249" s="104"/>
+      <c r="G249" s="104"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="37">
@@ -6756,12 +6756,12 @@
         <v>254</v>
       </c>
       <c r="C250" s="6"/>
-      <c r="D250" s="98" t="s">
+      <c r="D250" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E250" s="98"/>
-      <c r="F250" s="98"/>
-      <c r="G250" s="98"/>
+      <c r="E250" s="104"/>
+      <c r="F250" s="104"/>
+      <c r="G250" s="104"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="37">
@@ -6771,12 +6771,12 @@
         <v>255</v>
       </c>
       <c r="C251" s="6"/>
-      <c r="D251" s="98" t="s">
+      <c r="D251" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E251" s="98"/>
-      <c r="F251" s="98"/>
-      <c r="G251" s="98"/>
+      <c r="E251" s="104"/>
+      <c r="F251" s="104"/>
+      <c r="G251" s="104"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="37">
@@ -6786,12 +6786,12 @@
         <v>256</v>
       </c>
       <c r="C252" s="6"/>
-      <c r="D252" s="98" t="s">
+      <c r="D252" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E252" s="98"/>
-      <c r="F252" s="98"/>
-      <c r="G252" s="98"/>
+      <c r="E252" s="104"/>
+      <c r="F252" s="104"/>
+      <c r="G252" s="104"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="37">
@@ -6801,12 +6801,12 @@
         <v>257</v>
       </c>
       <c r="C253" s="6"/>
-      <c r="D253" s="98" t="s">
+      <c r="D253" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E253" s="98"/>
-      <c r="F253" s="98"/>
-      <c r="G253" s="98"/>
+      <c r="E253" s="104"/>
+      <c r="F253" s="104"/>
+      <c r="G253" s="104"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="37">
@@ -6816,21 +6816,21 @@
         <v>258</v>
       </c>
       <c r="C254" s="6"/>
-      <c r="D254" s="98" t="s">
+      <c r="D254" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E254" s="98"/>
-      <c r="F254" s="98"/>
-      <c r="G254" s="98"/>
+      <c r="E254" s="104"/>
+      <c r="F254" s="104"/>
+      <c r="G254" s="104"/>
     </row>
     <row r="258" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="B258" s="91" t="s">
+      <c r="B258" s="92" t="s">
         <v>435</v>
       </c>
-      <c r="C258" s="91"/>
+      <c r="C258" s="92"/>
       <c r="D258" s="33" t="s">
         <v>7</v>
       </c>
@@ -6845,10 +6845,10 @@
       <c r="A259" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="B259" s="91" t="s">
+      <c r="B259" s="92" t="s">
         <v>436</v>
       </c>
-      <c r="C259" s="91"/>
+      <c r="C259" s="92"/>
       <c r="D259" s="33" t="s">
         <v>7</v>
       </c>
@@ -6863,10 +6863,10 @@
       <c r="A260" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="B260" s="91" t="s">
+      <c r="B260" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="C260" s="91"/>
+      <c r="C260" s="92"/>
       <c r="D260" s="33" t="s">
         <v>7</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="B261" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="C261" s="106"/>
+      <c r="C261" s="96"/>
       <c r="D261" s="33" t="s">
         <v>7</v>
       </c>
@@ -6896,14 +6896,14 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="108" t="s">
+      <c r="A262" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="B262" s="108"/>
-      <c r="C262" s="108"/>
-      <c r="D262" s="108"/>
-      <c r="E262" s="108"/>
-      <c r="F262" s="108"/>
+      <c r="B262" s="106"/>
+      <c r="C262" s="106"/>
+      <c r="D262" s="106"/>
+      <c r="E262" s="106"/>
+      <c r="F262" s="106"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="51"/>
@@ -6943,10 +6943,10 @@
       <c r="A266" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="B266" s="91" t="s">
+      <c r="B266" s="92" t="s">
         <v>445</v>
       </c>
-      <c r="C266" s="91"/>
+      <c r="C266" s="92"/>
       <c r="D266" s="33" t="s">
         <v>7</v>
       </c>
@@ -6961,10 +6961,10 @@
       <c r="A267" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="B267" s="91" t="s">
+      <c r="B267" s="92" t="s">
         <v>446</v>
       </c>
-      <c r="C267" s="91"/>
+      <c r="C267" s="92"/>
       <c r="D267" s="33" t="s">
         <v>7</v>
       </c>
@@ -6979,10 +6979,10 @@
       <c r="A268" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="B268" s="91" t="s">
+      <c r="B268" s="92" t="s">
         <v>447</v>
       </c>
-      <c r="C268" s="91"/>
+      <c r="C268" s="92"/>
       <c r="D268" s="33" t="s">
         <v>7</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="B269" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="C269" s="106"/>
+      <c r="C269" s="96"/>
       <c r="D269" s="33" t="s">
         <v>7</v>
       </c>
@@ -7033,10 +7033,10 @@
       <c r="A271" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="B271" s="91" t="s">
+      <c r="B271" s="92" t="s">
         <v>455</v>
       </c>
-      <c r="C271" s="91"/>
+      <c r="C271" s="92"/>
       <c r="D271" s="33" t="s">
         <v>7</v>
       </c>
@@ -7051,10 +7051,10 @@
       <c r="A272" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="B272" s="91" t="s">
+      <c r="B272" s="92" t="s">
         <v>456</v>
       </c>
-      <c r="C272" s="91"/>
+      <c r="C272" s="92"/>
       <c r="D272" s="33" t="s">
         <v>7</v>
       </c>
@@ -7069,10 +7069,10 @@
       <c r="A273" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="B273" s="91" t="s">
+      <c r="B273" s="92" t="s">
         <v>457</v>
       </c>
-      <c r="C273" s="91"/>
+      <c r="C273" s="92"/>
       <c r="D273" s="33" t="s">
         <v>7</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="B274" s="105" t="s">
         <v>458</v>
       </c>
-      <c r="C274" s="106"/>
+      <c r="C274" s="96"/>
       <c r="D274" s="33" t="s">
         <v>7</v>
       </c>
@@ -7123,10 +7123,10 @@
       <c r="A276" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="B276" s="91" t="s">
+      <c r="B276" s="92" t="s">
         <v>465</v>
       </c>
-      <c r="C276" s="91"/>
+      <c r="C276" s="92"/>
       <c r="D276" s="33" t="s">
         <v>7</v>
       </c>
@@ -7141,10 +7141,10 @@
       <c r="A277" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B277" s="91" t="s">
+      <c r="B277" s="92" t="s">
         <v>466</v>
       </c>
-      <c r="C277" s="91"/>
+      <c r="C277" s="92"/>
       <c r="D277" s="33" t="s">
         <v>7</v>
       </c>
@@ -7159,10 +7159,10 @@
       <c r="A278" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B278" s="91" t="s">
+      <c r="B278" s="92" t="s">
         <v>467</v>
       </c>
-      <c r="C278" s="91"/>
+      <c r="C278" s="92"/>
       <c r="D278" s="33" t="s">
         <v>7</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="B279" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="C279" s="106"/>
+      <c r="C279" s="96"/>
       <c r="D279" s="33" t="s">
         <v>7</v>
       </c>
@@ -7192,21 +7192,21 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="102" t="s">
+      <c r="A280" s="108" t="s">
         <v>469</v>
       </c>
-      <c r="B280" s="103"/>
-      <c r="C280" s="103"/>
-      <c r="D280" s="103"/>
-      <c r="E280" s="103"/>
-      <c r="F280" s="104"/>
+      <c r="B280" s="109"/>
+      <c r="C280" s="109"/>
+      <c r="D280" s="109"/>
+      <c r="E280" s="109"/>
+      <c r="F280" s="110"/>
     </row>
     <row r="284" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="47"/>
-      <c r="B284" s="91" t="s">
+      <c r="B284" s="92" t="s">
         <v>475</v>
       </c>
-      <c r="C284" s="91"/>
+      <c r="C284" s="92"/>
       <c r="D284" s="33" t="s">
         <v>7</v>
       </c>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="285" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="47"/>
-      <c r="B285" s="91" t="s">
+      <c r="B285" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="C285" s="91"/>
+      <c r="C285" s="92"/>
       <c r="D285" s="33" t="s">
         <v>7</v>
       </c>
@@ -7235,10 +7235,10 @@
     </row>
     <row r="286" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="47"/>
-      <c r="B286" s="91" t="s">
+      <c r="B286" s="92" t="s">
         <v>480</v>
       </c>
-      <c r="C286" s="91"/>
+      <c r="C286" s="92"/>
       <c r="D286" s="33" t="s">
         <v>7</v>
       </c>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="287" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="47"/>
-      <c r="B287" s="91" t="s">
+      <c r="B287" s="92" t="s">
         <v>488</v>
       </c>
-      <c r="C287" s="91"/>
+      <c r="C287" s="92"/>
       <c r="D287" s="33" t="s">
         <v>7</v>
       </c>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="288" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="47"/>
-      <c r="B288" s="91" t="s">
+      <c r="B288" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="C288" s="91"/>
+      <c r="C288" s="92"/>
       <c r="D288" s="33" t="s">
         <v>7</v>
       </c>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="289" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="47"/>
-      <c r="B289" s="91" t="s">
+      <c r="B289" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="C289" s="91"/>
+      <c r="C289" s="92"/>
       <c r="D289" s="33" t="s">
         <v>7</v>
       </c>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="290" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="47"/>
-      <c r="B290" s="91" t="s">
+      <c r="B290" s="92" t="s">
         <v>492</v>
       </c>
-      <c r="C290" s="91"/>
+      <c r="C290" s="92"/>
       <c r="D290" s="33" t="s">
         <v>7</v>
       </c>
@@ -7321,11 +7321,11 @@
         <v>241</v>
       </c>
       <c r="C291" s="6"/>
-      <c r="D291" s="94" t="s">
+      <c r="D291" s="111" t="s">
         <v>479</v>
       </c>
-      <c r="E291" s="95"/>
-      <c r="F291" s="96"/>
+      <c r="E291" s="93"/>
+      <c r="F291" s="94"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="37">
@@ -7335,18 +7335,18 @@
         <v>476</v>
       </c>
       <c r="C292" s="6"/>
-      <c r="D292" s="98" t="s">
+      <c r="D292" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="E292" s="98"/>
-      <c r="F292" s="98"/>
+      <c r="E292" s="104"/>
+      <c r="F292" s="104"/>
     </row>
     <row r="296" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="47"/>
-      <c r="B296" s="91" t="s">
+      <c r="B296" s="92" t="s">
         <v>482</v>
       </c>
-      <c r="C296" s="91"/>
+      <c r="C296" s="92"/>
       <c r="D296" s="33" t="s">
         <v>7</v>
       </c>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="297" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="47"/>
-      <c r="B297" s="91" t="s">
+      <c r="B297" s="92" t="s">
         <v>483</v>
       </c>
-      <c r="C297" s="91"/>
+      <c r="C297" s="92"/>
       <c r="D297" s="33" t="s">
         <v>7</v>
       </c>
@@ -7375,10 +7375,10 @@
     </row>
     <row r="298" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="47"/>
-      <c r="B298" s="91" t="s">
+      <c r="B298" s="92" t="s">
         <v>484</v>
       </c>
-      <c r="C298" s="91"/>
+      <c r="C298" s="92"/>
       <c r="D298" s="33" t="s">
         <v>7</v>
       </c>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="299" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="47"/>
-      <c r="B299" s="91" t="s">
+      <c r="B299" s="92" t="s">
         <v>486</v>
       </c>
-      <c r="C299" s="91"/>
+      <c r="C299" s="92"/>
       <c r="D299" s="33" t="s">
         <v>7</v>
       </c>
@@ -7407,10 +7407,10 @@
     </row>
     <row r="300" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="47"/>
-      <c r="B300" s="91" t="s">
+      <c r="B300" s="92" t="s">
         <v>487</v>
       </c>
-      <c r="C300" s="91"/>
+      <c r="C300" s="92"/>
       <c r="D300" s="54" t="s">
         <v>94</v>
       </c>
@@ -7423,10 +7423,10 @@
     </row>
     <row r="301" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="47"/>
-      <c r="B301" s="91" t="s">
+      <c r="B301" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="C301" s="91"/>
+      <c r="C301" s="92"/>
       <c r="D301" s="33" t="s">
         <v>7</v>
       </c>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="302" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="47"/>
-      <c r="B302" s="91" t="s">
+      <c r="B302" s="92" t="s">
         <v>489</v>
       </c>
-      <c r="C302" s="91"/>
+      <c r="C302" s="92"/>
       <c r="D302" s="33" t="s">
         <v>7</v>
       </c>
@@ -7455,10 +7455,10 @@
     </row>
     <row r="303" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="47"/>
-      <c r="B303" s="91" t="s">
+      <c r="B303" s="92" t="s">
         <v>493</v>
       </c>
-      <c r="C303" s="91"/>
+      <c r="C303" s="92"/>
       <c r="D303" s="33" t="s">
         <v>7</v>
       </c>
@@ -7477,11 +7477,11 @@
         <v>241</v>
       </c>
       <c r="C304" s="6"/>
-      <c r="D304" s="94" t="s">
+      <c r="D304" s="111" t="s">
         <v>485</v>
       </c>
-      <c r="E304" s="95"/>
-      <c r="F304" s="96"/>
+      <c r="E304" s="93"/>
+      <c r="F304" s="94"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="37">
@@ -7491,11 +7491,11 @@
         <v>476</v>
       </c>
       <c r="C305" s="6"/>
-      <c r="D305" s="97" t="s">
+      <c r="D305" s="114" t="s">
         <v>477</v>
       </c>
-      <c r="E305" s="97"/>
-      <c r="F305" s="97"/>
+      <c r="E305" s="114"/>
+      <c r="F305" s="114"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="37" t="s">
@@ -7505,26 +7505,209 @@
         <v>420</v>
       </c>
       <c r="C306" s="6"/>
-      <c r="D306" s="99" t="s">
+      <c r="D306" s="115" t="s">
         <v>533</v>
       </c>
-      <c r="E306" s="100"/>
-      <c r="F306" s="100"/>
-      <c r="G306" s="100"/>
-      <c r="H306" s="101"/>
+      <c r="E306" s="116"/>
+      <c r="F306" s="116"/>
+      <c r="G306" s="116"/>
+      <c r="H306" s="117"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D307" s="92"/>
-      <c r="E307" s="93"/>
-      <c r="F307" s="93"/>
-      <c r="G307" s="93"/>
-      <c r="H307" s="93"/>
-      <c r="I307" s="93"/>
-      <c r="J307" s="93"/>
-      <c r="K307" s="93"/>
+      <c r="D307" s="112"/>
+      <c r="E307" s="113"/>
+      <c r="F307" s="113"/>
+      <c r="G307" s="113"/>
+      <c r="H307" s="113"/>
+      <c r="I307" s="113"/>
+      <c r="J307" s="113"/>
+      <c r="K307" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D307:K307"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D306:H306"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D252:G252"/>
+    <mergeCell ref="D253:G253"/>
+    <mergeCell ref="D254:G254"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D231:G231"/>
+    <mergeCell ref="D232:G232"/>
+    <mergeCell ref="D233:G233"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="D228:G228"/>
+    <mergeCell ref="D229:G229"/>
+    <mergeCell ref="D230:G230"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="D218:G218"/>
+    <mergeCell ref="D220:G220"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="D194:G194"/>
+    <mergeCell ref="D195:G195"/>
+    <mergeCell ref="D196:G196"/>
+    <mergeCell ref="D197:G197"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D31:G31"/>
     <mergeCell ref="E169:F169"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D2:G2"/>
@@ -7549,189 +7732,6 @@
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="D196:G196"/>
-    <mergeCell ref="D197:G197"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D215:G215"/>
-    <mergeCell ref="D216:G216"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="D225:G225"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="D219:G219"/>
-    <mergeCell ref="D218:G218"/>
-    <mergeCell ref="D220:G220"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D231:G231"/>
-    <mergeCell ref="D232:G232"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="D228:G228"/>
-    <mergeCell ref="D229:G229"/>
-    <mergeCell ref="D230:G230"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D252:G252"/>
-    <mergeCell ref="D253:G253"/>
-    <mergeCell ref="D254:G254"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="D307:K307"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D304:F304"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="D292:F292"/>
-    <mergeCell ref="D306:H306"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
